--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,23 +548,23 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Orquidea</t>
+          <t>...........</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-12-08T23:08:56.000Z</t>
+          <t>2025-12-15T00:29:56.000Z</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45999.96453703703</v>
+        <v>46006.02078703704</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>45999</v>
+        <v>46006</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>23:08:56</t>
+          <t>00:29:56</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -582,7 +582,7 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=1492527181856288', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzE0OTI1MjcxODE4NTYyODg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18xNDkyNTI3MTgxODU2Mjg4', 'date': '2025-12-08T23:08:56.000Z', 'text': 'Orquidea', 'profileUrl': 'https://www.facebook.com/alicia.tibocha.3', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/343225468_5947624</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=3395229290626714', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzMzOTUyMjkyOTA2MjY3MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18zMzk1MjI5MjkwNjI2NzE0', 'date': '2025-12-15T00:29:56.000Z', 'text': '...........', 'profilePicture': 'https://scontent.fhyw1-1.fna.fbcdn.net/v/t39.30808-1/597541971_122204125934508003_2179097650133734319_n.jpg?stp=cp0_dst-jpg_</t>
         </is>
       </c>
     </row>
@@ -608,23 +608,23 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>No me importa perra hijueputa</t>
+          <t>Ámen</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-12-08T00:15:08.000Z</t>
+          <t>2025-12-14T22:32:55.000Z</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45999.01050925926</v>
+        <v>46005.93952546296</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>45999</v>
+        <v>46005</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>00:15:08</t>
+          <t>22:32:55</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -642,7 +642,7 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=2375964229527819', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzIzNzU5NjQyMjk1Mjc4MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18yMzc1OTY0MjI5NTI3ODE5', 'date': '2025-12-08T00:15:08.000Z', 'text': 'No me importa perra hijueputa', 'profileUrl': 'https://www.facebook.com/people/Dante-Enrique-Fuentes-Garc%C3%A8s/pfbid0camWp8D5e2V2hNohxVqnLFE8BrQDBnZqTdYN5b</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=717889971367697', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzcxNzg4OTk3MTM2NzY5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M183MTc4ODk5NzEzNjc2OTc=', 'date': '2025-12-14T22:32:55.000Z', 'text': 'Ámen', 'profileUrl': 'https://www.facebook.com/henry.gonzales.15008', 'profilePicture': 'https://scontent.fhyw1-1.fna.fbcdn.net/v/t1.6435-1/96025415_738412786</t>
         </is>
       </c>
     </row>
@@ -668,23 +668,23 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>\q\</t>
+          <t>Q lindos así es q bonito🙏🙏</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-12-07T11:11:55.000Z</t>
+          <t>2025-12-12T01:35:46.000Z</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45998.4666087963</v>
+        <v>46003.06650462963</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>45998</v>
+        <v>46003</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>11:11:55</t>
+          <t>01:35:46</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -702,7 +702,7 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=854218707196947', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzg1NDIxODcwNzE5Njk0Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184NTQyMTg3MDcxOTY5NDc=', 'date': '2025-12-07T11:11:55.000Z', 'text': '\\q\\', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/471787755_9834129280042591_6490743498348065273_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=841352655192095', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzg0MTM1MjY1NTE5MjA5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184NDEzNTI2NTUxOTIwOTU=', 'date': '2025-12-12T01:35:46.000Z', 'text': 'Q lindos así es q bonito🙏🙏', 'profileUrl': 'https://www.facebook.com/cecilia.perez.136943', 'profilePicture': 'https://scontent.fhyw1-1.fna.fbcdn.net/v/t1.643</t>
         </is>
       </c>
     </row>
@@ -728,29 +728,27 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Armadillo</t>
+          <t>Orquidea</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-12-05T17:17:04.000Z</t>
+          <t>2025-12-08T23:08:56.000Z</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45996.72018518519</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>45996</v>
+        <v>45999.96453703703</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>45999</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>17:17:04</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>23:08:56</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -762,7 +760,7 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=883750410757079', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzg4Mzc1MDQxMDc1NzA3OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184ODM3NTA0MTA3NTcwNzk=', 'date': '2025-12-05T17:17:04.000Z', 'text': 'Armadillo', 'profileUrl': 'https://www.facebook.com/graciela.saldarriaga.9', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/574029751_1</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=1492527181856288', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzE0OTI1MjcxODE4NTYyODg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18xNDkyNTI3MTgxODU2Mjg4', 'date': '2025-12-08T23:08:56.000Z', 'text': 'Orquidea', 'profileUrl': 'https://www.facebook.com/alicia.tibocha.3', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/343225468_5947624</t>
         </is>
       </c>
     </row>
@@ -788,29 +786,27 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>la navidad no existe en ninguna parte de la Biblia lo registra mientras el mundo espera un nacimiento de idolatría hay un pueblo esperando la venida del verdadero señor Jesús que muy pronto vendrá por su iglesia santa y sin mancha el verdadero señor Jesús ase mucho tiempo que vino a la tierra solo Jesús nació solo Jesús murió y solo Jesús resucitó una sola vez y vive por siempre también es Espíritu y conoce a todo hombre por dentro y por fuera hay que leer la Biblia para que sepan que es lo que está por suceder por qué el mundo está dormido pensando en fiestas paganas y se les olvida que el vive y reina por los siglos de los siglos y muy pronto vendrá</t>
+          <t>No me importa perra hijueputa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-12-03T22:59:35.000Z</t>
+          <t>2025-12-08T00:15:08.000Z</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45994.95804398148</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>45994</v>
+        <v>45999.01050925926</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>45999</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>22:59:35</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>00:15:08</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -822,7 +818,7 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=4226442804277323', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzQyMjY0NDI4MDQyNzczMjM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M180MjI2NDQyODA0Mjc3MzIz', 'date': '2025-12-03T22:59:35.000Z', 'text': 'la navidad no existe en ninguna parte de la Biblia lo registra mientras el mundo espera un nacimiento de idolatría hay un pueblo esperando la venida del verd</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=2375964229527819', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzIzNzU5NjQyMjk1Mjc4MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18yMzc1OTY0MjI5NTI3ODE5', 'date': '2025-12-08T00:15:08.000Z', 'text': 'No me importa perra hijueputa', 'profileUrl': 'https://www.facebook.com/people/Dante-Enrique-Fuentes-Garc%C3%A8s/pfbid0camWp8D5e2V2hNohxVqnLFE8BrQDBnZqTdYN5b</t>
         </is>
       </c>
     </row>
@@ -848,29 +844,27 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gss</t>
+          <t>\q\</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-12-01T02:22:19.000Z</t>
+          <t>2025-12-07T11:11:55.000Z</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45992.09883101852</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>45992</v>
+        <v>45998.4666087963</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>45998</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>02:22:19</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>11:11:55</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -882,7 +876,7 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=33057038213910265', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzMzMDU3MDM4MjEzOTEwMjY1', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18zMzA1NzAzODIxMzkxMDI2NQ==', 'date': '2025-12-01T02:22:19.000Z', 'text': 'Gss', 'profileUrl': 'https://www.facebook.com/claudimar.martinez.3367', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/324334081_</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=854218707196947', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzg1NDIxODcwNzE5Njk0Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184NTQyMTg3MDcxOTY5NDc=', 'date': '2025-12-07T11:11:55.000Z', 'text': '\\q\\', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/471787755_9834129280042591_6490743498348065273_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;</t>
         </is>
       </c>
     </row>
@@ -908,29 +902,27 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Q mamera ahora con ud señora q cansoneria no tiene más nada que hacer... 🙄</t>
+          <t>Armadillo</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-12-01T00:00:36.000Z</t>
+          <t>2025-12-05T17:17:04.000Z</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45992.00041666667</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>45992</v>
+        <v>45996.72018518519</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>45996</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>00:00:36</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>17:17:04</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -942,7 +934,7 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=820960607606969', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzgyMDk2MDYwNzYwNjk2OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184MjA5NjA2MDc2MDY5Njk=', 'date': '2025-12-01T00:00:36.000Z', 'text': 'Q mamera ahora con ud señora q cansoneria no tiene más nada que hacer... 🙄', 'profileUrl': 'https://www.facebook.com/jhony.figueroa.372', 'profilePicture': 'h</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=883750410757079', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzg4Mzc1MDQxMDc1NzA3OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184ODM3NTA0MTA3NTcwNzk=', 'date': '2025-12-05T17:17:04.000Z', 'text': 'Armadillo', 'profileUrl': 'https://www.facebook.com/graciela.saldarriaga.9', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/574029751_1</t>
         </is>
       </c>
     </row>
@@ -968,29 +960,27 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ajonjo  esa planta se come con sal o ondas dulce se hacen cocadas bolita.segun nuestro papá sirve para la gripe y esa grasa sirve para los pulmones</t>
+          <t>la navidad no existe en ninguna parte de la Biblia lo registra mientras el mundo espera un nacimiento de idolatría hay un pueblo esperando la venida del verdadero señor Jesús que muy pronto vendrá por su iglesia santa y sin mancha el verdadero señor Jesús ase mucho tiempo que vino a la tierra solo Jesús nació solo Jesús murió y solo Jesús resucitó una sola vez y vive por siempre también es Espíritu y conoce a todo hombre por dentro y por fuera hay que leer la Biblia para que sepan que es lo que está por suceder por qué el mundo está dormido pensando en fiestas paganas y se les olvida que el vive y reina por los siglos de los siglos y muy pronto vendrá</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-11-30T21:06:52.000Z</t>
+          <t>2025-12-03T22:59:35.000Z</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45991.87976851852</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>45991</v>
+        <v>45994.95804398148</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>45994</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21:06:52</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>22:59:35</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1002,7 +992,7 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=716877781018772', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzcxNjg3Nzc4MTAxODc3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M183MTY4Nzc3ODEwMTg3NzI=', 'date': '2025-11-30T21:06:52.000Z', 'text': 'Ajonjo  esa planta se come con sal o ondas dulce se hacen cocadas bolita.segun nuestro papá sirve para la gripe y esa grasa sirve para los pulmones', 'profile</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=4226442804277323', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzQyMjY0NDI4MDQyNzczMjM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M180MjI2NDQyODA0Mjc3MzIz', 'date': '2025-12-03T22:59:35.000Z', 'text': 'la navidad no existe en ninguna parte de la Biblia lo registra mientras el mundo espera un nacimiento de idolatría hay un pueblo esperando la venida del verd</t>
         </is>
       </c>
     </row>
@@ -1028,29 +1018,27 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Navidad,, que lees pasa</t>
+          <t>Gss</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-11-30T20:58:16.000Z</t>
+          <t>2025-12-01T02:22:19.000Z</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45991.8737962963</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>45991</v>
+        <v>45992.09883101852</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>45992</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>20:58:16</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>02:22:19</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1062,7 +1050,7 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=822291320574898', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzgyMjI5MTMyMDU3NDg5OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184MjIyOTEzMjA1NzQ4OTg=', 'date': '2025-11-30T20:58:16.000Z', 'text': 'Navidad,, que lees pasa', 'profileUrl': 'https://www.facebook.com/morgan.himura.mayorga', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=33057038213910265', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzMzMDU3MDM4MjEzOTEwMjY1', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18zMzA1NzAzODIxMzkxMDI2NQ==', 'date': '2025-12-01T02:22:19.000Z', 'text': 'Gss', 'profileUrl': 'https://www.facebook.com/claudimar.martinez.3367', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/324334081_</t>
         </is>
       </c>
     </row>
@@ -1088,29 +1076,27 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sagwruyag mi JhVUauyayyap</t>
+          <t>Q mamera ahora con ud señora q cansoneria no tiene más nada que hacer... 🙄</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-11-30T18:40:39.000Z</t>
+          <t>2025-12-01T00:00:36.000Z</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45991.77822916667</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>45991</v>
+        <v>45992.00041666667</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>45992</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>18:40:39</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>00:00:36</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1122,7 +1108,7 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=833717786190766', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzgzMzcxNzc4NjE5MDc2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184MzM3MTc3ODYxOTA3NjY=', 'date': '2025-11-30T18:40:39.000Z', 'text': 'Sagwruyag mi JhVUauyayyap', 'profileUrl': 'https://www.facebook.com/people/Nicolas-Narv%C3%A1ez/pfbid06syj53GLcEsCDaTpY23iFj4PWScFHwMapc8ytKh16jTQiQ3jB1shdtVj</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=820960607606969', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzgyMDk2MDYwNzYwNjk2OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184MjA5NjA2MDc2MDY5Njk=', 'date': '2025-12-01T00:00:36.000Z', 'text': 'Q mamera ahora con ud señora q cansoneria no tiene más nada que hacer... 🙄', 'profileUrl': 'https://www.facebook.com/jhony.figueroa.372', 'profilePicture': 'h</t>
         </is>
       </c>
     </row>
@@ -1148,29 +1134,27 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Y5</t>
+          <t>Ajonjo  esa planta se come con sal o ondas dulce se hacen cocadas bolita.segun nuestro papá sirve para la gripe y esa grasa sirve para los pulmones</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-11-30T02:06:27.000Z</t>
+          <t>2025-11-30T21:06:52.000Z</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45991.0878125</v>
-      </c>
-      <c r="I12" s="3" t="n">
+        <v>45991.87976851852</v>
+      </c>
+      <c r="I12" s="2" t="n">
         <v>45991</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>02:06:27</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>21:06:52</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1182,7 +1166,7 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=1532686844714982', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzE1MzI2ODY4NDQ3MTQ5ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18xNTMyNjg2ODQ0NzE0OTgy', 'date': '2025-11-30T02:06:27.000Z', 'text': 'Y5', 'profileUrl': 'https://www.facebook.com/people/Javier-Hidalgo/pfbid0nZUNJ4Yq52pdURSYomnoNDkQh32gNA9ivU8WvDQLy9RxyFGrE9BWrAu5Q43xQDAKl/', 'profilePicture</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=716877781018772', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzcxNjg3Nzc4MTAxODc3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M183MTY4Nzc3ODEwMTg3NzI=', 'date': '2025-11-30T21:06:52.000Z', 'text': 'Ajonjo  esa planta se come con sal o ondas dulce se hacen cocadas bolita.segun nuestro papá sirve para la gripe y esa grasa sirve para los pulmones', 'profile</t>
         </is>
       </c>
     </row>
@@ -1208,29 +1192,27 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Disfrútalo mucho y que pases bien inicio</t>
+          <t>Navidad,, que lees pasa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-11-29T11:00:05.000Z</t>
+          <t>2025-11-30T20:58:16.000Z</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45990.45839120371</v>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>45990</v>
+        <v>45991.8737962963</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>45991</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>11:00:05</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>20:58:16</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1242,7 +1224,7 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=711704818657032', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzcxMTcwNDgxODY1NzAzMg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M183MTE3MDQ4MTg2NTcwMzI=', 'date': '2025-11-29T11:00:05.000Z', 'text': 'Disfrútalo mucho y que pases bien inicio', 'profileUrl': 'https://www.facebook.com/mario.villada.200060', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=822291320574898', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzgyMjI5MTMyMDU3NDg5OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184MjIyOTEzMjA1NzQ4OTg=', 'date': '2025-11-30T20:58:16.000Z', 'text': 'Navidad,, que lees pasa', 'profileUrl': 'https://www.facebook.com/morgan.himura.mayorga', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-</t>
         </is>
       </c>
     </row>
@@ -1268,29 +1250,27 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>❤️que lindo</t>
+          <t>Sagwruyag mi JhVUauyayyap</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-11-29T04:45:34.000Z</t>
+          <t>2025-11-30T18:40:39.000Z</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45990.19831018519</v>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>45990</v>
+        <v>45991.77822916667</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>45991</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>04:45:34</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>18:40:39</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1302,7 +1282,7 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=1236330011662261', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzEyMzYzMzAwMTE2NjIyNjE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18xMjM2MzMwMDExNjYyMjYx', 'date': '2025-11-29T04:45:34.000Z', 'text': '❤️que lindo', 'profileUrl': 'https://www.facebook.com/hernandez.espejo.606684', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/4875155</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=833717786190766', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzgzMzcxNzc4NjE5MDc2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184MzM3MTc3ODYxOTA3NjY=', 'date': '2025-11-30T18:40:39.000Z', 'text': 'Sagwruyag mi JhVUauyayyap', 'profileUrl': 'https://www.facebook.com/people/Nicolas-Narv%C3%A1ez/pfbid06syj53GLcEsCDaTpY23iFj4PWScFHwMapc8ytKh16jTQiQ3jB1shdtVj</t>
         </is>
       </c>
     </row>
@@ -1328,29 +1308,27 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Navidad con tus respetos .es una mierda , Santo=satanás. San Nicolás  humanos igenous</t>
+          <t>Y5</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-11-29T03:24:04.000Z</t>
+          <t>2025-11-30T02:06:27.000Z</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45990.14171296296</v>
-      </c>
-      <c r="I15" s="3" t="n">
-        <v>45990</v>
+        <v>45991.0878125</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>45991</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>03:24:04</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>02:06:27</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1362,7 +1340,7 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=1166019662308168', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzExNjYwMTk2NjIzMDgxNjg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18xMTY2MDE5NjYyMzA4MTY4', 'date': '2025-11-29T03:24:04.000Z', 'text': 'Navidad con tus respetos .es una mierda , Santo=satanás. San Nicolás  humanos igenous', 'profileUrl': 'https://www.facebook.com/wilfredo.garcia.599153', 'pro</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=1532686844714982', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzE1MzI2ODY4NDQ3MTQ5ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18xNTMyNjg2ODQ0NzE0OTgy', 'date': '2025-11-30T02:06:27.000Z', 'text': 'Y5', 'profileUrl': 'https://www.facebook.com/people/Javier-Hidalgo/pfbid0nZUNJ4Yq52pdURSYomnoNDkQh32gNA9ivU8WvDQLy9RxyFGrE9BWrAu5Q43xQDAKl/', 'profilePicture</t>
         </is>
       </c>
     </row>
@@ -1388,29 +1366,27 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dónde lo venden</t>
+          <t>Disfrútalo mucho y que pases bien inicio</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-11-29T03:16:42.000Z</t>
+          <t>2025-11-29T11:00:05.000Z</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45990.13659722222</v>
-      </c>
-      <c r="I16" s="3" t="n">
+        <v>45990.45839120371</v>
+      </c>
+      <c r="I16" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>03:16:42</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>11:00:05</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1422,13 +1398,13 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=778173978562386', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzc3ODE3Mzk3ODU2MjM4Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M183NzgxNzM5Nzg1NjIzODY=', 'date': '2025-11-29T03:16:42.000Z', 'text': 'Dónde lo venden', 'profileUrl': 'https://www.facebook.com/gloria.casas.3150', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/366724806_</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=711704818657032', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzcxMTcwNDgxODY1NzAzMg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M183MTE3MDQ4MTg2NTcwMzI=', 'date': '2025-11-29T11:00:05.000Z', 'text': 'Disfrútalo mucho y que pases bien inicio', 'profileUrl': 'https://www.facebook.com/mario.villada.200060', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1437,20 +1413,36 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/1064335669081037/</t>
+          <t>https://www.facebook.com/reel/824128970369850/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/1064335669081037/</t>
+          <t>https://www.facebook.com/reel/824128970369850/</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>❤️que lindo</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-11-29T04:45:34.000Z</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>45990.19831018519</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>04:45:34</t>
+        </is>
+      </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
@@ -1461,16 +1453,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=1236330011662261', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzEyMzYzMzAwMTE2NjIyNjE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18xMjM2MzMwMDExNjYyMjYx', 'date': '2025-11-29T04:45:34.000Z', 'text': '❤️que lindo', 'profileUrl': 'https://www.facebook.com/hernandez.espejo.606684', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/4875155</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1479,40 +1471,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
+          <t>https://www.facebook.com/reel/824128970369850/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
+          <t>https://www.facebook.com/reel/824128970369850/</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ladrillera</t>
+          <t>Navidad con tus respetos .es una mierda , Santo=satanás. San Nicolás  humanos igenous</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-12-09T11:34:26.000Z</t>
+          <t>2025-11-29T03:24:04.000Z</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>46000.48224537037</v>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>46000</v>
+        <v>45990.14171296296</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>45990</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>11:34:26</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>03:24:04</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1524,13 +1514,13 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1504070450848946', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1MDQwNzA0NTA4NDg5NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTA0MDcwNDUwODQ4OTQ2', 'date': '2025-12-09T11:34:26.000Z', 'text': 'Ladrillera', 'profileUrl': 'https://www.facebook.com/people/Rosario-D%C3%ADaz-Avila/pfbid02jyk8zyuequtF4aMuSrKzTrdZsXrWqjA3qvfjHEd7CpZsZkvkhVSq7dyPPXh9D3Gr</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=1166019662308168', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzExNjYwMTk2NjIzMDgxNjg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18xMTY2MDE5NjYyMzA4MTY4', 'date': '2025-11-29T03:24:04.000Z', 'text': 'Navidad con tus respetos .es una mierda , Santo=satanás. San Nicolás  humanos igenous', 'profileUrl': 'https://www.facebook.com/wilfredo.garcia.599153', 'pro</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1539,40 +1529,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
+          <t>https://www.facebook.com/reel/824128970369850/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
+          <t>https://www.facebook.com/reel/824128970369850/</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Hablé bien bobo hijueputa parece un maricon</t>
+          <t>Dónde lo venden</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-12-08T04:36:06.000Z</t>
+          <t>2025-11-29T03:16:42.000Z</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45999.19173611111</v>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>45999</v>
+        <v>45990.13659722222</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>45990</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>04:36:06</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>03:16:42</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1584,13 +1572,13 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1558506205484017', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NTg1MDYyMDU0ODQwMTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTU4NTA2MjA1NDg0MDE3', 'date': '2025-12-08T04:36:06.000Z', 'text': 'Hablé bien bobo hijueputa parece un maricon', 'profileUrl': 'https://www.facebook.com/people/Giovani-Casta%C3%B1eda/pfbid0288VbDd9dTCKqcwthRkKrTMN8NcKTrNFC</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=778173978562386', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzc3ODE3Mzk3ODU2MjM4Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M183NzgxNzM5Nzg1NjIzODY=', 'date': '2025-11-29T03:16:42.000Z', 'text': 'Dónde lo venden', 'profileUrl': 'https://www.facebook.com/gloria.casas.3150', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/366724806_</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1599,40 +1587,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
+          <t>https://www.facebook.com/reel/1064335669081037/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
+          <t>https://www.facebook.com/reel/1064335669081037/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Ya me imagino 😸 como olera la casa con esa manada de chuchos</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2025-12-07T22:45:35.000Z</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>45998.94832175926</v>
-      </c>
-      <c r="I20" s="3" t="n">
-        <v>45998</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>22:45:35</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1641,12 +1611,12 @@
         <v>0</v>
       </c>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1557308165421326', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NTczMDgxNjU0MjEzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTU3MzA4MTY1NDIxMzI2', 'date': '2025-12-07T22:45:35.000Z', 'text': 'Ya me imagino 😸 como olera la casa con esa manada de chuchos', 'profileUrl': 'https://www.facebook.com/luiscarlos.chavarro.7', 'profilePicture': 'https://s</t>
-        </is>
-      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1670,23 +1640,23 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Jeanpierre Vargas moni</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-12-07T15:19:03.000Z</t>
+          <t>2025-12-17T00:52:57.000Z</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45998.63822916667</v>
+        <v>46008.03677083334</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>45998</v>
+        <v>46008</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>15:19:03</t>
+          <t>00:52:57</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1704,7 +1674,7 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=876709925013424', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3NjcwOTkyNTAxMzQyNA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzY3MDk5MjUwMTM0MjQ=', 'date': '2025-12-07T15:19:03.000Z', 'text': 'Jeanpierre Vargas moni', 'profileUrl': 'https://www.facebook.com/harold.marrero.73', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/4</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=817400901124258', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzgxNzQwMDkwMTEyNDI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84MTc0MDA5MDExMjQyNTg=', 'date': '2025-12-17T00:52:57.000Z', 'text': '⁹', 'profileUrl': 'https://www.facebook.com/isa.hoyos.35', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.6435-1/156539205_2972468196324183_46</t>
         </is>
       </c>
     </row>
@@ -1730,23 +1700,23 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bellezassss</t>
+          <t>Se embobo</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-12-07T13:08:32.000Z</t>
+          <t>2025-12-15T11:02:35.000Z</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45998.54759259259</v>
+        <v>46006.46012731481</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>45998</v>
+        <v>46006</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>11:02:35</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1764,7 +1734,7 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1365612581637413', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNjU2MTI1ODE2Mzc0MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzY1NjEyNTgxNjM3NDEz', 'date': '2025-12-07T13:08:32.000Z', 'text': 'Bellezassss', 'profileUrl': 'https://www.facebook.com/amanda.alvarez.9210256', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t1.6435-1/97005185</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=25581637008139921', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzI1NTgxNjM3MDA4MTM5OTIx', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yNTU4MTYzNzAwODEzOTkyMQ==', 'date': '2025-12-15T11:02:35.000Z', 'text': 'Se embobo', 'profileUrl': 'https://www.facebook.com/rubiela.cardona.804330', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/518</t>
         </is>
       </c>
     </row>
@@ -1790,23 +1760,23 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>❤️</t>
+          <t>propaganda ridícula</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-12-06T20:56:09.000Z</t>
+          <t>2025-12-14T06:17:15.000Z</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45997.87232638889</v>
+        <v>46005.26197916667</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>45997</v>
+        <v>46005</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>20:56:09</t>
+          <t>06:17:15</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1824,7 +1794,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=697870086460716', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzY5Nzg3MDA4NjQ2MDcxNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV82OTc4NzAwODY0NjA3MTY=', 'date': '2025-12-06T20:56:09.000Z', 'text': '❤️', 'profileUrl': 'https://www.facebook.com/luz.ordones.393731', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/438205569_1221402985</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=894678003078253', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg5NDY3ODAwMzA3ODI1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84OTQ2NzgwMDMwNzgyNTM=', 'date': '2025-12-14T06:17:15.000Z', 'text': 'propaganda ridícula', 'profileUrl': 'https://www.facebook.com/Dugalvis', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/218443267_146</t>
         </is>
       </c>
     </row>
@@ -1850,23 +1820,23 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Juanda es juanda mijo usted vale verga</t>
+          <t>A ti hay que regalarte una volqueta de sal mijo 😂</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-12-06T10:21:02.000Z</t>
+          <t>2025-12-13T02:15:21.000Z</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45997.43127314815</v>
+        <v>46004.09399305555</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>45997</v>
+        <v>46004</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>10:21:02</t>
+          <t>02:15:21</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1884,7 +1854,7 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1153022776944307', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNTMwMjI3NzY5NDQzMDc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTUzMDIyNzc2OTQ0MzA3', 'date': '2025-12-06T10:21:02.000Z', 'text': 'Juanda es juanda mijo usted vale verga', 'profileUrl': 'https://www.facebook.com/sebastian.sanchez.860527', 'profilePicture': 'https://scontent.fpia1-1.fna</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=860909053063312', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg2MDkwOTA1MzA2MzMxMg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NjA5MDkwNTMwNjMzMTI=', 'date': '2025-12-13T02:15:21.000Z', 'text': 'A ti hay que regalarte una volqueta de sal mijo 😂', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.6435-1/149913918_3787793547982065_622463339</t>
         </is>
       </c>
     </row>
@@ -1910,23 +1880,23 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Y de paso un marica</t>
+          <t>Deles nalga</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-12-05T12:14:46.000Z</t>
+          <t>2025-12-12T04:57:00.000Z</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45996.51025462963</v>
+        <v>46003.20625</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>45996</v>
+        <v>46003</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>12:14:46</t>
+          <t>04:57:00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1944,7 +1914,7 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1123941459814167', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExMjM5NDE0NTk4MTQxNjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTIzOTQxNDU5ODE0MTY3', 'date': '2025-12-05T12:14:46.000Z', 'text': 'Y de paso un marica', 'profileUrl': 'https://www.facebook.com/oswaldo.alvarez.9406', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/67</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2094858337925209', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIwOTQ4NTgzMzc5MjUyMDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMDk0ODU4MzM3OTI1MjA5', 'date': '2025-12-12T04:57:00.000Z', 'text': 'Deles nalga', 'profileUrl': 'https://www.facebook.com/people/C%C3%A9sar-Delgado/pfbid0vAaPnzKZ9jnTB8SgpvEWp9p1e9zeGzxPs76Bw67h6ci4aFqAwXPLBmS2DV315qC9l/', </t>
         </is>
       </c>
     </row>
@@ -1970,23 +1940,23 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Se van a volver maricas los perros</t>
+          <t>Tiene la voz de camilo cifu3ntes</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-12-05T06:52:51.000Z</t>
+          <t>2025-12-11T10:32:14.000Z</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45996.28670138889</v>
+        <v>46002.43905092592</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>06:52:51</t>
+          <t>10:32:14</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2004,7 +1974,7 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=859786813225535', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1OTc4NjgxMzIyNTUzNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTk3ODY4MTMyMjU1MzU=', 'date': '2025-12-05T06:52:51.000Z', 'text': 'Se van a volver maricas los perros', 'profileUrl': 'https://www.facebook.com/people/Gonzalo-Salazar/pfbid0K2pb8Hxt9Lu6ExHmdDRNnwwy8Fp8UMGUNHdyMUzq4HVDw9Mu7s</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=796038283473893', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzc5NjAzODI4MzQ3Mzg5Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83OTYwMzgyODM0NzM4OTM=', 'date': '2025-12-11T10:32:14.000Z', 'text': 'Tiene la voz de camilo cifu3ntes', 'profileUrl': 'https://www.facebook.com/luz.helena.ossa.castano', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net</t>
         </is>
       </c>
     </row>
@@ -2030,29 +2000,27 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Pero xq todos los q hacen comercial o propaganda son como amanerado</t>
+          <t>Ladrillera</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-12-04T18:04:51.000Z</t>
+          <t>2025-12-09T11:34:26.000Z</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45995.75336805556</v>
-      </c>
-      <c r="I27" s="3" t="n">
-        <v>45995</v>
+        <v>46000.48224537037</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>46000</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>18:04:51</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>11:34:26</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2064,7 +2032,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=4031832796961811', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzQwMzE4MzI3OTY5NjE4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV80MDMxODMyNzk2OTYxODEx', 'date': '2025-12-04T18:04:51.000Z', 'text': 'Pero xq todos los q hacen comercial o propaganda son como amanerado', 'profileUrl': 'https://www.facebook.com/sebastian.osorio.859155', 'profilePicture': '</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1504070450848946', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1MDQwNzA0NTA4NDg5NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTA0MDcwNDUwODQ4OTQ2', 'date': '2025-12-09T11:34:26.000Z', 'text': 'Ladrillera', 'profileUrl': 'https://www.facebook.com/people/Rosario-D%C3%ADaz-Avila/pfbid02jyk8zyuequtF4aMuSrKzTrdZsXrWqjA3qvfjHEd7CpZsZkvkhVSq7dyPPXh9D3Gr</t>
         </is>
       </c>
     </row>
@@ -2090,29 +2058,27 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Un armaño</t>
+          <t>Hablé bien bobo hijueputa parece un maricon</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-12-04T16:03:43.000Z</t>
+          <t>2025-12-08T04:36:06.000Z</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45995.66924768518</v>
-      </c>
-      <c r="I28" s="3" t="n">
-        <v>45995</v>
+        <v>45999.19173611111</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>45999</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>16:03:43</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>04:36:06</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2124,7 +2090,7 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2249706118774341', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNDk3MDYxMTg3NzQzNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjQ5NzA2MTE4Nzc0MzQx', 'date': '2025-12-04T16:03:43.000Z', 'text': 'Un armaño', 'profileUrl': 'https://www.facebook.com/people/Lucho-Pinve/pfbid0gtCo922L34tWhtmxnFtgetGkNcAmJWq5aqem2FRjVxWKXvf9nDqoEhtQFfYjbEMNl/', 'profileP</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1558506205484017', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NTg1MDYyMDU0ODQwMTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTU4NTA2MjA1NDg0MDE3', 'date': '2025-12-08T04:36:06.000Z', 'text': 'Hablé bien bobo hijueputa parece un maricon', 'profileUrl': 'https://www.facebook.com/people/Giovani-Casta%C3%B1eda/pfbid0288VbDd9dTCKqcwthRkKrTMN8NcKTrNFC</t>
         </is>
       </c>
     </row>
@@ -2150,29 +2116,27 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Regala el culo para q te lo partan pinche pendejo</t>
+          <t>Ya me imagino 😸 como olera la casa con esa manada de chuchos</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-12-04T15:56:46.000Z</t>
+          <t>2025-12-07T22:45:35.000Z</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45995.66442129629</v>
-      </c>
-      <c r="I29" s="3" t="n">
-        <v>45995</v>
+        <v>45998.94832175926</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>45998</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>15:56:46</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>22:45:35</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2184,7 +2148,7 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1891805188887262', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE4OTE4MDUxODg4ODcyNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xODkxODA1MTg4ODg3MjYy', 'date': '2025-12-04T15:56:46.000Z', 'text': 'Regala el culo para q te lo partan pinche pendejo', 'profileUrl': 'https://www.facebook.com/people/Henrry-Mejia/pfbid024WNbGTQ9S6LrXUp3vwZkiKNACnZepVdWHAxh</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1557308165421326', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NTczMDgxNjU0MjEzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTU3MzA4MTY1NDIxMzI2', 'date': '2025-12-07T22:45:35.000Z', 'text': 'Ya me imagino 😸 como olera la casa con esa manada de chuchos', 'profileUrl': 'https://www.facebook.com/luiscarlos.chavarro.7', 'profilePicture': 'https://s</t>
         </is>
       </c>
     </row>
@@ -2210,29 +2174,27 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tremendo plumero....</t>
+          <t>Jeanpierre Vargas moni</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-12-04T08:17:48.000Z</t>
+          <t>2025-12-07T15:19:03.000Z</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45995.34569444445</v>
-      </c>
-      <c r="I30" s="3" t="n">
-        <v>45995</v>
+        <v>45998.63822916667</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>45998</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>08:17:48</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>15:19:03</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2244,7 +2206,7 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2285154445282378', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyODUxNTQ0NDUyODIzNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjg1MTU0NDQ1MjgyMzc4', 'date': '2025-12-04T08:17:48.000Z', 'text': 'Tremendo plumero….', 'profileUrl': 'https://www.facebook.com/wilmar.montoya.566', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/457</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=876709925013424', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3NjcwOTkyNTAxMzQyNA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzY3MDk5MjUwMTM0MjQ=', 'date': '2025-12-07T15:19:03.000Z', 'text': 'Jeanpierre Vargas moni', 'profileUrl': 'https://www.facebook.com/harold.marrero.73', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/4</t>
         </is>
       </c>
     </row>
@@ -2270,29 +2232,27 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Porque hablas como nena?</t>
+          <t>Bellezassss</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-12-01T02:12:44.000Z</t>
+          <t>2025-12-07T13:08:32.000Z</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45992.09217592593</v>
-      </c>
-      <c r="I31" s="3" t="n">
-        <v>45992</v>
+        <v>45998.54759259259</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>45998</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>02:12:44</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>13:08:32</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2304,7 +2264,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1370389547957663', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNzAzODk1NDc5NTc2NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzcwMzg5NTQ3OTU3NjYz', 'date': '2025-12-01T02:12:44.000Z', 'text': 'Porque hablas como nena?', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39.30808-1/522981199_2446293375744068_6324711599817041428_n.jpg?stp</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1365612581637413', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNjU2MTI1ODE2Mzc0MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzY1NjEyNTgxNjM3NDEz', 'date': '2025-12-07T13:08:32.000Z', 'text': 'Bellezassss', 'profileUrl': 'https://www.facebook.com/amanda.alvarez.9210256', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t1.6435-1/97005185</t>
         </is>
       </c>
     </row>
@@ -2330,29 +2290,27 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mala</t>
+          <t>❤️</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-12-01T01:58:28.000Z</t>
+          <t>2025-12-06T20:56:09.000Z</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45992.08226851852</v>
-      </c>
-      <c r="I32" s="3" t="n">
-        <v>45992</v>
+        <v>45997.87232638889</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>45997</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>01:58:28</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>20:56:09</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -2364,7 +2322,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=871415775330430', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3MTQxNTc3NTMzMDQzMA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzE0MTU3NzUzMzA0MzA=', 'date': '2025-12-01T01:58:28.000Z', 'text': 'Mala', 'profileUrl': 'https://www.facebook.com/jlozano.espinoza', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/490704697_1221292654</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=697870086460716', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzY5Nzg3MDA4NjQ2MDcxNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV82OTc4NzAwODY0NjA3MTY=', 'date': '2025-12-06T20:56:09.000Z', 'text': '❤️', 'profileUrl': 'https://www.facebook.com/luz.ordones.393731', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/438205569_1221402985</t>
         </is>
       </c>
     </row>
@@ -2390,29 +2348,27 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Juanda es juanda mijo usted vale verga</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-12-01T01:58:27.000Z</t>
+          <t>2025-12-06T10:21:02.000Z</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45992.08225694444</v>
-      </c>
-      <c r="I33" s="3" t="n">
-        <v>45992</v>
+        <v>45997.43127314815</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>45997</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>01:58:27</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>10:21:02</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -2424,7 +2380,7 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=870212298728039', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3MDIxMjI5ODcyODAzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzAyMTIyOTg3MjgwMzk=', 'date': '2025-12-01T01:58:27.000Z', 'text': 'Red', 'profileUrl': 'https://www.facebook.com/jlozano.espinoza', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/490704697_12212926544</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1153022776944307', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNTMwMjI3NzY5NDQzMDc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTUzMDIyNzc2OTQ0MzA3', 'date': '2025-12-06T10:21:02.000Z', 'text': 'Juanda es juanda mijo usted vale verga', 'profileUrl': 'https://www.facebook.com/sebastian.sanchez.860527', 'profilePicture': 'https://scontent.fpia1-1.fna</t>
         </is>
       </c>
     </row>
@@ -2450,29 +2406,27 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Maricon</t>
+          <t>Y de paso un marica</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-12-01T00:49:28.000Z</t>
+          <t>2025-12-05T12:14:46.000Z</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45992.03435185185</v>
-      </c>
-      <c r="I34" s="3" t="n">
-        <v>45992</v>
+        <v>45996.51025462963</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>45996</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>00:49:28</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>12:14:46</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2484,7 +2438,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2300829877102359', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIzMDA4Mjk4NzcxMDIzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMzAwODI5ODc3MTAyMzU5', 'date': '2025-12-01T00:49:28.000Z', 'text': 'Maricon', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/339265645_759976652445463_3136826086775733221_n.jpg?stp=cp0_dst-jpg_s32x32_</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1123941459814167', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExMjM5NDE0NTk4MTQxNjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTIzOTQxNDU5ODE0MTY3', 'date': '2025-12-05T12:14:46.000Z', 'text': 'Y de paso un marica', 'profileUrl': 'https://www.facebook.com/oswaldo.alvarez.9406', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/67</t>
         </is>
       </c>
     </row>
@@ -2510,29 +2464,27 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Trata serio con ese hablado.</t>
+          <t>Se van a volver maricas los perros</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-12-01T00:11:35.000Z</t>
+          <t>2025-12-05T06:52:51.000Z</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45992.00804398148</v>
-      </c>
-      <c r="I35" s="3" t="n">
-        <v>45992</v>
+        <v>45996.28670138889</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>45996</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>00:11:35</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>06:52:51</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -2544,7 +2496,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=867737252473363', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg2NzczNzI1MjQ3MzM2Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84Njc3MzcyNTI0NzMzNjM=', 'date': '2025-12-01T00:11:35.000Z', 'text': 'Trata serio con ese hablado.', 'profileUrl': 'https://www.facebook.com/wilmer.manuel.diaz.munzon.2025', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=859786813225535', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1OTc4NjgxMzIyNTUzNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTk3ODY4MTMyMjU1MzU=', 'date': '2025-12-05T06:52:51.000Z', 'text': 'Se van a volver maricas los perros', 'profileUrl': 'https://www.facebook.com/people/Gonzalo-Salazar/pfbid0K2pb8Hxt9Lu6ExHmdDRNnwwy8Fp8UMGUNHdyMUzq4HVDw9Mu7s</t>
         </is>
       </c>
     </row>
@@ -2570,29 +2522,27 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ayyyy se le bajo la salen</t>
+          <t>Pero xq todos los q hacen comercial o propaganda son como amanerado</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-11-30T23:20:34.000Z</t>
+          <t>2025-12-04T18:04:51.000Z</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>45991.97261574074</v>
-      </c>
-      <c r="I36" s="3" t="n">
-        <v>45991</v>
+        <v>45995.75336805556</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>45995</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>23:20:34</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>18:04:51</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2604,7 +2554,7 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1190866013196104', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExOTA4NjYwMTMxOTYxMDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTkwODY2MDEzMTk2MTA0', 'date': '2025-11-30T23:20:34.000Z', 'text': 'Ayyyy se le bajo la salen', 'profileUrl': 'https://www.facebook.com/james.martinez.816871', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=4031832796961811', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzQwMzE4MzI3OTY5NjE4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV80MDMxODMyNzk2OTYxODEx', 'date': '2025-12-04T18:04:51.000Z', 'text': 'Pero xq todos los q hacen comercial o propaganda son como amanerado', 'profileUrl': 'https://www.facebook.com/sebastian.osorio.859155', 'profilePicture': '</t>
         </is>
       </c>
     </row>
@@ -2630,29 +2580,27 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ese man es cagá</t>
+          <t>Un armaño</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-11-30T18:04:11.000Z</t>
+          <t>2025-12-04T16:03:43.000Z</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45991.7529050926</v>
-      </c>
-      <c r="I37" s="3" t="n">
-        <v>45991</v>
+        <v>45995.66924768518</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>45995</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>18:04:11</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>16:03:43</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2664,7 +2612,7 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=3427022897455169', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzM0MjcwMjI4OTc0NTUxNjk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8zNDI3MDIyODk3NDU1MTY5', 'date': '2025-11-30T18:04:11.000Z', 'text': 'Ese man es cagá', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/273486952_4933323346731770_5660651639014573511_n.jpg?stp=cp0_dst-jp</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2249706118774341', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNDk3MDYxMTg3NzQzNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjQ5NzA2MTE4Nzc0MzQx', 'date': '2025-12-04T16:03:43.000Z', 'text': 'Un armaño', 'profileUrl': 'https://www.facebook.com/people/Lucho-Pinve/pfbid0gtCo922L34tWhtmxnFtgetGkNcAmJWq5aqem2FRjVxWKXvf9nDqoEhtQFfYjbEMNl/', 'profileP</t>
         </is>
       </c>
     </row>
@@ -2690,29 +2638,27 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ayyyy</t>
+          <t>Regala el culo para q te lo partan pinche pendejo</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-11-30T00:46:22.000Z</t>
+          <t>2025-12-04T15:56:46.000Z</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45991.03219907408</v>
-      </c>
-      <c r="I38" s="3" t="n">
-        <v>45991</v>
+        <v>45995.66442129629</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>45995</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>00:46:22</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>15:56:46</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2724,7 +2670,7 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2255125478334365', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNTUxMjU0NzgzMzQzNjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjU1MTI1NDc4MzM0MzY1', 'date': '2025-11-30T00:46:22.000Z', 'text': 'Ayyyy', 'profileUrl': 'https://www.facebook.com/oswaldo.alvarez.9406', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t1.6435-1/67771402_1550138</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1891805188887262', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE4OTE4MDUxODg4ODcyNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xODkxODA1MTg4ODg3MjYy', 'date': '2025-12-04T15:56:46.000Z', 'text': 'Regala el culo para q te lo partan pinche pendejo', 'profileUrl': 'https://www.facebook.com/people/Henrry-Mejia/pfbid024WNbGTQ9S6LrXUp3vwZkiKNACnZepVdWHAxh</t>
         </is>
       </c>
     </row>
@@ -2750,29 +2696,27 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Este man habla igualitico que al amigo de marixa matayana Mahecha</t>
+          <t>Tremendo plumero....</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-11-29T22:20:39.000Z</t>
+          <t>2025-12-04T08:17:48.000Z</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>45990.93100694445</v>
-      </c>
-      <c r="I39" s="3" t="n">
-        <v>45990</v>
+        <v>45995.34569444445</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>45995</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>22:20:39</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>08:17:48</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2784,7 +2728,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=25246691814957667', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzI1MjQ2NjkxODE0OTU3NjY3', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yNTI0NjY5MTgxNDk1NzY2Nw==', 'date': '2025-11-29T22:20:39.000Z', 'text': 'Este man habla igualitico que al amigo de marixa matayana Mahecha', 'profileUrl': 'https://www.facebook.com/yeshua1985', 'profilePicture': 'https://sc</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2285154445282378', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyODUxNTQ0NDUyODIzNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjg1MTU0NDQ1MjgyMzc4', 'date': '2025-12-04T08:17:48.000Z', 'text': 'Tremendo plumero….', 'profileUrl': 'https://www.facebook.com/wilmar.montoya.566', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/457</t>
         </is>
       </c>
     </row>
@@ -2810,29 +2754,27 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Ay esa es mucha locota se le se le ve que es un zoofílico degenerado come asterisco</t>
+          <t>Porque hablas como nena?</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-11-29T20:39:59.000Z</t>
+          <t>2025-12-01T02:12:44.000Z</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>45990.86109953704</v>
-      </c>
-      <c r="I40" s="3" t="n">
-        <v>45990</v>
+        <v>45992.09217592593</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>45992</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>20:39:59</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>02:12:44</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2844,7 +2786,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1619685035667060', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTk2ODUwMzU2NjcwNjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjE5Njg1MDM1NjY3MDYw', 'date': '2025-11-29T20:39:59.000Z', 'text': 'Ay esa es mucha locota se le se le ve que es un zoofílico degenerado come asterisco', 'profileUrl': 'https://www.facebook.com/julian.zuluaga.635722', 'prof</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1370389547957663', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNzAzODk1NDc5NTc2NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzcwMzg5NTQ3OTU3NjYz', 'date': '2025-12-01T02:12:44.000Z', 'text': 'Porque hablas como nena?', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39.30808-1/522981199_2446293375744068_6324711599817041428_n.jpg?stp</t>
         </is>
       </c>
     </row>
@@ -2870,29 +2812,27 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Toca que pague un médico mental con ese presupuesto</t>
+          <t>Mala</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-11-29T19:14:42.000Z</t>
+          <t>2025-12-01T01:58:28.000Z</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>45990.801875</v>
-      </c>
-      <c r="I41" s="3" t="n">
-        <v>45990</v>
+        <v>45992.08226851852</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>45992</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>19:14:42</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>01:58:28</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2904,7 +2844,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=905167035720354', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzkwNTE2NzAzNTcyMDM1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV85MDUxNjcwMzU3MjAzNTQ=', 'date': '2025-11-29T19:14:42.000Z', 'text': 'Toca que pague un médico mental con ese presupuesto', 'profileUrl': 'https://www.facebook.com/jose.miguel.garcia.archila', 'profilePicture': 'https://sconte</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=871415775330430', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3MTQxNTc3NTMzMDQzMA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzE0MTU3NzUzMzA0MzA=', 'date': '2025-12-01T01:58:28.000Z', 'text': 'Mala', 'profileUrl': 'https://www.facebook.com/jlozano.espinoza', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/490704697_1221292654</t>
         </is>
       </c>
     </row>
@@ -2930,29 +2870,27 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>😂 aiiiiii.  😂😂TA como raro el regalador</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-11-29T18:28:07.000Z</t>
+          <t>2025-12-01T01:58:27.000Z</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>45990.76952546297</v>
-      </c>
-      <c r="I42" s="3" t="n">
-        <v>45990</v>
+        <v>45992.08225694444</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>45992</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>18:28:07</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>01:58:27</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -2964,7 +2902,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1164505132477363', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNjQ1MDUxMzI0NzczNjM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTY0NTA1MTMyNDc3MzYz', 'date': '2025-11-29T18:28:07.000Z', 'text': '😂 aiiiiii.  😂😂TA como raro el regalador', 'profileUrl': 'https://www.facebook.com/people/Pickupde-Barranquilla/61581212485626/', 'profilePicture': 'https:/</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=870212298728039', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3MDIxMjI5ODcyODAzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzAyMTIyOTg3MjgwMzk=', 'date': '2025-12-01T01:58:27.000Z', 'text': 'Red', 'profileUrl': 'https://www.facebook.com/jlozano.espinoza', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/490704697_12212926544</t>
         </is>
       </c>
     </row>
@@ -2990,29 +2928,27 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>EL HABLADITO ROLO ES COMO GAY</t>
+          <t>Maricon</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-11-29T16:54:18.000Z</t>
+          <t>2025-12-01T00:49:28.000Z</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>45990.704375</v>
-      </c>
-      <c r="I43" s="3" t="n">
-        <v>45990</v>
+        <v>45992.03435185185</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>45992</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>16:54:18</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>00:49:28</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3024,7 +2960,7 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1218885416959008', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEyMTg4ODU0MTY5NTkwMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMjE4ODg1NDE2OTU5MDA4', 'date': '2025-11-29T16:54:18.000Z', 'text': 'EL HABLADITO ROLO ES COMO GAY', 'profileUrl': 'https://www.facebook.com/carlito.ortiz.9828', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2300829877102359', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIzMDA4Mjk4NzcxMDIzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMzAwODI5ODc3MTAyMzU5', 'date': '2025-12-01T00:49:28.000Z', 'text': 'Maricon', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/339265645_759976652445463_3136826086775733221_n.jpg?stp=cp0_dst-jpg_s32x32_</t>
         </is>
       </c>
     </row>
@@ -3050,29 +2986,27 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>No lo dudo</t>
+          <t>Trata serio con ese hablado.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-11-29T16:25:00.000Z</t>
+          <t>2025-12-01T00:11:35.000Z</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
-        <v>45990.68402777778</v>
-      </c>
-      <c r="I44" s="3" t="n">
-        <v>45990</v>
+        <v>45992.00804398148</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>45992</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>16:25:00</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>00:11:35</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -3084,7 +3018,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1586105552835854', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1ODYxMDU1NTI4MzU4NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTg2MTA1NTUyODM1ODU0', 'date': '2025-11-29T16:25:00.000Z', 'text': 'No lo dudo', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/419578339_7065591426894759_4053593229592847946_n.jpg?stp=cp0_dst-jpg_s32</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=867737252473363', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg2NzczNzI1MjQ3MzM2Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84Njc3MzcyNTI0NzMzNjM=', 'date': '2025-12-01T00:11:35.000Z', 'text': 'Trata serio con ese hablado.', 'profileUrl': 'https://www.facebook.com/wilmer.manuel.diaz.munzon.2025', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.</t>
         </is>
       </c>
     </row>
@@ -3110,29 +3044,27 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Rosqueto hp</t>
+          <t>Ayyyy se le bajo la salen</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-11-29T14:45:47.000Z</t>
+          <t>2025-11-30T23:20:34.000Z</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
-        <v>45990.61512731481</v>
-      </c>
-      <c r="I45" s="3" t="n">
-        <v>45990</v>
+        <v>45991.97261574074</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>45991</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>14:45:47</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>23:20:34</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -3144,7 +3076,7 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1358189359094572', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNTgxODkzNTkwOTQ1NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzU4MTg5MzU5MDk0NTcy', 'date': '2025-11-29T14:45:47.000Z', 'text': 'Rosqueto hp', 'profileUrl': 'https://www.facebook.com/julian.ospina.745394', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/50482802</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1190866013196104', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExOTA4NjYwMTMxOTYxMDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTkwODY2MDEzMTk2MTA0', 'date': '2025-11-30T23:20:34.000Z', 'text': 'Ayyyy se le bajo la salen', 'profileUrl': 'https://www.facebook.com/james.martinez.816871', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39</t>
         </is>
       </c>
     </row>
@@ -3170,29 +3102,27 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lo primero hablar como un hombre maduro</t>
+          <t>Ese man es cagá</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-11-29T04:14:06.000Z</t>
+          <t>2025-11-30T18:04:11.000Z</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
-        <v>45990.17645833334</v>
-      </c>
-      <c r="I46" s="3" t="n">
-        <v>45990</v>
+        <v>45991.7529050926</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>45991</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>04:14:06</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>18:04:11</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -3204,7 +3134,7 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1642913450007446', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2NDI5MTM0NTAwMDc0NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjQyOTEzNDUwMDA3NDQ2', 'date': '2025-11-29T04:14:06.000Z', 'text': 'Lo primero hablar como un hombre maduro', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_278166695076053098</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=3427022897455169', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzM0MjcwMjI4OTc0NTUxNjk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8zNDI3MDIyODk3NDU1MTY5', 'date': '2025-11-30T18:04:11.000Z', 'text': 'Ese man es cagá', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/273486952_4933323346731770_5660651639014573511_n.jpg?stp=cp0_dst-jp</t>
         </is>
       </c>
     </row>
@@ -3230,29 +3160,27 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Ayyyy</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-11-29T03:57:46.000Z</t>
+          <t>2025-11-30T00:46:22.000Z</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
-        <v>45990.16511574074</v>
-      </c>
-      <c r="I47" s="3" t="n">
-        <v>45990</v>
+        <v>45991.03219907408</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>45991</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>03:57:46</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>00:46:22</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -3264,7 +3192,7 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1334648197857195', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzMzQ2NDgxOTc4NTcxOTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzM0NjQ4MTk3ODU3MTk1', 'date': '2025-11-29T03:57:46.000Z', 'text': '96', 'profileUrl': 'https://www.facebook.com/nestor.h.roa', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/468182816_102364465080414</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2255125478334365', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNTUxMjU0NzgzMzQzNjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjU1MTI1NDc4MzM0MzY1', 'date': '2025-11-30T00:46:22.000Z', 'text': 'Ayyyy', 'profileUrl': 'https://www.facebook.com/oswaldo.alvarez.9406', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t1.6435-1/67771402_1550138</t>
         </is>
       </c>
     </row>
@@ -3290,29 +3218,27 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Hay algo más marica que un puto rolo hablando?? No creo!. Esos hptas no son colombianos pena ajena cuando una gonorrea de estas llega con ese tono y hablando de tu y te.. que mierda que vergüenza!!.</t>
+          <t>Este man habla igualitico que al amigo de marixa matayana Mahecha</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-11-29T03:53:59.000Z</t>
+          <t>2025-11-29T22:20:39.000Z</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
-        <v>45990.16248842593</v>
-      </c>
-      <c r="I48" s="3" t="n">
+        <v>45990.93100694445</v>
+      </c>
+      <c r="I48" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>03:53:59</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>22:20:39</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -3324,7 +3250,7 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1405705607745874', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE0MDU3MDU2MDc3NDU4NzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNDA1NzA1NjA3NzQ1ODc0', 'date': '2025-11-29T03:53:59.000Z', 'text': 'Hay algo más marica que un puto rolo hablando?? No creo!. Esos hptas no son colombianos pena ajena cuando una gonorrea de estas llega con ese tono y hablan</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=25246691814957667', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzI1MjQ2NjkxODE0OTU3NjY3', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yNTI0NjY5MTgxNDk1NzY2Nw==', 'date': '2025-11-29T22:20:39.000Z', 'text': 'Este man habla igualitico que al amigo de marixa matayana Mahecha', 'profileUrl': 'https://www.facebook.com/yeshua1985', 'profilePicture': 'https://sc</t>
         </is>
       </c>
     </row>
@@ -3350,29 +3276,27 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Es</t>
+          <t>Ay esa es mucha locota se le se le ve que es un zoofílico degenerado come asterisco</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-11-29T03:46:23.000Z</t>
+          <t>2025-11-29T20:39:59.000Z</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
-        <v>45990.15721064815</v>
-      </c>
-      <c r="I49" s="3" t="n">
+        <v>45990.86109953704</v>
+      </c>
+      <c r="I49" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>03:46:23</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>20:39:59</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -3384,7 +3308,7 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1613261323181733', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTMyNjEzMjMxODE3MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjEzMjYxMzIzMTgxNzMz', 'date': '2025-11-29T03:46:23.000Z', 'text': 'Es', 'profileUrl': 'https://www.facebook.com/maria.gutierrez.564634', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/514401650_39794</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1619685035667060', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTk2ODUwMzU2NjcwNjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjE5Njg1MDM1NjY3MDYw', 'date': '2025-11-29T20:39:59.000Z', 'text': 'Ay esa es mucha locota se le se le ve que es un zoofílico degenerado come asterisco', 'profileUrl': 'https://www.facebook.com/julian.zuluaga.635722', 'prof</t>
         </is>
       </c>
     </row>
@@ -3410,29 +3334,27 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Estás simplón, osea bien BAJITO de sal 🤭</t>
+          <t>Toca que pague un médico mental con ese presupuesto</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-11-29T03:19:41.000Z</t>
+          <t>2025-11-29T19:14:42.000Z</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
-        <v>45990.13866898148</v>
-      </c>
-      <c r="I50" s="3" t="n">
+        <v>45990.801875</v>
+      </c>
+      <c r="I50" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>03:19:41</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>19:14:42</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3444,7 +3366,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2272121956587605', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNzIxMjE5NTY1ODc2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjcyMTIxOTU2NTg3NjA1', 'date': '2025-11-29T03:19:41.000Z', 'text': 'Estás simplón, osea bien BAJITO de sal 🤭', 'profileUrl': 'https://www.facebook.com/delmides.viloria', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.n</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=905167035720354', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzkwNTE2NzAzNTcyMDM1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV85MDUxNjcwMzU3MjAzNTQ=', 'date': '2025-11-29T19:14:42.000Z', 'text': 'Toca que pague un médico mental con ese presupuesto', 'profileUrl': 'https://www.facebook.com/jose.miguel.garcia.archila', 'profilePicture': 'https://sconte</t>
         </is>
       </c>
     </row>
@@ -3470,29 +3392,27 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Ahora todo el mundo marica</t>
+          <t>😂 aiiiiii.  😂😂TA como raro el regalador</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-11-29T03:19:06.000Z</t>
+          <t>2025-11-29T18:28:07.000Z</t>
         </is>
       </c>
       <c r="H51" s="2" t="n">
-        <v>45990.13826388889</v>
-      </c>
-      <c r="I51" s="3" t="n">
+        <v>45990.76952546297</v>
+      </c>
+      <c r="I51" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>03:19:06</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>18:28:07</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -3504,7 +3424,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1176087734032460', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNzYwODc3MzQwMzI0NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTc2MDg3NzM0MDMyNDYw', 'date': '2025-11-29T03:19:06.000Z', 'text': 'Ahora todo el mundo marica', 'profileUrl': 'https://www.facebook.com/german.gantiva', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1164505132477363', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNjQ1MDUxMzI0NzczNjM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTY0NTA1MTMyNDc3MzYz', 'date': '2025-11-29T18:28:07.000Z', 'text': '😂 aiiiiii.  😂😂TA como raro el regalador', 'profileUrl': 'https://www.facebook.com/people/Pickupde-Barranquilla/61581212485626/', 'profilePicture': 'https:/</t>
         </is>
       </c>
     </row>
@@ -3530,29 +3450,27 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Bobo</t>
+          <t>EL HABLADITO ROLO ES COMO GAY</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-11-29T03:18:06.000Z</t>
+          <t>2025-11-29T16:54:18.000Z</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
-        <v>45990.13756944444</v>
-      </c>
-      <c r="I52" s="3" t="n">
+        <v>45990.704375</v>
+      </c>
+      <c r="I52" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>03:18:06</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>16:54:18</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -3564,7 +3482,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1618995549520524', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTg5OTU1NDk1MjA1MjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjE4OTk1NTQ5NTIwNTI0', 'date': '2025-11-29T03:18:06.000Z', 'text': 'Bobo', 'profileUrl': 'https://www.facebook.com/people/Estrella-Sandoval-Pinz%C3%B2n/pfbid02S4wPCSWW2qLffdcxXv2u8GeFWnxFS8ZKfn8n6LWwYWbqCDyBqg5j2LAWFpX2of9j</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1218885416959008', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEyMTg4ODU0MTY5NTkwMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMjE4ODg1NDE2OTU5MDA4', 'date': '2025-11-29T16:54:18.000Z', 'text': 'EL HABLADITO ROLO ES COMO GAY', 'profileUrl': 'https://www.facebook.com/carlito.ortiz.9828', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6</t>
         </is>
       </c>
     </row>
@@ -3590,29 +3508,27 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Roscón</t>
+          <t>No lo dudo</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-11-29T03:17:54.000Z</t>
+          <t>2025-11-29T16:25:00.000Z</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
-        <v>45990.13743055556</v>
-      </c>
-      <c r="I53" s="3" t="n">
+        <v>45990.68402777778</v>
+      </c>
+      <c r="I53" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>03:17:54</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>16:25:00</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3624,7 +3540,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1862285097710571', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE4NjIyODUwOTc3MTA1NzE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xODYyMjg1MDk3NzEwNTcx', 'date': '2025-11-29T03:17:54.000Z', 'text': 'Roscón', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/585335639_25613401654939402_572775291374841411_n.jpg?stp=cp0_dst-jpg_s32x32_</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1586105552835854', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1ODYxMDU1NTI4MzU4NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTg2MTA1NTUyODM1ODU0', 'date': '2025-11-29T16:25:00.000Z', 'text': 'No lo dudo', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/419578339_7065591426894759_4053593229592847946_n.jpg?stp=cp0_dst-jpg_s32</t>
         </is>
       </c>
     </row>
@@ -3649,544 +3565,552 @@
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
+        <is>
+          <t>Rosqueto hp</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2025-11-29T14:45:47.000Z</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>45990.61512731481</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>14:45:47</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1358189359094572', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNTgxODkzNTkwOTQ1NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzU4MTg5MzU5MDk0NTcy', 'date': '2025-11-29T14:45:47.000Z', 'text': 'Rosqueto hp', 'profileUrl': 'https://www.facebook.com/julian.ospina.745394', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/50482802</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Lo primero hablar como un hombre maduro</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2025-11-29T04:14:06.000Z</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>45990.17645833334</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>04:14:06</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>2</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1642913450007446', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2NDI5MTM0NTAwMDc0NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjQyOTEzNDUwMDA3NDQ2', 'date': '2025-11-29T04:14:06.000Z', 'text': 'Lo primero hablar como un hombre maduro', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_278166695076053098</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:57:46.000Z</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>45990.16511574074</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>03:57:46</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1334648197857195', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzMzQ2NDgxOTc4NTcxOTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzM0NjQ4MTk3ODU3MTk1', 'date': '2025-11-29T03:57:46.000Z', 'text': '96', 'profileUrl': 'https://www.facebook.com/nestor.h.roa', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/468182816_102364465080414</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Hay algo más marica que un puto rolo hablando?? No creo!. Esos hptas no son colombianos pena ajena cuando una gonorrea de estas llega con ese tono y hablando de tu y te.. que mierda que vergüenza!!.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:53:59.000Z</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>45990.16248842593</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>03:53:59</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>3</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1405705607745874', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE0MDU3MDU2MDc3NDU4NzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNDA1NzA1NjA3NzQ1ODc0', 'date': '2025-11-29T03:53:59.000Z', 'text': 'Hay algo más marica que un puto rolo hablando?? No creo!. Esos hptas no son colombianos pena ajena cuando una gonorrea de estas llega con ese tono y hablan</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Es</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:46:23.000Z</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>45990.15721064815</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>03:46:23</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1613261323181733', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTMyNjEzMjMxODE3MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjEzMjYxMzIzMTgxNzMz', 'date': '2025-11-29T03:46:23.000Z', 'text': 'Es', 'profileUrl': 'https://www.facebook.com/maria.gutierrez.564634', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/514401650_39794</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Estás simplón, osea bien BAJITO de sal 🤭</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:19:41.000Z</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>45990.13866898148</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>03:19:41</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2272121956587605', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNzIxMjE5NTY1ODc2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjcyMTIxOTU2NTg3NjA1', 'date': '2025-11-29T03:19:41.000Z', 'text': 'Estás simplón, osea bien BAJITO de sal 🤭', 'profileUrl': 'https://www.facebook.com/delmides.viloria', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.n</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Ahora todo el mundo marica</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:19:06.000Z</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>45990.13826388889</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>03:19:06</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1176087734032460', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNzYwODc3MzQwMzI0NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTc2MDg3NzM0MDMyNDYw', 'date': '2025-11-29T03:19:06.000Z', 'text': 'Ahora todo el mundo marica', 'profileUrl': 'https://www.facebook.com/german.gantiva', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>3</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Bobo</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:18:06.000Z</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>45990.13756944444</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>03:18:06</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1618995549520524', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTg5OTU1NDk1MjA1MjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjE4OTk1NTQ5NTIwNTI0', 'date': '2025-11-29T03:18:06.000Z', 'text': 'Bobo', 'profileUrl': 'https://www.facebook.com/people/Estrella-Sandoval-Pinz%C3%B2n/pfbid02S4wPCSWW2qLffdcxXv2u8GeFWnxFS8ZKfn8n6LWwYWbqCDyBqg5j2LAWFpX2of9j</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>3</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Roscón</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:17:54.000Z</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>45990.13743055556</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>03:17:54</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1862285097710571', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE4NjIyODUwOTc3MTA1NzE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xODYyMjg1MDk3NzEwNTcx', 'date': '2025-11-29T03:17:54.000Z', 'text': 'Roscón', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/585335639_25613401654939402_572775291374841411_n.jpg?stp=cp0_dst-jpg_s32x32_</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
         <is>
           <t>AYYYYY  NOOOO ...
 QUÉ  PLUMERO !! 
 ALPI - LOKOTA !! JAJAJAJA JAJAJAJA</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>2025-11-29T03:17:36.000Z</t>
         </is>
       </c>
-      <c r="H54" s="2" t="n">
+      <c r="H63" s="2" t="n">
         <v>45990.13722222222</v>
       </c>
-      <c r="I54" s="3" t="n">
+      <c r="I63" s="2" t="n">
         <v>45990</v>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>03:17:36</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="b">
-        <v>0</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=857860266777560', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1Nzg2MDI2Njc3NzU2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTc4NjAyNjY3Nzc1NjA=', 'date': '2025-11-29T03:17:36.000Z', 'text': 'AYYYYY  NOOOO ...\nQUÉ  PLUMERO !! \nALPI - LOKOTA !! JAJAJAJA JAJAJAJA', 'profileUrl': 'https://www.facebook.com/luis.a.cruzgarcia.7', 'profilePicture': 'h</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>3</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Ola aml si me gusta un buen regalo</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>2025-11-29T03:14:42.000Z</t>
-        </is>
-      </c>
-      <c r="H55" s="2" t="n">
-        <v>45990.13520833333</v>
-      </c>
-      <c r="I55" s="3" t="n">
-        <v>45990</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>03:14:42</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="b">
-        <v>0</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=734734982974790', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzczNDczNDk4Mjk3NDc5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83MzQ3MzQ5ODI5NzQ3OTA=', 'date': '2025-11-29T03:14:42.000Z', 'text': 'Ola aml si me gusta un buen regalo', 'profileUrl': 'https://www.facebook.com/people/Margarita-Saenz/pfbid02BFZeUQrrrFFrn1xo2gsTxc8brbnqm4CDcHYA2FPbsevmUNqKA</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>3</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Lo siento alpina, te cagaste el único cliente fiel, no te voy a comprar ni mierda, que asco de comercial, que cringe tan bastardo.</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>2025-11-29T03:14:04.000Z</t>
-        </is>
-      </c>
-      <c r="H56" s="2" t="n">
-        <v>45990.13476851852</v>
-      </c>
-      <c r="I56" s="3" t="n">
-        <v>45990</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>03:14:04</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="b">
-        <v>0</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=807206678966890', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzgwNzIwNjY3ODk2Njg5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84MDcyMDY2Nzg5NjY4OTA=', 'date': '2025-11-29T03:14:04.000Z', 'text': 'Lo siento alpina, te cagaste el único cliente fiel, no te voy a comprar ni mierda, que asco de comercial, que cringe tan bastardo.', 'profileUrl': 'https://</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>3</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Un carrito</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>2025-11-26T20:43:27.000Z</t>
-        </is>
-      </c>
-      <c r="H57" s="2" t="n">
-        <v>45987.86350694444</v>
-      </c>
-      <c r="I57" s="3" t="n">
-        <v>45987</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>20:43:27</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="b">
-        <v>0</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=858851063279247', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1ODg1MTA2MzI3OTI0Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTg4NTEwNjMyNzkyNDc=', 'date': '2025-11-26T20:43:27.000Z', 'text': 'Un carrito', 'profileUrl': 'https://www.facebook.com/carlos.rubiano.902', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/480278336_92</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>3</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>💩💩💩</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>2025-11-26T20:14:59.000Z</t>
-        </is>
-      </c>
-      <c r="H58" s="2" t="n">
-        <v>45987.84373842592</v>
-      </c>
-      <c r="I58" s="3" t="n">
-        <v>45987</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>20:14:59</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="b">
-        <v>0</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2021330785291238', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIwMjEzMzA3ODUyOTEyMzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMDIxMzMwNzg1MjkxMjM4', 'date': '2025-11-26T20:14:59.000Z', 'text': '💩💩💩', 'profileUrl': 'https://www.facebook.com/people/Jey-Jey-Hernandez-Altamar-Hernandez/pfbid09nP3MZ4p9rUPffsNuCTqA2GBvfx1o2KAnyxCAJWZ5JVuBECAw8WVakzvvb7h</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>3</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>copion de juanda</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>2025-11-26T18:49:42.000Z</t>
-        </is>
-      </c>
-      <c r="H59" s="2" t="n">
-        <v>45987.78451388889</v>
-      </c>
-      <c r="I59" s="3" t="n">
-        <v>45987</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>18:49:42</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="b">
-        <v>0</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=769578852207896', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzc2OTU3ODg1MjIwNzg5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83Njk1Nzg4NTIyMDc4OTY=', 'date': '2025-11-26T18:49:42.000Z', 'text': 'copion de juanda', 'profileUrl': 'https://www.facebook.com/keyner.lopez.279235', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/59552</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>4</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DRhzGMQAHxW/</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DRhzGMQAHxW/</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="b">
-        <v>0</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>5</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DRhzGbbAL3a/</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DRhzGbbAL3a/</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="b">
-        <v>0</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>6</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>miller.alexander.14</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>💅😂</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>2025-11-29T03:20:33.000Z</t>
-        </is>
-      </c>
-      <c r="H62" s="2" t="n">
-        <v>45990.13927083334</v>
-      </c>
-      <c r="I62" s="3" t="n">
-        <v>45990</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>03:20:33</t>
-        </is>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="b">
-        <v>0</v>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>https://instagram.com/miller.alexander.14</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/', 'commentUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/c/18092140192919543', 'id': '18092140192919543', 'text': '💅😂', 'ownerUsername': 'miller.alexander.14', 'ownerProfilePicUrl': 'https://scontent-lga3-2.cdninstagram.com/v/t51.2885-19/462067248_1698949100924610_2137652019427527338_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ig_cache_key=GDCWihvC7qZpLwkGAKrKX5cvd6odbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InB</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>6</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>montoalvaro</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Jajaja bueno</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>2025-11-29T03:14:35.000Z</t>
-        </is>
-      </c>
-      <c r="H63" s="2" t="n">
-        <v>45990.13512731482</v>
-      </c>
-      <c r="I63" s="3" t="n">
-        <v>45990</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>03:14:35</t>
-        </is>
-      </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -4194,13 +4118,515 @@
       <c r="M63" t="b">
         <v>0</v>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>https://instagram.com/montoalvaro</t>
-        </is>
-      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=857860266777560', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1Nzg2MDI2Njc3NzU2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTc4NjAyNjY3Nzc1NjA=', 'date': '2025-11-29T03:17:36.000Z', 'text': 'AYYYYY  NOOOO ...\nQUÉ  PLUMERO !! \nALPI - LOKOTA !! JAJAJAJA JAJAJAJA', 'profileUrl': 'https://www.facebook.com/luis.a.cruzgarcia.7', 'profilePicture': 'h</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Ola aml si me gusta un buen regalo</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:14:42.000Z</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>45990.13520833333</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>03:14:42</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=734734982974790', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzczNDczNDk4Mjk3NDc5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83MzQ3MzQ5ODI5NzQ3OTA=', 'date': '2025-11-29T03:14:42.000Z', 'text': 'Ola aml si me gusta un buen regalo', 'profileUrl': 'https://www.facebook.com/people/Margarita-Saenz/pfbid02BFZeUQrrrFFrn1xo2gsTxc8brbnqm4CDcHYA2FPbsevmUNqKA</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Lo siento alpina, te cagaste el único cliente fiel, no te voy a comprar ni mierda, que asco de comercial, que cringe tan bastardo.</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:14:04.000Z</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>45990.13476851852</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>03:14:04</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=807206678966890', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzgwNzIwNjY3ODk2Njg5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84MDcyMDY2Nzg5NjY4OTA=', 'date': '2025-11-29T03:14:04.000Z', 'text': 'Lo siento alpina, te cagaste el único cliente fiel, no te voy a comprar ni mierda, que asco de comercial, que cringe tan bastardo.', 'profileUrl': 'https://</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Un carrito</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2025-11-26T20:43:27.000Z</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>45987.86350694444</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>20:43:27</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=858851063279247', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1ODg1MTA2MzI3OTI0Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTg4NTEwNjMyNzkyNDc=', 'date': '2025-11-26T20:43:27.000Z', 'text': 'Un carrito', 'profileUrl': 'https://www.facebook.com/carlos.rubiano.902', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/480278336_92</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>💩💩💩</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2025-11-26T20:14:59.000Z</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>45987.84373842592</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>20:14:59</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2021330785291238', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIwMjEzMzA3ODUyOTEyMzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMDIxMzMwNzg1MjkxMjM4', 'date': '2025-11-26T20:14:59.000Z', 'text': '💩💩💩', 'profileUrl': 'https://www.facebook.com/people/Jey-Jey-Hernandez-Altamar-Hernandez/pfbid09nP3MZ4p9rUPffsNuCTqA2GBvfx1o2KAnyxCAJWZ5JVuBECAw8WVakzvvb7h</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>copion de juanda</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2025-11-26T18:49:42.000Z</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>45987.78451388889</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>18:49:42</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>2</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="b">
+        <v>0</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=769578852207896', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzc2OTU3ODg1MjIwNzg5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83Njk1Nzg4NTIyMDc4OTY=', 'date': '2025-11-26T18:49:42.000Z', 'text': 'copion de juanda', 'profileUrl': 'https://www.facebook.com/keyner.lopez.279235', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/59552</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>4</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRhzGMQAHxW/</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRhzGMQAHxW/</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="b">
+        <v>0</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRhzGbbAL3a/</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRhzGbbAL3a/</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="b">
+        <v>0</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>6</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>miller.alexander.14</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>💅😂</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:20:33.000Z</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>45990.13927083334</v>
+      </c>
+      <c r="I71" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>03:20:33</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="b">
+        <v>0</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>https://instagram.com/miller.alexander.14</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/', 'commentUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/c/18092140192919543', 'id': '18092140192919543', 'text': '💅😂', 'ownerUsername': 'miller.alexander.14', 'ownerProfilePicUrl': 'https://scontent-lga3-2.cdninstagram.com/v/t51.2885-19/462067248_1698949100924610_2137652019427527338_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ig_cache_key=GDCWihvC7qZpLwkGAKrKX5cvd6odbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InB</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>6</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>montoalvaro</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Jajaja bueno</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:14:35.000Z</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>45990.13512731482</v>
+      </c>
+      <c r="I72" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>03:14:35</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>https://instagram.com/montoalvaro</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/', 'commentUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/c/17930638134113541', 'id': '17930638134113541', 'text': 'Jajaja bueno', 'ownerUsername': 'montoalvaro', 'ownerProfilePicUrl': 'https://scontent-lga3-2.cdninstagram.com/v/t51.2885-19/456680338_390372430461018_1122493075785399601_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ig_cache_key=GJJjOBtaOAyqCmMBADE9BlWB5ZMPbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6In</t>
         </is>
@@ -4277,7 +4703,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
@@ -4286,7 +4712,7 @@
         <v>45990.13659722222</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>45999.96453703703</v>
+        <v>46006.02078703704</v>
       </c>
     </row>
     <row r="3">
@@ -4327,7 +4753,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E4" t="n">
         <v>12</v>
@@ -4336,7 +4762,7 @@
         <v>45987.78451388889</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>46000.48224537037</v>
+        <v>46008.03677083334</v>
       </c>
     </row>
     <row r="5">
@@ -4468,10 +4894,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D2" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="E2" t="n">
         <v>18</v>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,7 +559,7 @@
       <c r="H2" s="2" t="n">
         <v>46006.02078703704</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="2" t="n">
         <v>46006</v>
       </c>
       <c r="J2" t="inlineStr">
@@ -567,10 +567,8 @@
           <t>00:29:56</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K2" t="n">
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -619,7 +617,7 @@
       <c r="H3" s="2" t="n">
         <v>46005.93952546296</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="2" t="n">
         <v>46005</v>
       </c>
       <c r="J3" t="inlineStr">
@@ -627,10 +625,8 @@
           <t>22:32:55</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K3" t="n">
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -679,7 +675,7 @@
       <c r="H4" s="2" t="n">
         <v>46003.06650462963</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="2" t="n">
         <v>46003</v>
       </c>
       <c r="J4" t="inlineStr">
@@ -687,10 +683,8 @@
           <t>01:35:46</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K4" t="n">
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1640,23 +1634,23 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>Me encanta  precioso</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-12-17T00:52:57.000Z</t>
+          <t>2025-12-17T10:53:00.000Z</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>46008.03677083334</v>
+        <v>46008.45347222222</v>
       </c>
       <c r="I21" s="3" t="n">
         <v>46008</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>00:52:57</t>
+          <t>10:53:00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1674,7 +1668,7 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=817400901124258', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzgxNzQwMDkwMTEyNDI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84MTc0MDA5MDExMjQyNTg=', 'date': '2025-12-17T00:52:57.000Z', 'text': '⁹', 'profileUrl': 'https://www.facebook.com/isa.hoyos.35', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.6435-1/156539205_2972468196324183_46</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1540506240544854', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NDA1MDYyNDA1NDQ4NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTQwNTA2MjQwNTQ0ODU0', 'date': '2025-12-17T10:53:00.000Z', 'text': 'Me encanta  precioso', 'profileUrl': 'https://www.facebook.com/mariaeugenia.arangoholguin', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.3</t>
         </is>
       </c>
     </row>
@@ -1700,29 +1694,27 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Se embobo</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-12-15T11:02:35.000Z</t>
+          <t>2025-12-17T00:52:57.000Z</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>46006.46012731481</v>
-      </c>
-      <c r="I22" s="3" t="n">
-        <v>46006</v>
+        <v>46008.03677083334</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>46008</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>11:02:35</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>00:52:57</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1734,7 +1726,7 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=25581637008139921', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzI1NTgxNjM3MDA4MTM5OTIx', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yNTU4MTYzNzAwODEzOTkyMQ==', 'date': '2025-12-15T11:02:35.000Z', 'text': 'Se embobo', 'profileUrl': 'https://www.facebook.com/rubiela.cardona.804330', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/518</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=817400901124258', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzgxNzQwMDkwMTEyNDI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84MTc0MDA5MDExMjQyNTg=', 'date': '2025-12-17T00:52:57.000Z', 'text': '⁹', 'profileUrl': 'https://www.facebook.com/isa.hoyos.35', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.6435-1/156539205_2972468196324183_46</t>
         </is>
       </c>
     </row>
@@ -1760,29 +1752,27 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>propaganda ridícula</t>
+          <t>Se embobo</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-12-14T06:17:15.000Z</t>
+          <t>2025-12-15T11:02:35.000Z</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>46005.26197916667</v>
-      </c>
-      <c r="I23" s="3" t="n">
-        <v>46005</v>
+        <v>46006.46012731481</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>46006</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>06:17:15</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>11:02:35</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1794,7 +1784,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=894678003078253', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg5NDY3ODAwMzA3ODI1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84OTQ2NzgwMDMwNzgyNTM=', 'date': '2025-12-14T06:17:15.000Z', 'text': 'propaganda ridícula', 'profileUrl': 'https://www.facebook.com/Dugalvis', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/218443267_146</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=25581637008139921', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzI1NTgxNjM3MDA4MTM5OTIx', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yNTU4MTYzNzAwODEzOTkyMQ==', 'date': '2025-12-15T11:02:35.000Z', 'text': 'Se embobo', 'profileUrl': 'https://www.facebook.com/rubiela.cardona.804330', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/518</t>
         </is>
       </c>
     </row>
@@ -1820,29 +1810,27 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>A ti hay que regalarte una volqueta de sal mijo 😂</t>
+          <t>propaganda ridícula</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-12-13T02:15:21.000Z</t>
+          <t>2025-12-14T06:17:15.000Z</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>46004.09399305555</v>
-      </c>
-      <c r="I24" s="3" t="n">
-        <v>46004</v>
+        <v>46005.26197916667</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>46005</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>02:15:21</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>06:17:15</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -1854,7 +1842,7 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=860909053063312', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg2MDkwOTA1MzA2MzMxMg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NjA5MDkwNTMwNjMzMTI=', 'date': '2025-12-13T02:15:21.000Z', 'text': 'A ti hay que regalarte una volqueta de sal mijo 😂', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.6435-1/149913918_3787793547982065_622463339</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=894678003078253', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg5NDY3ODAwMzA3ODI1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84OTQ2NzgwMDMwNzgyNTM=', 'date': '2025-12-14T06:17:15.000Z', 'text': 'propaganda ridícula', 'profileUrl': 'https://www.facebook.com/Dugalvis', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/218443267_146</t>
         </is>
       </c>
     </row>
@@ -1880,29 +1868,27 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Deles nalga</t>
+          <t>A ti hay que regalarte una volqueta de sal mijo 😂</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-12-12T04:57:00.000Z</t>
+          <t>2025-12-13T02:15:21.000Z</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>46003.20625</v>
-      </c>
-      <c r="I25" s="3" t="n">
-        <v>46003</v>
+        <v>46004.09399305555</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>46004</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>04:57:00</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>02:15:21</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1914,7 +1900,7 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2094858337925209', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIwOTQ4NTgzMzc5MjUyMDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMDk0ODU4MzM3OTI1MjA5', 'date': '2025-12-12T04:57:00.000Z', 'text': 'Deles nalga', 'profileUrl': 'https://www.facebook.com/people/C%C3%A9sar-Delgado/pfbid0vAaPnzKZ9jnTB8SgpvEWp9p1e9zeGzxPs76Bw67h6ci4aFqAwXPLBmS2DV315qC9l/', </t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=860909053063312', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg2MDkwOTA1MzA2MzMxMg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NjA5MDkwNTMwNjMzMTI=', 'date': '2025-12-13T02:15:21.000Z', 'text': 'A ti hay que regalarte una volqueta de sal mijo 😂', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.6435-1/149913918_3787793547982065_622463339</t>
         </is>
       </c>
     </row>
@@ -1940,29 +1926,27 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tiene la voz de camilo cifu3ntes</t>
+          <t>Deles nalga</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-12-11T10:32:14.000Z</t>
+          <t>2025-12-12T04:57:00.000Z</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>46002.43905092592</v>
-      </c>
-      <c r="I26" s="3" t="n">
-        <v>46002</v>
+        <v>46003.20625</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>46003</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>10:32:14</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>04:57:00</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1974,7 +1958,7 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=796038283473893', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzc5NjAzODI4MzQ3Mzg5Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83OTYwMzgyODM0NzM4OTM=', 'date': '2025-12-11T10:32:14.000Z', 'text': 'Tiene la voz de camilo cifu3ntes', 'profileUrl': 'https://www.facebook.com/luz.helena.ossa.castano', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2094858337925209', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIwOTQ4NTgzMzc5MjUyMDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMDk0ODU4MzM3OTI1MjA5', 'date': '2025-12-12T04:57:00.000Z', 'text': 'Deles nalga', 'profileUrl': 'https://www.facebook.com/people/C%C3%A9sar-Delgado/pfbid0vAaPnzKZ9jnTB8SgpvEWp9p1e9zeGzxPs76Bw67h6ci4aFqAwXPLBmS2DV315qC9l/', </t>
         </is>
       </c>
     </row>
@@ -2000,23 +1984,23 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ladrillera</t>
+          <t>Tiene la voz de camilo cifu3ntes</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-12-09T11:34:26.000Z</t>
+          <t>2025-12-11T10:32:14.000Z</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>46000.48224537037</v>
+        <v>46002.43905092592</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>11:34:26</t>
+          <t>10:32:14</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -2032,7 +2016,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1504070450848946', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1MDQwNzA0NTA4NDg5NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTA0MDcwNDUwODQ4OTQ2', 'date': '2025-12-09T11:34:26.000Z', 'text': 'Ladrillera', 'profileUrl': 'https://www.facebook.com/people/Rosario-D%C3%ADaz-Avila/pfbid02jyk8zyuequtF4aMuSrKzTrdZsXrWqjA3qvfjHEd7CpZsZkvkhVSq7dyPPXh9D3Gr</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=796038283473893', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzc5NjAzODI4MzQ3Mzg5Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83OTYwMzgyODM0NzM4OTM=', 'date': '2025-12-11T10:32:14.000Z', 'text': 'Tiene la voz de camilo cifu3ntes', 'profileUrl': 'https://www.facebook.com/luz.helena.ossa.castano', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net</t>
         </is>
       </c>
     </row>
@@ -2058,23 +2042,23 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Hablé bien bobo hijueputa parece un maricon</t>
+          <t>Ladrillera</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-12-08T04:36:06.000Z</t>
+          <t>2025-12-09T11:34:26.000Z</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45999.19173611111</v>
+        <v>46000.48224537037</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>04:36:06</t>
+          <t>11:34:26</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -2090,7 +2074,7 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1558506205484017', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NTg1MDYyMDU0ODQwMTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTU4NTA2MjA1NDg0MDE3', 'date': '2025-12-08T04:36:06.000Z', 'text': 'Hablé bien bobo hijueputa parece un maricon', 'profileUrl': 'https://www.facebook.com/people/Giovani-Casta%C3%B1eda/pfbid0288VbDd9dTCKqcwthRkKrTMN8NcKTrNFC</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1504070450848946', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1MDQwNzA0NTA4NDg5NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTA0MDcwNDUwODQ4OTQ2', 'date': '2025-12-09T11:34:26.000Z', 'text': 'Ladrillera', 'profileUrl': 'https://www.facebook.com/people/Rosario-D%C3%ADaz-Avila/pfbid02jyk8zyuequtF4aMuSrKzTrdZsXrWqjA3qvfjHEd7CpZsZkvkhVSq7dyPPXh9D3Gr</t>
         </is>
       </c>
     </row>
@@ -2116,23 +2100,23 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ya me imagino 😸 como olera la casa con esa manada de chuchos</t>
+          <t>Hablé bien bobo hijueputa parece un maricon</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-12-07T22:45:35.000Z</t>
+          <t>2025-12-08T04:36:06.000Z</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45998.94832175926</v>
+        <v>45999.19173611111</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>45998</v>
+        <v>45999</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>22:45:35</t>
+          <t>04:36:06</t>
         </is>
       </c>
       <c r="K29" t="n">
@@ -2148,7 +2132,7 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1557308165421326', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NTczMDgxNjU0MjEzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTU3MzA4MTY1NDIxMzI2', 'date': '2025-12-07T22:45:35.000Z', 'text': 'Ya me imagino 😸 como olera la casa con esa manada de chuchos', 'profileUrl': 'https://www.facebook.com/luiscarlos.chavarro.7', 'profilePicture': 'https://s</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1558506205484017', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NTg1MDYyMDU0ODQwMTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTU4NTA2MjA1NDg0MDE3', 'date': '2025-12-08T04:36:06.000Z', 'text': 'Hablé bien bobo hijueputa parece un maricon', 'profileUrl': 'https://www.facebook.com/people/Giovani-Casta%C3%B1eda/pfbid0288VbDd9dTCKqcwthRkKrTMN8NcKTrNFC</t>
         </is>
       </c>
     </row>
@@ -2174,23 +2158,23 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Jeanpierre Vargas moni</t>
+          <t>Ya me imagino 😸 como olera la casa con esa manada de chuchos</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-12-07T15:19:03.000Z</t>
+          <t>2025-12-07T22:45:35.000Z</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45998.63822916667</v>
+        <v>45998.94832175926</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>45998</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>15:19:03</t>
+          <t>22:45:35</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -2206,7 +2190,7 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=876709925013424', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3NjcwOTkyNTAxMzQyNA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzY3MDk5MjUwMTM0MjQ=', 'date': '2025-12-07T15:19:03.000Z', 'text': 'Jeanpierre Vargas moni', 'profileUrl': 'https://www.facebook.com/harold.marrero.73', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/4</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1557308165421326', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NTczMDgxNjU0MjEzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTU3MzA4MTY1NDIxMzI2', 'date': '2025-12-07T22:45:35.000Z', 'text': 'Ya me imagino 😸 como olera la casa con esa manada de chuchos', 'profileUrl': 'https://www.facebook.com/luiscarlos.chavarro.7', 'profilePicture': 'https://s</t>
         </is>
       </c>
     </row>
@@ -2232,23 +2216,23 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bellezassss</t>
+          <t>Jeanpierre Vargas moni</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-12-07T13:08:32.000Z</t>
+          <t>2025-12-07T15:19:03.000Z</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45998.54759259259</v>
+        <v>45998.63822916667</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>45998</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>15:19:03</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -2264,7 +2248,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1365612581637413', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNjU2MTI1ODE2Mzc0MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzY1NjEyNTgxNjM3NDEz', 'date': '2025-12-07T13:08:32.000Z', 'text': 'Bellezassss', 'profileUrl': 'https://www.facebook.com/amanda.alvarez.9210256', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t1.6435-1/97005185</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=876709925013424', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3NjcwOTkyNTAxMzQyNA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzY3MDk5MjUwMTM0MjQ=', 'date': '2025-12-07T15:19:03.000Z', 'text': 'Jeanpierre Vargas moni', 'profileUrl': 'https://www.facebook.com/harold.marrero.73', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/4</t>
         </is>
       </c>
     </row>
@@ -2290,23 +2274,23 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>❤️</t>
+          <t>Bellezassss</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-12-06T20:56:09.000Z</t>
+          <t>2025-12-07T13:08:32.000Z</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45997.87232638889</v>
+        <v>45998.54759259259</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>45997</v>
+        <v>45998</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>20:56:09</t>
+          <t>13:08:32</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -2322,7 +2306,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=697870086460716', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzY5Nzg3MDA4NjQ2MDcxNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV82OTc4NzAwODY0NjA3MTY=', 'date': '2025-12-06T20:56:09.000Z', 'text': '❤️', 'profileUrl': 'https://www.facebook.com/luz.ordones.393731', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/438205569_1221402985</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1365612581637413', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNjU2MTI1ODE2Mzc0MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzY1NjEyNTgxNjM3NDEz', 'date': '2025-12-07T13:08:32.000Z', 'text': 'Bellezassss', 'profileUrl': 'https://www.facebook.com/amanda.alvarez.9210256', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t1.6435-1/97005185</t>
         </is>
       </c>
     </row>
@@ -2348,23 +2332,23 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Juanda es juanda mijo usted vale verga</t>
+          <t>❤️</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-12-06T10:21:02.000Z</t>
+          <t>2025-12-06T20:56:09.000Z</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45997.43127314815</v>
+        <v>45997.87232638889</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>45997</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>10:21:02</t>
+          <t>20:56:09</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -2380,7 +2364,7 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1153022776944307', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNTMwMjI3NzY5NDQzMDc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTUzMDIyNzc2OTQ0MzA3', 'date': '2025-12-06T10:21:02.000Z', 'text': 'Juanda es juanda mijo usted vale verga', 'profileUrl': 'https://www.facebook.com/sebastian.sanchez.860527', 'profilePicture': 'https://scontent.fpia1-1.fna</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=697870086460716', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzY5Nzg3MDA4NjQ2MDcxNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV82OTc4NzAwODY0NjA3MTY=', 'date': '2025-12-06T20:56:09.000Z', 'text': '❤️', 'profileUrl': 'https://www.facebook.com/luz.ordones.393731', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/438205569_1221402985</t>
         </is>
       </c>
     </row>
@@ -2406,23 +2390,23 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Y de paso un marica</t>
+          <t>Juanda es juanda mijo usted vale verga</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-12-05T12:14:46.000Z</t>
+          <t>2025-12-06T10:21:02.000Z</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45996.51025462963</v>
+        <v>45997.43127314815</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>12:14:46</t>
+          <t>10:21:02</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -2438,7 +2422,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1123941459814167', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExMjM5NDE0NTk4MTQxNjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTIzOTQxNDU5ODE0MTY3', 'date': '2025-12-05T12:14:46.000Z', 'text': 'Y de paso un marica', 'profileUrl': 'https://www.facebook.com/oswaldo.alvarez.9406', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/67</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1153022776944307', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNTMwMjI3NzY5NDQzMDc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTUzMDIyNzc2OTQ0MzA3', 'date': '2025-12-06T10:21:02.000Z', 'text': 'Juanda es juanda mijo usted vale verga', 'profileUrl': 'https://www.facebook.com/sebastian.sanchez.860527', 'profilePicture': 'https://scontent.fpia1-1.fna</t>
         </is>
       </c>
     </row>
@@ -2464,23 +2448,23 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Se van a volver maricas los perros</t>
+          <t>Y de paso un marica</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-12-05T06:52:51.000Z</t>
+          <t>2025-12-05T12:14:46.000Z</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45996.28670138889</v>
+        <v>45996.51025462963</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>45996</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>06:52:51</t>
+          <t>12:14:46</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -2496,7 +2480,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=859786813225535', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1OTc4NjgxMzIyNTUzNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTk3ODY4MTMyMjU1MzU=', 'date': '2025-12-05T06:52:51.000Z', 'text': 'Se van a volver maricas los perros', 'profileUrl': 'https://www.facebook.com/people/Gonzalo-Salazar/pfbid0K2pb8Hxt9Lu6ExHmdDRNnwwy8Fp8UMGUNHdyMUzq4HVDw9Mu7s</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1123941459814167', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExMjM5NDE0NTk4MTQxNjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTIzOTQxNDU5ODE0MTY3', 'date': '2025-12-05T12:14:46.000Z', 'text': 'Y de paso un marica', 'profileUrl': 'https://www.facebook.com/oswaldo.alvarez.9406', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/67</t>
         </is>
       </c>
     </row>
@@ -2522,23 +2506,23 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Pero xq todos los q hacen comercial o propaganda son como amanerado</t>
+          <t>Se van a volver maricas los perros</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-12-04T18:04:51.000Z</t>
+          <t>2025-12-05T06:52:51.000Z</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>45995.75336805556</v>
+        <v>45996.28670138889</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45995</v>
+        <v>45996</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>18:04:51</t>
+          <t>06:52:51</t>
         </is>
       </c>
       <c r="K36" t="n">
@@ -2554,7 +2538,7 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=4031832796961811', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzQwMzE4MzI3OTY5NjE4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV80MDMxODMyNzk2OTYxODEx', 'date': '2025-12-04T18:04:51.000Z', 'text': 'Pero xq todos los q hacen comercial o propaganda son como amanerado', 'profileUrl': 'https://www.facebook.com/sebastian.osorio.859155', 'profilePicture': '</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=859786813225535', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1OTc4NjgxMzIyNTUzNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTk3ODY4MTMyMjU1MzU=', 'date': '2025-12-05T06:52:51.000Z', 'text': 'Se van a volver maricas los perros', 'profileUrl': 'https://www.facebook.com/people/Gonzalo-Salazar/pfbid0K2pb8Hxt9Lu6ExHmdDRNnwwy8Fp8UMGUNHdyMUzq4HVDw9Mu7s</t>
         </is>
       </c>
     </row>
@@ -2580,23 +2564,23 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Un armaño</t>
+          <t>Pero xq todos los q hacen comercial o propaganda son como amanerado</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-12-04T16:03:43.000Z</t>
+          <t>2025-12-04T18:04:51.000Z</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45995.66924768518</v>
+        <v>45995.75336805556</v>
       </c>
       <c r="I37" s="2" t="n">
         <v>45995</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>16:03:43</t>
+          <t>18:04:51</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -2612,7 +2596,7 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2249706118774341', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNDk3MDYxMTg3NzQzNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjQ5NzA2MTE4Nzc0MzQx', 'date': '2025-12-04T16:03:43.000Z', 'text': 'Un armaño', 'profileUrl': 'https://www.facebook.com/people/Lucho-Pinve/pfbid0gtCo922L34tWhtmxnFtgetGkNcAmJWq5aqem2FRjVxWKXvf9nDqoEhtQFfYjbEMNl/', 'profileP</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=4031832796961811', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzQwMzE4MzI3OTY5NjE4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV80MDMxODMyNzk2OTYxODEx', 'date': '2025-12-04T18:04:51.000Z', 'text': 'Pero xq todos los q hacen comercial o propaganda son como amanerado', 'profileUrl': 'https://www.facebook.com/sebastian.osorio.859155', 'profilePicture': '</t>
         </is>
       </c>
     </row>
@@ -2638,23 +2622,23 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Regala el culo para q te lo partan pinche pendejo</t>
+          <t>Un armaño</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-12-04T15:56:46.000Z</t>
+          <t>2025-12-04T16:03:43.000Z</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45995.66442129629</v>
+        <v>45995.66924768518</v>
       </c>
       <c r="I38" s="2" t="n">
         <v>45995</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>15:56:46</t>
+          <t>16:03:43</t>
         </is>
       </c>
       <c r="K38" t="n">
@@ -2670,7 +2654,7 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1891805188887262', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE4OTE4MDUxODg4ODcyNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xODkxODA1MTg4ODg3MjYy', 'date': '2025-12-04T15:56:46.000Z', 'text': 'Regala el culo para q te lo partan pinche pendejo', 'profileUrl': 'https://www.facebook.com/people/Henrry-Mejia/pfbid024WNbGTQ9S6LrXUp3vwZkiKNACnZepVdWHAxh</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2249706118774341', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNDk3MDYxMTg3NzQzNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjQ5NzA2MTE4Nzc0MzQx', 'date': '2025-12-04T16:03:43.000Z', 'text': 'Un armaño', 'profileUrl': 'https://www.facebook.com/people/Lucho-Pinve/pfbid0gtCo922L34tWhtmxnFtgetGkNcAmJWq5aqem2FRjVxWKXvf9nDqoEhtQFfYjbEMNl/', 'profileP</t>
         </is>
       </c>
     </row>
@@ -2696,23 +2680,23 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tremendo plumero....</t>
+          <t>Regala el culo para q te lo partan pinche pendejo</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-12-04T08:17:48.000Z</t>
+          <t>2025-12-04T15:56:46.000Z</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>45995.34569444445</v>
+        <v>45995.66442129629</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>45995</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>08:17:48</t>
+          <t>15:56:46</t>
         </is>
       </c>
       <c r="K39" t="n">
@@ -2728,7 +2712,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2285154445282378', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyODUxNTQ0NDUyODIzNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjg1MTU0NDQ1MjgyMzc4', 'date': '2025-12-04T08:17:48.000Z', 'text': 'Tremendo plumero….', 'profileUrl': 'https://www.facebook.com/wilmar.montoya.566', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/457</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1891805188887262', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE4OTE4MDUxODg4ODcyNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xODkxODA1MTg4ODg3MjYy', 'date': '2025-12-04T15:56:46.000Z', 'text': 'Regala el culo para q te lo partan pinche pendejo', 'profileUrl': 'https://www.facebook.com/people/Henrry-Mejia/pfbid024WNbGTQ9S6LrXUp3vwZkiKNACnZepVdWHAxh</t>
         </is>
       </c>
     </row>
@@ -2754,23 +2738,23 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Porque hablas como nena?</t>
+          <t>Tremendo plumero....</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-12-01T02:12:44.000Z</t>
+          <t>2025-12-04T08:17:48.000Z</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>45992.09217592593</v>
+        <v>45995.34569444445</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>02:12:44</t>
+          <t>08:17:48</t>
         </is>
       </c>
       <c r="K40" t="n">
@@ -2786,7 +2770,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1370389547957663', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNzAzODk1NDc5NTc2NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzcwMzg5NTQ3OTU3NjYz', 'date': '2025-12-01T02:12:44.000Z', 'text': 'Porque hablas como nena?', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39.30808-1/522981199_2446293375744068_6324711599817041428_n.jpg?stp</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2285154445282378', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyODUxNTQ0NDUyODIzNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjg1MTU0NDQ1MjgyMzc4', 'date': '2025-12-04T08:17:48.000Z', 'text': 'Tremendo plumero….', 'profileUrl': 'https://www.facebook.com/wilmar.montoya.566', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/457</t>
         </is>
       </c>
     </row>
@@ -2812,23 +2796,23 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Mala</t>
+          <t>Porque hablas como nena?</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-12-01T01:58:28.000Z</t>
+          <t>2025-12-01T02:12:44.000Z</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>45992.08226851852</v>
+        <v>45992.09217592593</v>
       </c>
       <c r="I41" s="2" t="n">
         <v>45992</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>01:58:28</t>
+          <t>02:12:44</t>
         </is>
       </c>
       <c r="K41" t="n">
@@ -2844,7 +2828,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=871415775330430', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3MTQxNTc3NTMzMDQzMA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzE0MTU3NzUzMzA0MzA=', 'date': '2025-12-01T01:58:28.000Z', 'text': 'Mala', 'profileUrl': 'https://www.facebook.com/jlozano.espinoza', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/490704697_1221292654</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1370389547957663', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNzAzODk1NDc5NTc2NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzcwMzg5NTQ3OTU3NjYz', 'date': '2025-12-01T02:12:44.000Z', 'text': 'Porque hablas como nena?', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39.30808-1/522981199_2446293375744068_6324711599817041428_n.jpg?stp</t>
         </is>
       </c>
     </row>
@@ -2870,23 +2854,23 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Mala</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-12-01T01:58:27.000Z</t>
+          <t>2025-12-01T01:58:28.000Z</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>45992.08225694444</v>
+        <v>45992.08226851852</v>
       </c>
       <c r="I42" s="2" t="n">
         <v>45992</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>01:58:27</t>
+          <t>01:58:28</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -2902,7 +2886,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=870212298728039', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3MDIxMjI5ODcyODAzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzAyMTIyOTg3MjgwMzk=', 'date': '2025-12-01T01:58:27.000Z', 'text': 'Red', 'profileUrl': 'https://www.facebook.com/jlozano.espinoza', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/490704697_12212926544</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=871415775330430', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3MTQxNTc3NTMzMDQzMA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzE0MTU3NzUzMzA0MzA=', 'date': '2025-12-01T01:58:28.000Z', 'text': 'Mala', 'profileUrl': 'https://www.facebook.com/jlozano.espinoza', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/490704697_1221292654</t>
         </is>
       </c>
     </row>
@@ -2928,23 +2912,23 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Maricon</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-12-01T00:49:28.000Z</t>
+          <t>2025-12-01T01:58:27.000Z</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>45992.03435185185</v>
+        <v>45992.08225694444</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>45992</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>00:49:28</t>
+          <t>01:58:27</t>
         </is>
       </c>
       <c r="K43" t="n">
@@ -2960,7 +2944,7 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2300829877102359', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIzMDA4Mjk4NzcxMDIzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMzAwODI5ODc3MTAyMzU5', 'date': '2025-12-01T00:49:28.000Z', 'text': 'Maricon', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/339265645_759976652445463_3136826086775733221_n.jpg?stp=cp0_dst-jpg_s32x32_</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=870212298728039', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3MDIxMjI5ODcyODAzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzAyMTIyOTg3MjgwMzk=', 'date': '2025-12-01T01:58:27.000Z', 'text': 'Red', 'profileUrl': 'https://www.facebook.com/jlozano.espinoza', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/490704697_12212926544</t>
         </is>
       </c>
     </row>
@@ -2986,23 +2970,23 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Trata serio con ese hablado.</t>
+          <t>Maricon</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-12-01T00:11:35.000Z</t>
+          <t>2025-12-01T00:49:28.000Z</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
-        <v>45992.00804398148</v>
+        <v>45992.03435185185</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>45992</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>00:11:35</t>
+          <t>00:49:28</t>
         </is>
       </c>
       <c r="K44" t="n">
@@ -3018,7 +3002,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=867737252473363', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg2NzczNzI1MjQ3MzM2Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84Njc3MzcyNTI0NzMzNjM=', 'date': '2025-12-01T00:11:35.000Z', 'text': 'Trata serio con ese hablado.', 'profileUrl': 'https://www.facebook.com/wilmer.manuel.diaz.munzon.2025', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2300829877102359', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIzMDA4Mjk4NzcxMDIzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMzAwODI5ODc3MTAyMzU5', 'date': '2025-12-01T00:49:28.000Z', 'text': 'Maricon', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/339265645_759976652445463_3136826086775733221_n.jpg?stp=cp0_dst-jpg_s32x32_</t>
         </is>
       </c>
     </row>
@@ -3044,23 +3028,23 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ayyyy se le bajo la salen</t>
+          <t>Trata serio con ese hablado.</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-11-30T23:20:34.000Z</t>
+          <t>2025-12-01T00:11:35.000Z</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
-        <v>45991.97261574074</v>
+        <v>45992.00804398148</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>23:20:34</t>
+          <t>00:11:35</t>
         </is>
       </c>
       <c r="K45" t="n">
@@ -3076,7 +3060,7 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1190866013196104', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExOTA4NjYwMTMxOTYxMDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTkwODY2MDEzMTk2MTA0', 'date': '2025-11-30T23:20:34.000Z', 'text': 'Ayyyy se le bajo la salen', 'profileUrl': 'https://www.facebook.com/james.martinez.816871', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=867737252473363', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg2NzczNzI1MjQ3MzM2Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84Njc3MzcyNTI0NzMzNjM=', 'date': '2025-12-01T00:11:35.000Z', 'text': 'Trata serio con ese hablado.', 'profileUrl': 'https://www.facebook.com/wilmer.manuel.diaz.munzon.2025', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.</t>
         </is>
       </c>
     </row>
@@ -3102,23 +3086,23 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ese man es cagá</t>
+          <t>Ayyyy se le bajo la salen</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-11-30T18:04:11.000Z</t>
+          <t>2025-11-30T23:20:34.000Z</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
-        <v>45991.7529050926</v>
+        <v>45991.97261574074</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>45991</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>18:04:11</t>
+          <t>23:20:34</t>
         </is>
       </c>
       <c r="K46" t="n">
@@ -3134,7 +3118,7 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=3427022897455169', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzM0MjcwMjI4OTc0NTUxNjk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8zNDI3MDIyODk3NDU1MTY5', 'date': '2025-11-30T18:04:11.000Z', 'text': 'Ese man es cagá', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/273486952_4933323346731770_5660651639014573511_n.jpg?stp=cp0_dst-jp</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1190866013196104', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExOTA4NjYwMTMxOTYxMDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTkwODY2MDEzMTk2MTA0', 'date': '2025-11-30T23:20:34.000Z', 'text': 'Ayyyy se le bajo la salen', 'profileUrl': 'https://www.facebook.com/james.martinez.816871', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39</t>
         </is>
       </c>
     </row>
@@ -3160,23 +3144,23 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Ayyyy</t>
+          <t>Ese man es cagá</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-11-30T00:46:22.000Z</t>
+          <t>2025-11-30T18:04:11.000Z</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
-        <v>45991.03219907408</v>
+        <v>45991.7529050926</v>
       </c>
       <c r="I47" s="2" t="n">
         <v>45991</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>00:46:22</t>
+          <t>18:04:11</t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -3192,7 +3176,7 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2255125478334365', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNTUxMjU0NzgzMzQzNjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjU1MTI1NDc4MzM0MzY1', 'date': '2025-11-30T00:46:22.000Z', 'text': 'Ayyyy', 'profileUrl': 'https://www.facebook.com/oswaldo.alvarez.9406', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t1.6435-1/67771402_1550138</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=3427022897455169', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzM0MjcwMjI4OTc0NTUxNjk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8zNDI3MDIyODk3NDU1MTY5', 'date': '2025-11-30T18:04:11.000Z', 'text': 'Ese man es cagá', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/273486952_4933323346731770_5660651639014573511_n.jpg?stp=cp0_dst-jp</t>
         </is>
       </c>
     </row>
@@ -3218,23 +3202,23 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Este man habla igualitico que al amigo de marixa matayana Mahecha</t>
+          <t>Ayyyy</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-11-29T22:20:39.000Z</t>
+          <t>2025-11-30T00:46:22.000Z</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
-        <v>45990.93100694445</v>
+        <v>45991.03219907408</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>45990</v>
+        <v>45991</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>22:20:39</t>
+          <t>00:46:22</t>
         </is>
       </c>
       <c r="K48" t="n">
@@ -3250,7 +3234,7 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=25246691814957667', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzI1MjQ2NjkxODE0OTU3NjY3', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yNTI0NjY5MTgxNDk1NzY2Nw==', 'date': '2025-11-29T22:20:39.000Z', 'text': 'Este man habla igualitico que al amigo de marixa matayana Mahecha', 'profileUrl': 'https://www.facebook.com/yeshua1985', 'profilePicture': 'https://sc</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2255125478334365', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNTUxMjU0NzgzMzQzNjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjU1MTI1NDc4MzM0MzY1', 'date': '2025-11-30T00:46:22.000Z', 'text': 'Ayyyy', 'profileUrl': 'https://www.facebook.com/oswaldo.alvarez.9406', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t1.6435-1/67771402_1550138</t>
         </is>
       </c>
     </row>
@@ -3276,23 +3260,23 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Ay esa es mucha locota se le se le ve que es un zoofílico degenerado come asterisco</t>
+          <t>Este man habla igualitico que al amigo de marixa matayana Mahecha</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-11-29T20:39:59.000Z</t>
+          <t>2025-11-29T22:20:39.000Z</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
-        <v>45990.86109953704</v>
+        <v>45990.93100694445</v>
       </c>
       <c r="I49" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>20:39:59</t>
+          <t>22:20:39</t>
         </is>
       </c>
       <c r="K49" t="n">
@@ -3308,7 +3292,7 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1619685035667060', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTk2ODUwMzU2NjcwNjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjE5Njg1MDM1NjY3MDYw', 'date': '2025-11-29T20:39:59.000Z', 'text': 'Ay esa es mucha locota se le se le ve que es un zoofílico degenerado come asterisco', 'profileUrl': 'https://www.facebook.com/julian.zuluaga.635722', 'prof</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=25246691814957667', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzI1MjQ2NjkxODE0OTU3NjY3', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yNTI0NjY5MTgxNDk1NzY2Nw==', 'date': '2025-11-29T22:20:39.000Z', 'text': 'Este man habla igualitico que al amigo de marixa matayana Mahecha', 'profileUrl': 'https://www.facebook.com/yeshua1985', 'profilePicture': 'https://sc</t>
         </is>
       </c>
     </row>
@@ -3334,23 +3318,23 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Toca que pague un médico mental con ese presupuesto</t>
+          <t>Ay esa es mucha locota se le se le ve que es un zoofílico degenerado come asterisco</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-11-29T19:14:42.000Z</t>
+          <t>2025-11-29T20:39:59.000Z</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
-        <v>45990.801875</v>
+        <v>45990.86109953704</v>
       </c>
       <c r="I50" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>19:14:42</t>
+          <t>20:39:59</t>
         </is>
       </c>
       <c r="K50" t="n">
@@ -3366,7 +3350,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=905167035720354', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzkwNTE2NzAzNTcyMDM1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV85MDUxNjcwMzU3MjAzNTQ=', 'date': '2025-11-29T19:14:42.000Z', 'text': 'Toca que pague un médico mental con ese presupuesto', 'profileUrl': 'https://www.facebook.com/jose.miguel.garcia.archila', 'profilePicture': 'https://sconte</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1619685035667060', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTk2ODUwMzU2NjcwNjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjE5Njg1MDM1NjY3MDYw', 'date': '2025-11-29T20:39:59.000Z', 'text': 'Ay esa es mucha locota se le se le ve que es un zoofílico degenerado come asterisco', 'profileUrl': 'https://www.facebook.com/julian.zuluaga.635722', 'prof</t>
         </is>
       </c>
     </row>
@@ -3392,23 +3376,23 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>😂 aiiiiii.  😂😂TA como raro el regalador</t>
+          <t>Toca que pague un médico mental con ese presupuesto</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-11-29T18:28:07.000Z</t>
+          <t>2025-11-29T19:14:42.000Z</t>
         </is>
       </c>
       <c r="H51" s="2" t="n">
-        <v>45990.76952546297</v>
+        <v>45990.801875</v>
       </c>
       <c r="I51" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>18:28:07</t>
+          <t>19:14:42</t>
         </is>
       </c>
       <c r="K51" t="n">
@@ -3424,7 +3408,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1164505132477363', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNjQ1MDUxMzI0NzczNjM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTY0NTA1MTMyNDc3MzYz', 'date': '2025-11-29T18:28:07.000Z', 'text': '😂 aiiiiii.  😂😂TA como raro el regalador', 'profileUrl': 'https://www.facebook.com/people/Pickupde-Barranquilla/61581212485626/', 'profilePicture': 'https:/</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=905167035720354', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzkwNTE2NzAzNTcyMDM1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV85MDUxNjcwMzU3MjAzNTQ=', 'date': '2025-11-29T19:14:42.000Z', 'text': 'Toca que pague un médico mental con ese presupuesto', 'profileUrl': 'https://www.facebook.com/jose.miguel.garcia.archila', 'profilePicture': 'https://sconte</t>
         </is>
       </c>
     </row>
@@ -3450,27 +3434,27 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>EL HABLADITO ROLO ES COMO GAY</t>
+          <t>😂 aiiiiii.  😂😂TA como raro el regalador</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-11-29T16:54:18.000Z</t>
+          <t>2025-11-29T18:28:07.000Z</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
-        <v>45990.704375</v>
+        <v>45990.76952546297</v>
       </c>
       <c r="I52" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>16:54:18</t>
+          <t>18:28:07</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -3482,7 +3466,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1218885416959008', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEyMTg4ODU0MTY5NTkwMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMjE4ODg1NDE2OTU5MDA4', 'date': '2025-11-29T16:54:18.000Z', 'text': 'EL HABLADITO ROLO ES COMO GAY', 'profileUrl': 'https://www.facebook.com/carlito.ortiz.9828', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1164505132477363', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNjQ1MDUxMzI0NzczNjM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTY0NTA1MTMyNDc3MzYz', 'date': '2025-11-29T18:28:07.000Z', 'text': '😂 aiiiiii.  😂😂TA como raro el regalador', 'profileUrl': 'https://www.facebook.com/people/Pickupde-Barranquilla/61581212485626/', 'profilePicture': 'https:/</t>
         </is>
       </c>
     </row>
@@ -3508,27 +3492,27 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>No lo dudo</t>
+          <t>EL HABLADITO ROLO ES COMO GAY</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-11-29T16:25:00.000Z</t>
+          <t>2025-11-29T16:54:18.000Z</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
-        <v>45990.68402777778</v>
+        <v>45990.704375</v>
       </c>
       <c r="I53" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>16:25:00</t>
+          <t>16:54:18</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3540,7 +3524,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1586105552835854', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1ODYxMDU1NTI4MzU4NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTg2MTA1NTUyODM1ODU0', 'date': '2025-11-29T16:25:00.000Z', 'text': 'No lo dudo', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/419578339_7065591426894759_4053593229592847946_n.jpg?stp=cp0_dst-jpg_s32</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1218885416959008', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEyMTg4ODU0MTY5NTkwMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMjE4ODg1NDE2OTU5MDA4', 'date': '2025-11-29T16:54:18.000Z', 'text': 'EL HABLADITO ROLO ES COMO GAY', 'profileUrl': 'https://www.facebook.com/carlito.ortiz.9828', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6</t>
         </is>
       </c>
     </row>
@@ -3566,23 +3550,23 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Rosqueto hp</t>
+          <t>No lo dudo</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-11-29T14:45:47.000Z</t>
+          <t>2025-11-29T16:25:00.000Z</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
-        <v>45990.61512731481</v>
+        <v>45990.68402777778</v>
       </c>
       <c r="I54" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>14:45:47</t>
+          <t>16:25:00</t>
         </is>
       </c>
       <c r="K54" t="n">
@@ -3598,7 +3582,7 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1358189359094572', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNTgxODkzNTkwOTQ1NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzU4MTg5MzU5MDk0NTcy', 'date': '2025-11-29T14:45:47.000Z', 'text': 'Rosqueto hp', 'profileUrl': 'https://www.facebook.com/julian.ospina.745394', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/50482802</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1586105552835854', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1ODYxMDU1NTI4MzU4NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTg2MTA1NTUyODM1ODU0', 'date': '2025-11-29T16:25:00.000Z', 'text': 'No lo dudo', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/419578339_7065591426894759_4053593229592847946_n.jpg?stp=cp0_dst-jpg_s32</t>
         </is>
       </c>
     </row>
@@ -3624,27 +3608,27 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lo primero hablar como un hombre maduro</t>
+          <t>Rosqueto hp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-11-29T04:14:06.000Z</t>
+          <t>2025-11-29T14:45:47.000Z</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
-        <v>45990.17645833334</v>
+        <v>45990.61512731481</v>
       </c>
       <c r="I55" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>04:14:06</t>
+          <t>14:45:47</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -3656,7 +3640,7 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1642913450007446', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2NDI5MTM0NTAwMDc0NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjQyOTEzNDUwMDA3NDQ2', 'date': '2025-11-29T04:14:06.000Z', 'text': 'Lo primero hablar como un hombre maduro', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_278166695076053098</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1358189359094572', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNTgxODkzNTkwOTQ1NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzU4MTg5MzU5MDk0NTcy', 'date': '2025-11-29T14:45:47.000Z', 'text': 'Rosqueto hp', 'profileUrl': 'https://www.facebook.com/julian.ospina.745394', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/50482802</t>
         </is>
       </c>
     </row>
@@ -3682,27 +3666,27 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Lo primero hablar como un hombre maduro</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-11-29T03:57:46.000Z</t>
+          <t>2025-11-29T04:14:06.000Z</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
-        <v>45990.16511574074</v>
+        <v>45990.17645833334</v>
       </c>
       <c r="I56" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>03:57:46</t>
+          <t>04:14:06</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -3714,7 +3698,7 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1334648197857195', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzMzQ2NDgxOTc4NTcxOTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzM0NjQ4MTk3ODU3MTk1', 'date': '2025-11-29T03:57:46.000Z', 'text': '96', 'profileUrl': 'https://www.facebook.com/nestor.h.roa', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/468182816_102364465080414</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1642913450007446', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2NDI5MTM0NTAwMDc0NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjQyOTEzNDUwMDA3NDQ2', 'date': '2025-11-29T04:14:06.000Z', 'text': 'Lo primero hablar como un hombre maduro', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_278166695076053098</t>
         </is>
       </c>
     </row>
@@ -3740,27 +3724,27 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Hay algo más marica que un puto rolo hablando?? No creo!. Esos hptas no son colombianos pena ajena cuando una gonorrea de estas llega con ese tono y hablando de tu y te.. que mierda que vergüenza!!.</t>
+          <t>96</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-11-29T03:53:59.000Z</t>
+          <t>2025-11-29T03:57:46.000Z</t>
         </is>
       </c>
       <c r="H57" s="2" t="n">
-        <v>45990.16248842593</v>
+        <v>45990.16511574074</v>
       </c>
       <c r="I57" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>03:53:59</t>
+          <t>03:57:46</t>
         </is>
       </c>
       <c r="K57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -3772,7 +3756,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1405705607745874', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE0MDU3MDU2MDc3NDU4NzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNDA1NzA1NjA3NzQ1ODc0', 'date': '2025-11-29T03:53:59.000Z', 'text': 'Hay algo más marica que un puto rolo hablando?? No creo!. Esos hptas no son colombianos pena ajena cuando una gonorrea de estas llega con ese tono y hablan</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1334648197857195', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzMzQ2NDgxOTc4NTcxOTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzM0NjQ4MTk3ODU3MTk1', 'date': '2025-11-29T03:57:46.000Z', 'text': '96', 'profileUrl': 'https://www.facebook.com/nestor.h.roa', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/468182816_102364465080414</t>
         </is>
       </c>
     </row>
@@ -3798,27 +3782,27 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Es</t>
+          <t>Hay algo más marica que un puto rolo hablando?? No creo!. Esos hptas no son colombianos pena ajena cuando una gonorrea de estas llega con ese tono y hablando de tu y te.. que mierda que vergüenza!!.</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-11-29T03:46:23.000Z</t>
+          <t>2025-11-29T03:53:59.000Z</t>
         </is>
       </c>
       <c r="H58" s="2" t="n">
-        <v>45990.15721064815</v>
+        <v>45990.16248842593</v>
       </c>
       <c r="I58" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>03:46:23</t>
+          <t>03:53:59</t>
         </is>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -3830,7 +3814,7 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1613261323181733', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTMyNjEzMjMxODE3MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjEzMjYxMzIzMTgxNzMz', 'date': '2025-11-29T03:46:23.000Z', 'text': 'Es', 'profileUrl': 'https://www.facebook.com/maria.gutierrez.564634', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/514401650_39794</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1405705607745874', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE0MDU3MDU2MDc3NDU4NzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNDA1NzA1NjA3NzQ1ODc0', 'date': '2025-11-29T03:53:59.000Z', 'text': 'Hay algo más marica que un puto rolo hablando?? No creo!. Esos hptas no son colombianos pena ajena cuando una gonorrea de estas llega con ese tono y hablan</t>
         </is>
       </c>
     </row>
@@ -3856,27 +3840,27 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Estás simplón, osea bien BAJITO de sal 🤭</t>
+          <t>Es</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-11-29T03:19:41.000Z</t>
+          <t>2025-11-29T03:46:23.000Z</t>
         </is>
       </c>
       <c r="H59" s="2" t="n">
-        <v>45990.13866898148</v>
+        <v>45990.15721064815</v>
       </c>
       <c r="I59" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>03:19:41</t>
+          <t>03:46:23</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -3888,7 +3872,7 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2272121956587605', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNzIxMjE5NTY1ODc2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjcyMTIxOTU2NTg3NjA1', 'date': '2025-11-29T03:19:41.000Z', 'text': 'Estás simplón, osea bien BAJITO de sal 🤭', 'profileUrl': 'https://www.facebook.com/delmides.viloria', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.n</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1613261323181733', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTMyNjEzMjMxODE3MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjEzMjYxMzIzMTgxNzMz', 'date': '2025-11-29T03:46:23.000Z', 'text': 'Es', 'profileUrl': 'https://www.facebook.com/maria.gutierrez.564634', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/514401650_39794</t>
         </is>
       </c>
     </row>
@@ -3914,27 +3898,27 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Ahora todo el mundo marica</t>
+          <t>Estás simplón, osea bien BAJITO de sal 🤭</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-11-29T03:19:06.000Z</t>
+          <t>2025-11-29T03:19:41.000Z</t>
         </is>
       </c>
       <c r="H60" s="2" t="n">
-        <v>45990.13826388889</v>
+        <v>45990.13866898148</v>
       </c>
       <c r="I60" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>03:19:06</t>
+          <t>03:19:41</t>
         </is>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -3946,7 +3930,7 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1176087734032460', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNzYwODc3MzQwMzI0NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTc2MDg3NzM0MDMyNDYw', 'date': '2025-11-29T03:19:06.000Z', 'text': 'Ahora todo el mundo marica', 'profileUrl': 'https://www.facebook.com/german.gantiva', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2272121956587605', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNzIxMjE5NTY1ODc2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjcyMTIxOTU2NTg3NjA1', 'date': '2025-11-29T03:19:41.000Z', 'text': 'Estás simplón, osea bien BAJITO de sal 🤭', 'profileUrl': 'https://www.facebook.com/delmides.viloria', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.n</t>
         </is>
       </c>
     </row>
@@ -3972,27 +3956,27 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Bobo</t>
+          <t>Ahora todo el mundo marica</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-11-29T03:18:06.000Z</t>
+          <t>2025-11-29T03:19:06.000Z</t>
         </is>
       </c>
       <c r="H61" s="2" t="n">
-        <v>45990.13756944444</v>
+        <v>45990.13826388889</v>
       </c>
       <c r="I61" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>03:18:06</t>
+          <t>03:19:06</t>
         </is>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -4004,7 +3988,7 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1618995549520524', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTg5OTU1NDk1MjA1MjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjE4OTk1NTQ5NTIwNTI0', 'date': '2025-11-29T03:18:06.000Z', 'text': 'Bobo', 'profileUrl': 'https://www.facebook.com/people/Estrella-Sandoval-Pinz%C3%B2n/pfbid02S4wPCSWW2qLffdcxXv2u8GeFWnxFS8ZKfn8n6LWwYWbqCDyBqg5j2LAWFpX2of9j</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1176087734032460', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNzYwODc3MzQwMzI0NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTc2MDg3NzM0MDMyNDYw', 'date': '2025-11-29T03:19:06.000Z', 'text': 'Ahora todo el mundo marica', 'profileUrl': 'https://www.facebook.com/german.gantiva', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1</t>
         </is>
       </c>
     </row>
@@ -4030,23 +4014,23 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Roscón</t>
+          <t>Bobo</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-11-29T03:17:54.000Z</t>
+          <t>2025-11-29T03:18:06.000Z</t>
         </is>
       </c>
       <c r="H62" s="2" t="n">
-        <v>45990.13743055556</v>
+        <v>45990.13756944444</v>
       </c>
       <c r="I62" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>03:17:54</t>
+          <t>03:18:06</t>
         </is>
       </c>
       <c r="K62" t="n">
@@ -4062,7 +4046,7 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1862285097710571', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE4NjIyODUwOTc3MTA1NzE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xODYyMjg1MDk3NzEwNTcx', 'date': '2025-11-29T03:17:54.000Z', 'text': 'Roscón', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/585335639_25613401654939402_572775291374841411_n.jpg?stp=cp0_dst-jpg_s32x32_</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1618995549520524', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTg5OTU1NDk1MjA1MjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjE4OTk1NTQ5NTIwNTI0', 'date': '2025-11-29T03:18:06.000Z', 'text': 'Bobo', 'profileUrl': 'https://www.facebook.com/people/Estrella-Sandoval-Pinz%C3%B2n/pfbid02S4wPCSWW2qLffdcxXv2u8GeFWnxFS8ZKfn8n6LWwYWbqCDyBqg5j2LAWFpX2of9j</t>
         </is>
       </c>
     </row>
@@ -4087,88 +4071,88 @@
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
+        <is>
+          <t>Roscón</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:17:54.000Z</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>45990.13743055556</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>03:17:54</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1862285097710571', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE4NjIyODUwOTc3MTA1NzE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xODYyMjg1MDk3NzEwNTcx', 'date': '2025-11-29T03:17:54.000Z', 'text': 'Roscón', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/585335639_25613401654939402_572775291374841411_n.jpg?stp=cp0_dst-jpg_s32x32_</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
         <is>
           <t>AYYYYY  NOOOO ...
 QUÉ  PLUMERO !! 
 ALPI - LOKOTA !! JAJAJAJA JAJAJAJA</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>2025-11-29T03:17:36.000Z</t>
         </is>
       </c>
-      <c r="H63" s="2" t="n">
+      <c r="H64" s="2" t="n">
         <v>45990.13722222222</v>
-      </c>
-      <c r="I63" s="2" t="n">
-        <v>45990</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>03:17:36</t>
-        </is>
-      </c>
-      <c r="K63" t="n">
-        <v>1</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="b">
-        <v>0</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=857860266777560', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1Nzg2MDI2Njc3NzU2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTc4NjAyNjY3Nzc1NjA=', 'date': '2025-11-29T03:17:36.000Z', 'text': 'AYYYYY  NOOOO ...\nQUÉ  PLUMERO !! \nALPI - LOKOTA !! JAJAJAJA JAJAJAJA', 'profileUrl': 'https://www.facebook.com/luis.a.cruzgarcia.7', 'profilePicture': 'h</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>3</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Ola aml si me gusta un buen regalo</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>2025-11-29T03:14:42.000Z</t>
-        </is>
-      </c>
-      <c r="H64" s="2" t="n">
-        <v>45990.13520833333</v>
       </c>
       <c r="I64" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>03:14:42</t>
+          <t>03:17:36</t>
         </is>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -4180,7 +4164,7 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=734734982974790', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzczNDczNDk4Mjk3NDc5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83MzQ3MzQ5ODI5NzQ3OTA=', 'date': '2025-11-29T03:14:42.000Z', 'text': 'Ola aml si me gusta un buen regalo', 'profileUrl': 'https://www.facebook.com/people/Margarita-Saenz/pfbid02BFZeUQrrrFFrn1xo2gsTxc8brbnqm4CDcHYA2FPbsevmUNqKA</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=857860266777560', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1Nzg2MDI2Njc3NzU2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTc4NjAyNjY3Nzc1NjA=', 'date': '2025-11-29T03:17:36.000Z', 'text': 'AYYYYY  NOOOO ...\nQUÉ  PLUMERO !! \nALPI - LOKOTA !! JAJAJAJA JAJAJAJA', 'profileUrl': 'https://www.facebook.com/luis.a.cruzgarcia.7', 'profilePicture': 'h</t>
         </is>
       </c>
     </row>
@@ -4206,23 +4190,23 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lo siento alpina, te cagaste el único cliente fiel, no te voy a comprar ni mierda, que asco de comercial, que cringe tan bastardo.</t>
+          <t>Ola aml si me gusta un buen regalo</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-11-29T03:14:04.000Z</t>
+          <t>2025-11-29T03:14:42.000Z</t>
         </is>
       </c>
       <c r="H65" s="2" t="n">
-        <v>45990.13476851852</v>
+        <v>45990.13520833333</v>
       </c>
       <c r="I65" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>03:14:04</t>
+          <t>03:14:42</t>
         </is>
       </c>
       <c r="K65" t="n">
@@ -4238,7 +4222,7 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=807206678966890', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzgwNzIwNjY3ODk2Njg5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84MDcyMDY2Nzg5NjY4OTA=', 'date': '2025-11-29T03:14:04.000Z', 'text': 'Lo siento alpina, te cagaste el único cliente fiel, no te voy a comprar ni mierda, que asco de comercial, que cringe tan bastardo.', 'profileUrl': 'https://</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=734734982974790', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzczNDczNDk4Mjk3NDc5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83MzQ3MzQ5ODI5NzQ3OTA=', 'date': '2025-11-29T03:14:42.000Z', 'text': 'Ola aml si me gusta un buen regalo', 'profileUrl': 'https://www.facebook.com/people/Margarita-Saenz/pfbid02BFZeUQrrrFFrn1xo2gsTxc8brbnqm4CDcHYA2FPbsevmUNqKA</t>
         </is>
       </c>
     </row>
@@ -4264,23 +4248,23 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Un carrito</t>
+          <t>Lo siento alpina, te cagaste el único cliente fiel, no te voy a comprar ni mierda, que asco de comercial, que cringe tan bastardo.</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-11-26T20:43:27.000Z</t>
+          <t>2025-11-29T03:14:04.000Z</t>
         </is>
       </c>
       <c r="H66" s="2" t="n">
-        <v>45987.86350694444</v>
+        <v>45990.13476851852</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>45987</v>
+        <v>45990</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>20:43:27</t>
+          <t>03:14:04</t>
         </is>
       </c>
       <c r="K66" t="n">
@@ -4296,7 +4280,7 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=858851063279247', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1ODg1MTA2MzI3OTI0Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTg4NTEwNjMyNzkyNDc=', 'date': '2025-11-26T20:43:27.000Z', 'text': 'Un carrito', 'profileUrl': 'https://www.facebook.com/carlos.rubiano.902', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/480278336_92</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=807206678966890', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzgwNzIwNjY3ODk2Njg5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84MDcyMDY2Nzg5NjY4OTA=', 'date': '2025-11-29T03:14:04.000Z', 'text': 'Lo siento alpina, te cagaste el único cliente fiel, no te voy a comprar ni mierda, que asco de comercial, que cringe tan bastardo.', 'profileUrl': 'https://</t>
         </is>
       </c>
     </row>
@@ -4322,27 +4306,27 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>💩💩💩</t>
+          <t>Un carrito</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-11-26T20:14:59.000Z</t>
+          <t>2025-11-26T20:43:27.000Z</t>
         </is>
       </c>
       <c r="H67" s="2" t="n">
-        <v>45987.84373842592</v>
+        <v>45987.86350694444</v>
       </c>
       <c r="I67" s="2" t="n">
         <v>45987</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>20:14:59</t>
+          <t>20:43:27</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -4354,7 +4338,7 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2021330785291238', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIwMjEzMzA3ODUyOTEyMzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMDIxMzMwNzg1MjkxMjM4', 'date': '2025-11-26T20:14:59.000Z', 'text': '💩💩💩', 'profileUrl': 'https://www.facebook.com/people/Jey-Jey-Hernandez-Altamar-Hernandez/pfbid09nP3MZ4p9rUPffsNuCTqA2GBvfx1o2KAnyxCAJWZ5JVuBECAw8WVakzvvb7h</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=858851063279247', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1ODg1MTA2MzI3OTI0Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTg4NTEwNjMyNzkyNDc=', 'date': '2025-11-26T20:43:27.000Z', 'text': 'Un carrito', 'profileUrl': 'https://www.facebook.com/carlos.rubiano.902', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/480278336_92</t>
         </is>
       </c>
     </row>
@@ -4380,27 +4364,27 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>copion de juanda</t>
+          <t>💩💩💩</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-11-26T18:49:42.000Z</t>
+          <t>2025-11-26T20:14:59.000Z</t>
         </is>
       </c>
       <c r="H68" s="2" t="n">
-        <v>45987.78451388889</v>
+        <v>45987.84373842592</v>
       </c>
       <c r="I68" s="2" t="n">
         <v>45987</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>18:49:42</t>
+          <t>20:14:59</t>
         </is>
       </c>
       <c r="K68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -4412,37 +4396,53 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=769578852207896', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzc2OTU3ODg1MjIwNzg5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83Njk1Nzg4NTIyMDc4OTY=', 'date': '2025-11-26T18:49:42.000Z', 'text': 'copion de juanda', 'profileUrl': 'https://www.facebook.com/keyner.lopez.279235', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/59552</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2021330785291238', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIwMjEzMzA3ODUyOTEyMzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMDIxMzMwNzg1MjkxMjM4', 'date': '2025-11-26T20:14:59.000Z', 'text': '💩💩💩', 'profileUrl': 'https://www.facebook.com/people/Jey-Jey-Hernandez-Altamar-Hernandez/pfbid09nP3MZ4p9rUPffsNuCTqA2GBvfx1o2KAnyxCAJWZ5JVuBECAw8WVakzvvb7h</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRhzGMQAHxW/</t>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRhzGMQAHxW/</t>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>copion de juanda</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2025-11-26T18:49:42.000Z</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>45987.78451388889</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>18:49:42</t>
+        </is>
+      </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -4451,16 +4451,16 @@
         <v>0</v>
       </c>
       <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=769578852207896', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzc2OTU3ODg1MjIwNzg5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83Njk1Nzg4NTIyMDc4OTY=', 'date': '2025-11-26T18:49:42.000Z', 'text': 'copion de juanda', 'profileUrl': 'https://www.facebook.com/keyner.lopez.279235', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/59552</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4469,12 +4469,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRhzGbbAL3a/</t>
+          <t>https://www.instagram.com/p/DRhzGMQAHxW/</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRhzGbbAL3a/</t>
+          <t>https://www.instagram.com/p/DRhzGMQAHxW/</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4511,40 +4511,20 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
+          <t>https://www.instagram.com/p/DRhzGbbAL3a/</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>miller.alexander.14</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>💅😂</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>2025-11-29T03:20:33.000Z</t>
-        </is>
-      </c>
-      <c r="H71" s="2" t="n">
-        <v>45990.13927083334</v>
-      </c>
-      <c r="I71" s="2" t="n">
-        <v>45990</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>03:20:33</t>
-        </is>
-      </c>
+          <t>https://www.instagram.com/p/DRhzGbbAL3a/</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
         <v>0</v>
       </c>
@@ -4554,17 +4534,13 @@
       <c r="M71" t="b">
         <v>0</v>
       </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>https://instagram.com/miller.alexander.14</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/', 'commentUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/c/18092140192919543', 'id': '18092140192919543', 'text': '💅😂', 'ownerUsername': 'miller.alexander.14', 'ownerProfilePicUrl': 'https://scontent-lga3-2.cdninstagram.com/v/t51.2885-19/462067248_1698949100924610_2137652019427527338_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ig_cache_key=GDCWihvC7qZpLwkGAKrKX5cvd6odbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InB</t>
-        </is>
-      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4587,28 +4563,28 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>montoalvaro</t>
+          <t>miller.alexander.14</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Jajaja bueno</t>
+          <t>💅😂</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-11-29T03:14:35.000Z</t>
+          <t>2025-11-29T03:20:33.000Z</t>
         </is>
       </c>
       <c r="H72" s="2" t="n">
-        <v>45990.13512731482</v>
+        <v>45990.13927083334</v>
       </c>
       <c r="I72" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>03:14:35</t>
+          <t>03:20:33</t>
         </is>
       </c>
       <c r="K72" t="n">
@@ -4622,11 +4598,77 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>https://instagram.com/montoalvaro</t>
+          <t>https://instagram.com/miller.alexander.14</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/', 'commentUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/c/18092140192919543', 'id': '18092140192919543', 'text': '💅😂', 'ownerUsername': 'miller.alexander.14', 'ownerProfilePicUrl': 'https://scontent-lga3-2.cdninstagram.com/v/t51.2885-19/462067248_1698949100924610_2137652019427527338_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ig_cache_key=GDCWihvC7qZpLwkGAKrKX5cvd6odbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InB</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>6</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>montoalvaro</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Jajaja bueno</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:14:35.000Z</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>45990.13512731482</v>
+      </c>
+      <c r="I73" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>03:14:35</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>https://instagram.com/montoalvaro</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/', 'commentUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/c/17930638134113541', 'id': '17930638134113541', 'text': 'Jajaja bueno', 'ownerUsername': 'montoalvaro', 'ownerProfilePicUrl': 'https://scontent-lga3-2.cdninstagram.com/v/t51.2885-19/456680338_390372430461018_1122493075785399601_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ig_cache_key=GJJjOBtaOAyqCmMBADE9BlWB5ZMPbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6In</t>
         </is>
@@ -4753,7 +4795,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" t="n">
         <v>12</v>
@@ -4762,7 +4804,7 @@
         <v>45987.78451388889</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>46008.03677083334</v>
+        <v>46008.45347222222</v>
       </c>
     </row>
     <row r="5">
@@ -4894,7 +4936,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
         <v>0.27</v>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,27 +548,29 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>...........</t>
+          <t>Es todo un ritual.  Claro si no sabes que estás recordando o celebrando  el nacimiento de Jesús no es que celebras tu???? Por qué es especial. Nos quedamos solo con lo que aprendes en la escuela o investigaste y tienes la sabiduría verdadera?</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-12-15T00:29:56.000Z</t>
+          <t>2025-12-19T08:31:54.000Z</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>46006.02078703704</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>46006</v>
+        <v>46010.35548611111</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>46010</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>00:29:56</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
+          <t>08:31:54</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -580,7 +582,7 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=3395229290626714', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzMzOTUyMjkyOTA2MjY3MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18zMzk1MjI5MjkwNjI2NzE0', 'date': '2025-12-15T00:29:56.000Z', 'text': '...........', 'profilePicture': 'https://scontent.fhyw1-1.fna.fbcdn.net/v/t39.30808-1/597541971_122204125934508003_2179097650133734319_n.jpg?stp=cp0_dst-jpg_</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=1231098055608517', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzEyMzEwOTgwNTU2MDg1MTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18xMjMxMDk4MDU1NjA4NTE3', 'date': '2025-12-19T08:31:54.000Z', 'text': 'Es todo un ritual.  Claro si no sabes que estás recordando o celebrando  el nacimiento de Jesús no es que celebras tu???? Por qué es especial. Nos quedamos s</t>
         </is>
       </c>
     </row>
@@ -606,23 +608,23 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ámen</t>
+          <t>...........</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-12-14T22:32:55.000Z</t>
+          <t>2025-12-15T00:29:56.000Z</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>46005.93952546296</v>
+        <v>46006.02078703704</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>46005</v>
+        <v>46006</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>22:32:55</t>
+          <t>00:29:56</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -638,7 +640,7 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=717889971367697', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzcxNzg4OTk3MTM2NzY5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M183MTc4ODk5NzEzNjc2OTc=', 'date': '2025-12-14T22:32:55.000Z', 'text': 'Ámen', 'profileUrl': 'https://www.facebook.com/henry.gonzales.15008', 'profilePicture': 'https://scontent.fhyw1-1.fna.fbcdn.net/v/t1.6435-1/96025415_738412786</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=3395229290626714', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzMzOTUyMjkyOTA2MjY3MTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18zMzk1MjI5MjkwNjI2NzE0', 'date': '2025-12-15T00:29:56.000Z', 'text': '...........', 'profilePicture': 'https://scontent.fhyw1-1.fna.fbcdn.net/v/t39.30808-1/597541971_122204125934508003_2179097650133734319_n.jpg?stp=cp0_dst-jpg_</t>
         </is>
       </c>
     </row>
@@ -664,23 +666,23 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Q lindos así es q bonito🙏🙏</t>
+          <t>Ámen</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-12-12T01:35:46.000Z</t>
+          <t>2025-12-14T22:32:55.000Z</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>46003.06650462963</v>
+        <v>46005.93952546296</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>46003</v>
+        <v>46005</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>01:35:46</t>
+          <t>22:32:55</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -696,7 +698,7 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=841352655192095', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzg0MTM1MjY1NTE5MjA5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184NDEzNTI2NTUxOTIwOTU=', 'date': '2025-12-12T01:35:46.000Z', 'text': 'Q lindos así es q bonito🙏🙏', 'profileUrl': 'https://www.facebook.com/cecilia.perez.136943', 'profilePicture': 'https://scontent.fhyw1-1.fna.fbcdn.net/v/t1.643</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=717889971367697', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzcxNzg4OTk3MTM2NzY5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M183MTc4ODk5NzEzNjc2OTc=', 'date': '2025-12-14T22:32:55.000Z', 'text': 'Ámen', 'profileUrl': 'https://www.facebook.com/henry.gonzales.15008', 'profilePicture': 'https://scontent.fhyw1-1.fna.fbcdn.net/v/t1.6435-1/96025415_738412786</t>
         </is>
       </c>
     </row>
@@ -722,23 +724,23 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orquidea</t>
+          <t>Q lindos así es q bonito🙏🙏</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-12-08T23:08:56.000Z</t>
+          <t>2025-12-12T01:35:46.000Z</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45999.96453703703</v>
+        <v>46003.06650462963</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>45999</v>
+        <v>46003</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>23:08:56</t>
+          <t>01:35:46</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -754,7 +756,7 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=1492527181856288', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzE0OTI1MjcxODE4NTYyODg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18xNDkyNTI3MTgxODU2Mjg4', 'date': '2025-12-08T23:08:56.000Z', 'text': 'Orquidea', 'profileUrl': 'https://www.facebook.com/alicia.tibocha.3', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/343225468_5947624</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=841352655192095', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzg0MTM1MjY1NTE5MjA5NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184NDEzNTI2NTUxOTIwOTU=', 'date': '2025-12-12T01:35:46.000Z', 'text': 'Q lindos así es q bonito🙏🙏', 'profileUrl': 'https://www.facebook.com/cecilia.perez.136943', 'profilePicture': 'https://scontent.fhyw1-1.fna.fbcdn.net/v/t1.643</t>
         </is>
       </c>
     </row>
@@ -780,23 +782,23 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>No me importa perra hijueputa</t>
+          <t>Orquidea</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-12-08T00:15:08.000Z</t>
+          <t>2025-12-08T23:08:56.000Z</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45999.01050925926</v>
+        <v>45999.96453703703</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>45999</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>00:15:08</t>
+          <t>23:08:56</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -812,7 +814,7 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=2375964229527819', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzIzNzU5NjQyMjk1Mjc4MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18yMzc1OTY0MjI5NTI3ODE5', 'date': '2025-12-08T00:15:08.000Z', 'text': 'No me importa perra hijueputa', 'profileUrl': 'https://www.facebook.com/people/Dante-Enrique-Fuentes-Garc%C3%A8s/pfbid0camWp8D5e2V2hNohxVqnLFE8BrQDBnZqTdYN5b</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=1492527181856288', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzE0OTI1MjcxODE4NTYyODg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18xNDkyNTI3MTgxODU2Mjg4', 'date': '2025-12-08T23:08:56.000Z', 'text': 'Orquidea', 'profileUrl': 'https://www.facebook.com/alicia.tibocha.3', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/343225468_5947624</t>
         </is>
       </c>
     </row>
@@ -838,23 +840,23 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>\q\</t>
+          <t>No me importa perra hijueputa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-12-07T11:11:55.000Z</t>
+          <t>2025-12-08T00:15:08.000Z</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45998.4666087963</v>
+        <v>45999.01050925926</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>45998</v>
+        <v>45999</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>11:11:55</t>
+          <t>00:15:08</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -870,7 +872,7 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=854218707196947', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzg1NDIxODcwNzE5Njk0Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184NTQyMTg3MDcxOTY5NDc=', 'date': '2025-12-07T11:11:55.000Z', 'text': '\\q\\', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/471787755_9834129280042591_6490743498348065273_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=2375964229527819', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzIzNzU5NjQyMjk1Mjc4MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18yMzc1OTY0MjI5NTI3ODE5', 'date': '2025-12-08T00:15:08.000Z', 'text': 'No me importa perra hijueputa', 'profileUrl': 'https://www.facebook.com/people/Dante-Enrique-Fuentes-Garc%C3%A8s/pfbid0camWp8D5e2V2hNohxVqnLFE8BrQDBnZqTdYN5b</t>
         </is>
       </c>
     </row>
@@ -896,23 +898,23 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Armadillo</t>
+          <t>\q\</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-12-05T17:17:04.000Z</t>
+          <t>2025-12-07T11:11:55.000Z</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45996.72018518519</v>
+        <v>45998.4666087963</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>17:17:04</t>
+          <t>11:11:55</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -928,7 +930,7 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=883750410757079', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzg4Mzc1MDQxMDc1NzA3OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184ODM3NTA0MTA3NTcwNzk=', 'date': '2025-12-05T17:17:04.000Z', 'text': 'Armadillo', 'profileUrl': 'https://www.facebook.com/graciela.saldarriaga.9', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/574029751_1</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=854218707196947', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzg1NDIxODcwNzE5Njk0Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184NTQyMTg3MDcxOTY5NDc=', 'date': '2025-12-07T11:11:55.000Z', 'text': '\\q\\', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/471787755_9834129280042591_6490743498348065273_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;</t>
         </is>
       </c>
     </row>
@@ -954,23 +956,23 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>la navidad no existe en ninguna parte de la Biblia lo registra mientras el mundo espera un nacimiento de idolatría hay un pueblo esperando la venida del verdadero señor Jesús que muy pronto vendrá por su iglesia santa y sin mancha el verdadero señor Jesús ase mucho tiempo que vino a la tierra solo Jesús nació solo Jesús murió y solo Jesús resucitó una sola vez y vive por siempre también es Espíritu y conoce a todo hombre por dentro y por fuera hay que leer la Biblia para que sepan que es lo que está por suceder por qué el mundo está dormido pensando en fiestas paganas y se les olvida que el vive y reina por los siglos de los siglos y muy pronto vendrá</t>
+          <t>Armadillo</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-12-03T22:59:35.000Z</t>
+          <t>2025-12-05T17:17:04.000Z</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45994.95804398148</v>
+        <v>45996.72018518519</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>22:59:35</t>
+          <t>17:17:04</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -986,7 +988,7 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=4226442804277323', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzQyMjY0NDI4MDQyNzczMjM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M180MjI2NDQyODA0Mjc3MzIz', 'date': '2025-12-03T22:59:35.000Z', 'text': 'la navidad no existe en ninguna parte de la Biblia lo registra mientras el mundo espera un nacimiento de idolatría hay un pueblo esperando la venida del verd</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=883750410757079', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzg4Mzc1MDQxMDc1NzA3OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184ODM3NTA0MTA3NTcwNzk=', 'date': '2025-12-05T17:17:04.000Z', 'text': 'Armadillo', 'profileUrl': 'https://www.facebook.com/graciela.saldarriaga.9', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/574029751_1</t>
         </is>
       </c>
     </row>
@@ -1012,23 +1014,23 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gss</t>
+          <t>la navidad no existe en ninguna parte de la Biblia lo registra mientras el mundo espera un nacimiento de idolatría hay un pueblo esperando la venida del verdadero señor Jesús que muy pronto vendrá por su iglesia santa y sin mancha el verdadero señor Jesús ase mucho tiempo que vino a la tierra solo Jesús nació solo Jesús murió y solo Jesús resucitó una sola vez y vive por siempre también es Espíritu y conoce a todo hombre por dentro y por fuera hay que leer la Biblia para que sepan que es lo que está por suceder por qué el mundo está dormido pensando en fiestas paganas y se les olvida que el vive y reina por los siglos de los siglos y muy pronto vendrá</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-12-01T02:22:19.000Z</t>
+          <t>2025-12-03T22:59:35.000Z</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45992.09883101852</v>
+        <v>45994.95804398148</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>02:22:19</t>
+          <t>22:59:35</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -1044,7 +1046,7 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=33057038213910265', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzMzMDU3MDM4MjEzOTEwMjY1', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18zMzA1NzAzODIxMzkxMDI2NQ==', 'date': '2025-12-01T02:22:19.000Z', 'text': 'Gss', 'profileUrl': 'https://www.facebook.com/claudimar.martinez.3367', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/324334081_</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=4226442804277323', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzQyMjY0NDI4MDQyNzczMjM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M180MjI2NDQyODA0Mjc3MzIz', 'date': '2025-12-03T22:59:35.000Z', 'text': 'la navidad no existe en ninguna parte de la Biblia lo registra mientras el mundo espera un nacimiento de idolatría hay un pueblo esperando la venida del verd</t>
         </is>
       </c>
     </row>
@@ -1070,23 +1072,23 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Q mamera ahora con ud señora q cansoneria no tiene más nada que hacer... 🙄</t>
+          <t>Gss</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-12-01T00:00:36.000Z</t>
+          <t>2025-12-01T02:22:19.000Z</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45992.00041666667</v>
+        <v>45992.09883101852</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>45992</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>00:00:36</t>
+          <t>02:22:19</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -1102,7 +1104,7 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=820960607606969', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzgyMDk2MDYwNzYwNjk2OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184MjA5NjA2MDc2MDY5Njk=', 'date': '2025-12-01T00:00:36.000Z', 'text': 'Q mamera ahora con ud señora q cansoneria no tiene más nada que hacer... 🙄', 'profileUrl': 'https://www.facebook.com/jhony.figueroa.372', 'profilePicture': 'h</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=33057038213910265', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzMzMDU3MDM4MjEzOTEwMjY1', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18zMzA1NzAzODIxMzkxMDI2NQ==', 'date': '2025-12-01T02:22:19.000Z', 'text': 'Gss', 'profileUrl': 'https://www.facebook.com/claudimar.martinez.3367', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/324334081_</t>
         </is>
       </c>
     </row>
@@ -1128,27 +1130,27 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ajonjo  esa planta se come con sal o ondas dulce se hacen cocadas bolita.segun nuestro papá sirve para la gripe y esa grasa sirve para los pulmones</t>
+          <t>Q mamera ahora con ud señora q cansoneria no tiene más nada que hacer... 🙄</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-11-30T21:06:52.000Z</t>
+          <t>2025-12-01T00:00:36.000Z</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45991.87976851852</v>
+        <v>45992.00041666667</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21:06:52</t>
+          <t>00:00:36</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1160,7 +1162,7 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=716877781018772', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzcxNjg3Nzc4MTAxODc3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M183MTY4Nzc3ODEwMTg3NzI=', 'date': '2025-11-30T21:06:52.000Z', 'text': 'Ajonjo  esa planta se come con sal o ondas dulce se hacen cocadas bolita.segun nuestro papá sirve para la gripe y esa grasa sirve para los pulmones', 'profile</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=820960607606969', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzgyMDk2MDYwNzYwNjk2OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184MjA5NjA2MDc2MDY5Njk=', 'date': '2025-12-01T00:00:36.000Z', 'text': 'Q mamera ahora con ud señora q cansoneria no tiene más nada que hacer... 🙄', 'profileUrl': 'https://www.facebook.com/jhony.figueroa.372', 'profilePicture': 'h</t>
         </is>
       </c>
     </row>
@@ -1186,27 +1188,27 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Navidad,, que lees pasa</t>
+          <t>Ajonjo  esa planta se come con sal o ondas dulce se hacen cocadas bolita.segun nuestro papá sirve para la gripe y esa grasa sirve para los pulmones</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-11-30T20:58:16.000Z</t>
+          <t>2025-11-30T21:06:52.000Z</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45991.8737962963</v>
+        <v>45991.87976851852</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>45991</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>20:58:16</t>
+          <t>21:06:52</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1218,7 +1220,7 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=822291320574898', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzgyMjI5MTMyMDU3NDg5OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184MjIyOTEzMjA1NzQ4OTg=', 'date': '2025-11-30T20:58:16.000Z', 'text': 'Navidad,, que lees pasa', 'profileUrl': 'https://www.facebook.com/morgan.himura.mayorga', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=716877781018772', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzcxNjg3Nzc4MTAxODc3Mg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M183MTY4Nzc3ODEwMTg3NzI=', 'date': '2025-11-30T21:06:52.000Z', 'text': 'Ajonjo  esa planta se come con sal o ondas dulce se hacen cocadas bolita.segun nuestro papá sirve para la gripe y esa grasa sirve para los pulmones', 'profile</t>
         </is>
       </c>
     </row>
@@ -1244,23 +1246,23 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sagwruyag mi JhVUauyayyap</t>
+          <t>Navidad,, que lees pasa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-11-30T18:40:39.000Z</t>
+          <t>2025-11-30T20:58:16.000Z</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45991.77822916667</v>
+        <v>45991.8737962963</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45991</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>18:40:39</t>
+          <t>20:58:16</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -1276,7 +1278,7 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=833717786190766', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzgzMzcxNzc4NjE5MDc2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184MzM3MTc3ODYxOTA3NjY=', 'date': '2025-11-30T18:40:39.000Z', 'text': 'Sagwruyag mi JhVUauyayyap', 'profileUrl': 'https://www.facebook.com/people/Nicolas-Narv%C3%A1ez/pfbid06syj53GLcEsCDaTpY23iFj4PWScFHwMapc8ytKh16jTQiQ3jB1shdtVj</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=822291320574898', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzgyMjI5MTMyMDU3NDg5OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184MjIyOTEzMjA1NzQ4OTg=', 'date': '2025-11-30T20:58:16.000Z', 'text': 'Navidad,, que lees pasa', 'profileUrl': 'https://www.facebook.com/morgan.himura.mayorga', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-</t>
         </is>
       </c>
     </row>
@@ -1302,23 +1304,23 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Y5</t>
+          <t>Sagwruyag mi JhVUauyayyap</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-11-30T02:06:27.000Z</t>
+          <t>2025-11-30T18:40:39.000Z</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45991.0878125</v>
+        <v>45991.77822916667</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45991</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>02:06:27</t>
+          <t>18:40:39</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -1334,7 +1336,7 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=1532686844714982', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzE1MzI2ODY4NDQ3MTQ5ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18xNTMyNjg2ODQ0NzE0OTgy', 'date': '2025-11-30T02:06:27.000Z', 'text': 'Y5', 'profileUrl': 'https://www.facebook.com/people/Javier-Hidalgo/pfbid0nZUNJ4Yq52pdURSYomnoNDkQh32gNA9ivU8WvDQLy9RxyFGrE9BWrAu5Q43xQDAKl/', 'profilePicture</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=833717786190766', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzgzMzcxNzc4NjE5MDc2Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M184MzM3MTc3ODYxOTA3NjY=', 'date': '2025-11-30T18:40:39.000Z', 'text': 'Sagwruyag mi JhVUauyayyap', 'profileUrl': 'https://www.facebook.com/people/Nicolas-Narv%C3%A1ez/pfbid06syj53GLcEsCDaTpY23iFj4PWScFHwMapc8ytKh16jTQiQ3jB1shdtVj</t>
         </is>
       </c>
     </row>
@@ -1360,27 +1362,27 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Disfrútalo mucho y que pases bien inicio</t>
+          <t>Y5</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-11-29T11:00:05.000Z</t>
+          <t>2025-11-30T02:06:27.000Z</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45990.45839120371</v>
+        <v>45991.0878125</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>45990</v>
+        <v>45991</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>11:00:05</t>
+          <t>02:06:27</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1392,7 +1394,7 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=711704818657032', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzcxMTcwNDgxODY1NzAzMg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M183MTE3MDQ4MTg2NTcwMzI=', 'date': '2025-11-29T11:00:05.000Z', 'text': 'Disfrútalo mucho y que pases bien inicio', 'profileUrl': 'https://www.facebook.com/mario.villada.200060', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=1532686844714982', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzE1MzI2ODY4NDQ3MTQ5ODI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18xNTMyNjg2ODQ0NzE0OTgy', 'date': '2025-11-30T02:06:27.000Z', 'text': 'Y5', 'profileUrl': 'https://www.facebook.com/people/Javier-Hidalgo/pfbid0nZUNJ4Yq52pdURSYomnoNDkQh32gNA9ivU8WvDQLy9RxyFGrE9BWrAu5Q43xQDAKl/', 'profilePicture</t>
         </is>
       </c>
     </row>
@@ -1418,27 +1420,27 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>❤️que lindo</t>
+          <t>Disfrútalo mucho y que pases bien inicio</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-11-29T04:45:34.000Z</t>
+          <t>2025-11-29T11:00:05.000Z</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45990.19831018519</v>
+        <v>45990.45839120371</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>04:45:34</t>
+          <t>11:00:05</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1450,7 +1452,7 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=1236330011662261', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzEyMzYzMzAwMTE2NjIyNjE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18xMjM2MzMwMDExNjYyMjYx', 'date': '2025-11-29T04:45:34.000Z', 'text': '❤️que lindo', 'profileUrl': 'https://www.facebook.com/hernandez.espejo.606684', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/4875155</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=711704818657032', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzcxMTcwNDgxODY1NzAzMg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M183MTE3MDQ4MTg2NTcwMzI=', 'date': '2025-11-29T11:00:05.000Z', 'text': 'Disfrútalo mucho y que pases bien inicio', 'profileUrl': 'https://www.facebook.com/mario.villada.200060', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.</t>
         </is>
       </c>
     </row>
@@ -1476,27 +1478,27 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Navidad con tus respetos .es una mierda , Santo=satanás. San Nicolás  humanos igenous</t>
+          <t>❤️que lindo</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-11-29T03:24:04.000Z</t>
+          <t>2025-11-29T04:45:34.000Z</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45990.14171296296</v>
+        <v>45990.19831018519</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>03:24:04</t>
+          <t>04:45:34</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1508,7 +1510,7 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=1166019662308168', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzExNjYwMTk2NjIzMDgxNjg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18xMTY2MDE5NjYyMzA4MTY4', 'date': '2025-11-29T03:24:04.000Z', 'text': 'Navidad con tus respetos .es una mierda , Santo=satanás. San Nicolás  humanos igenous', 'profileUrl': 'https://www.facebook.com/wilfredo.garcia.599153', 'pro</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=1236330011662261', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzEyMzYzMzAwMTE2NjIyNjE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18xMjM2MzMwMDExNjYyMjYx', 'date': '2025-11-29T04:45:34.000Z', 'text': '❤️que lindo', 'profileUrl': 'https://www.facebook.com/hernandez.espejo.606684', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/4875155</t>
         </is>
       </c>
     </row>
@@ -1534,23 +1536,23 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dónde lo venden</t>
+          <t>Navidad con tus respetos .es una mierda , Santo=satanás. San Nicolás  humanos igenous</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-11-29T03:16:42.000Z</t>
+          <t>2025-11-29T03:24:04.000Z</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45990.13659722222</v>
+        <v>45990.14171296296</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>03:16:42</t>
+          <t>03:24:04</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -1566,13 +1568,13 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=778173978562386', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzc3ODE3Mzk3ODU2MjM4Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M183NzgxNzM5Nzg1NjIzODY=', 'date': '2025-11-29T03:16:42.000Z', 'text': 'Dónde lo venden', 'profileUrl': 'https://www.facebook.com/gloria.casas.3150', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/366724806_</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=1166019662308168', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzExNjYwMTk2NjIzMDgxNjg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M18xMTY2MDE5NjYyMzA4MTY4', 'date': '2025-11-29T03:24:04.000Z', 'text': 'Navidad con tus respetos .es una mierda , Santo=satanás. San Nicolás  humanos igenous', 'profileUrl': 'https://www.facebook.com/wilfredo.garcia.599153', 'pro</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1581,22 +1583,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/1064335669081037/</t>
+          <t>https://www.facebook.com/reel/824128970369850/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/1064335669081037/</t>
+          <t>https://www.facebook.com/reel/824128970369850/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Dónde lo venden</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:16:42.000Z</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>45990.13659722222</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>03:16:42</t>
+        </is>
+      </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1605,16 +1623,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/824128970369850/', 'commentUrl': 'https://www.facebook.com/reel/824128970369850/?comment_id=778173978562386', 'id': 'Y29tbWVudDoxMjg1NjM2MDY2OTQxOTYzXzc3ODE3Mzk3ODU2MjM4Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA2Njk0MTk2M183NzgxNzM5Nzg1NjIzODY=', 'date': '2025-11-29T03:16:42.000Z', 'text': 'Dónde lo venden', 'profileUrl': 'https://www.facebook.com/gloria.casas.3150', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/366724806_</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1623,40 +1641,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
+          <t>https://www.facebook.com/reel/1064335669081037/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
+          <t>https://www.facebook.com/reel/1064335669081037/</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Me encanta  precioso</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2025-12-17T10:53:00.000Z</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>46008.45347222222</v>
-      </c>
-      <c r="I21" s="3" t="n">
-        <v>46008</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>10:53:00</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1665,12 +1665,12 @@
         <v>0</v>
       </c>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1540506240544854', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NDA1MDYyNDA1NDQ4NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTQwNTA2MjQwNTQ0ODU0', 'date': '2025-12-17T10:53:00.000Z', 'text': 'Me encanta  precioso', 'profileUrl': 'https://www.facebook.com/mariaeugenia.arangoholguin', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.3</t>
-        </is>
-      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1694,27 +1694,29 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>A mi perro no le gustó🤣</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-12-17T00:52:57.000Z</t>
+          <t>2025-12-23T16:18:15.000Z</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>46008.03677083334</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>46008</v>
+        <v>46014.67934027778</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>46014</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>00:52:57</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
+          <t>16:18:15</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1726,7 +1728,7 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=817400901124258', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzgxNzQwMDkwMTEyNDI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84MTc0MDA5MDExMjQyNTg=', 'date': '2025-12-17T00:52:57.000Z', 'text': '⁹', 'profileUrl': 'https://www.facebook.com/isa.hoyos.35', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.6435-1/156539205_2972468196324183_46</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=4384384181890749', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzQzODQzODQxODE4OTA3NDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV80Mzg0Mzg0MTgxODkwNzQ5', 'date': '2025-12-23T16:18:15.000Z', 'text': 'A mi perro no le gustó🤣', 'profileUrl': 'https://www.facebook.com/dianacarolina.pinta', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808</t>
         </is>
       </c>
     </row>
@@ -1752,27 +1754,29 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Se embobo</t>
+          <t>Ujuuu pangaaa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-12-15T11:02:35.000Z</t>
+          <t>2025-12-22T16:46:18.000Z</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>46006.46012731481</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>46006</v>
+        <v>46013.69881944444</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>46013</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>11:02:35</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
+          <t>16:46:18</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1784,7 +1788,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=25581637008139921', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzI1NTgxNjM3MDA4MTM5OTIx', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yNTU4MTYzNzAwODEzOTkyMQ==', 'date': '2025-12-15T11:02:35.000Z', 'text': 'Se embobo', 'profileUrl': 'https://www.facebook.com/rubiela.cardona.804330', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/518</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=794702060254489', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzc5NDcwMjA2MDI1NDQ4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83OTQ3MDIwNjAyNTQ0ODk=', 'date': '2025-12-22T16:46:18.000Z', 'text': 'Ujuuu pangaaa', 'profileUrl': 'https://www.facebook.com/brayan.ortiz.778676', 'profilePicture': 'https://scontent-lax7-1.xx.fbcdn.net/v/t39.30808-1/48123466</t>
         </is>
       </c>
     </row>
@@ -1810,27 +1814,29 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>propaganda ridícula</t>
+          <t>Hay fuga retenedores y empaques</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-12-14T06:17:15.000Z</t>
+          <t>2025-12-21T23:56:53.000Z</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>46005.26197916667</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>46005</v>
+        <v>46012.99783564815</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>46012</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>06:17:15</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
+          <t>23:56:53</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -1842,7 +1848,7 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=894678003078253', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg5NDY3ODAwMzA3ODI1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84OTQ2NzgwMDMwNzgyNTM=', 'date': '2025-12-14T06:17:15.000Z', 'text': 'propaganda ridícula', 'profileUrl': 'https://www.facebook.com/Dugalvis', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/218443267_146</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1174489044396774', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNzQ0ODkwNDQzOTY3NzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTc0NDg5MDQ0Mzk2Nzc0', 'date': '2025-12-21T23:56:53.000Z', 'text': 'Hay fuga retenedores y empaques', 'profileUrl': 'https://www.facebook.com/michael.moreno.153235', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v</t>
         </is>
       </c>
     </row>
@@ -1868,27 +1874,29 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>A ti hay que regalarte una volqueta de sal mijo 😂</t>
+          <t>La próxima que hagas otro vídeo te pones una falda y tacones</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-12-13T02:15:21.000Z</t>
+          <t>2025-12-21T22:40:46.000Z</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>46004.09399305555</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>46004</v>
+        <v>46012.94497685185</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>46012</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>02:15:21</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
+          <t>22:40:46</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1900,7 +1908,7 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=860909053063312', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg2MDkwOTA1MzA2MzMxMg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NjA5MDkwNTMwNjMzMTI=', 'date': '2025-12-13T02:15:21.000Z', 'text': 'A ti hay que regalarte una volqueta de sal mijo 😂', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.6435-1/149913918_3787793547982065_622463339</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=746481101815979', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzc0NjQ4MTEwMTgxNTk3OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83NDY0ODExMDE4MTU5Nzk=', 'date': '2025-12-21T22:40:46.000Z', 'text': 'La próxima que hagas otro vídeo te pones una falda y tacones', 'profileUrl': 'https://www.facebook.com/julian.d.ordonez.3', 'profilePicture': 'https://scont</t>
         </is>
       </c>
     </row>
@@ -1926,27 +1934,29 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Deles nalga</t>
+          <t>Cule caga</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-12-12T04:57:00.000Z</t>
+          <t>2025-12-21T20:22:39.000Z</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>46003.20625</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>46003</v>
+        <v>46012.8490625</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>46012</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>04:57:00</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
+          <t>20:22:39</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1958,7 +1968,7 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2094858337925209', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIwOTQ4NTgzMzc5MjUyMDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMDk0ODU4MzM3OTI1MjA5', 'date': '2025-12-12T04:57:00.000Z', 'text': 'Deles nalga', 'profileUrl': 'https://www.facebook.com/people/C%C3%A9sar-Delgado/pfbid0vAaPnzKZ9jnTB8SgpvEWp9p1e9zeGzxPs76Bw67h6ci4aFqAwXPLBmS2DV315qC9l/', </t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1852339398741619', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE4NTIzMzkzOTg3NDE2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xODUyMzM5Mzk4NzQxNjE5', 'date': '2025-12-21T20:22:39.000Z', 'text': 'Cule caga', 'profileUrl': 'https://www.facebook.com/people/Danilo-Arrieta/pfbid02bzNdbJ5itCTfEK62YyVt3E2BMaNxaGSxuyQiuoNsNLbk5T35XHJJNh8XUs7LucFNl/', 'prof</t>
         </is>
       </c>
     </row>
@@ -1984,27 +1994,29 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tiene la voz de camilo cifu3ntes</t>
+          <t>Jhgssssaa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-12-11T10:32:14.000Z</t>
+          <t>2025-12-20T18:04:42.000Z</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>46002.43905092592</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>46002</v>
+        <v>46011.75326388889</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>46011</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>10:32:14</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
+          <t>18:04:42</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2016,7 +2028,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=796038283473893', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzc5NjAzODI4MzQ3Mzg5Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83OTYwMzgyODM0NzM4OTM=', 'date': '2025-12-11T10:32:14.000Z', 'text': 'Tiene la voz de camilo cifu3ntes', 'profileUrl': 'https://www.facebook.com/luz.helena.ossa.castano', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1563566591440672', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NjM1NjY1OTE0NDA2NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTYzNTY2NTkxNDQwNjcy', 'date': '2025-12-20T18:04:42.000Z', 'text': 'Jhgssssaa', 'profileUrl': 'https://www.facebook.com/people/Luis-Garcia/pfbid0Ge2Fyha3Tmo4a9hpCDxpZJU6X3P1w6DXKX5nseFvYJFgE7zj2WgzM5cX2di2GHRPl/', 'profileP</t>
         </is>
       </c>
     </row>
@@ -2042,27 +2054,29 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ladrillera</t>
+          <t>Mi Pregunta Es Todavía celebran la navidad ????</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-12-09T11:34:26.000Z</t>
+          <t>2025-12-18T04:02:59.000Z</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>46000.48224537037</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>46000</v>
+        <v>46009.16873842593</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>46009</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>11:34:26</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
+          <t>04:02:59</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2074,7 +2088,7 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1504070450848946', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1MDQwNzA0NTA4NDg5NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTA0MDcwNDUwODQ4OTQ2', 'date': '2025-12-09T11:34:26.000Z', 'text': 'Ladrillera', 'profileUrl': 'https://www.facebook.com/people/Rosario-D%C3%ADaz-Avila/pfbid02jyk8zyuequtF4aMuSrKzTrdZsXrWqjA3qvfjHEd7CpZsZkvkhVSq7dyPPXh9D3Gr</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1417515729989362', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE0MTc1MTU3Mjk5ODkzNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNDE3NTE1NzI5OTg5MzYy', 'date': '2025-12-18T04:02:59.000Z', 'text': 'Mi Pregunta Es Todavía celebran la navidad ????', 'profileUrl': 'https://www.facebook.com/people/Richard-R%C3%ADos-Mateus/pfbid02yKwdXvjoAjFP4GXduDJQHLiS2n</t>
         </is>
       </c>
     </row>
@@ -2100,27 +2114,29 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Hablé bien bobo hijueputa parece un maricon</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-12-08T04:36:06.000Z</t>
+          <t>2025-12-18T00:15:45.000Z</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45999.19173611111</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>45999</v>
+        <v>46009.0109375</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>46009</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>04:36:06</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
+          <t>00:15:45</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2132,7 +2148,7 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1558506205484017', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NTg1MDYyMDU0ODQwMTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTU4NTA2MjA1NDg0MDE3', 'date': '2025-12-08T04:36:06.000Z', 'text': 'Hablé bien bobo hijueputa parece un maricon', 'profileUrl': 'https://www.facebook.com/people/Giovani-Casta%C3%B1eda/pfbid0288VbDd9dTCKqcwthRkKrTMN8NcKTrNFC</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2070081767139708', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIwNzAwODE3NjcxMzk3MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMDcwMDgxNzY3MTM5NzA4', 'date': '2025-12-18T00:15:45.000Z', 'text': 'F', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/485354171_3955182458034286_6846365074691149130_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_</t>
         </is>
       </c>
     </row>
@@ -2158,23 +2174,23 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ya me imagino 😸 como olera la casa con esa manada de chuchos</t>
+          <t>Me encanta  precioso</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-12-07T22:45:35.000Z</t>
+          <t>2025-12-17T10:53:00.000Z</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45998.94832175926</v>
+        <v>46008.45347222222</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>45998</v>
+        <v>46008</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>22:45:35</t>
+          <t>10:53:00</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -2190,7 +2206,7 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1557308165421326', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NTczMDgxNjU0MjEzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTU3MzA4MTY1NDIxMzI2', 'date': '2025-12-07T22:45:35.000Z', 'text': 'Ya me imagino 😸 como olera la casa con esa manada de chuchos', 'profileUrl': 'https://www.facebook.com/luiscarlos.chavarro.7', 'profilePicture': 'https://s</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1540506240544854', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NDA1MDYyNDA1NDQ4NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTQwNTA2MjQwNTQ0ODU0', 'date': '2025-12-17T10:53:00.000Z', 'text': 'Me encanta  precioso', 'profileUrl': 'https://www.facebook.com/mariaeugenia.arangoholguin', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.3</t>
         </is>
       </c>
     </row>
@@ -2216,23 +2232,23 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Jeanpierre Vargas moni</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-12-07T15:19:03.000Z</t>
+          <t>2025-12-17T00:52:57.000Z</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45998.63822916667</v>
+        <v>46008.03677083334</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>45998</v>
+        <v>46008</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>15:19:03</t>
+          <t>00:52:57</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -2248,7 +2264,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=876709925013424', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3NjcwOTkyNTAxMzQyNA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzY3MDk5MjUwMTM0MjQ=', 'date': '2025-12-07T15:19:03.000Z', 'text': 'Jeanpierre Vargas moni', 'profileUrl': 'https://www.facebook.com/harold.marrero.73', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/4</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=817400901124258', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzgxNzQwMDkwMTEyNDI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84MTc0MDA5MDExMjQyNTg=', 'date': '2025-12-17T00:52:57.000Z', 'text': '⁹', 'profileUrl': 'https://www.facebook.com/isa.hoyos.35', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.6435-1/156539205_2972468196324183_46</t>
         </is>
       </c>
     </row>
@@ -2274,23 +2290,23 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bellezassss</t>
+          <t>Se embobo</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-12-07T13:08:32.000Z</t>
+          <t>2025-12-15T11:02:35.000Z</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45998.54759259259</v>
+        <v>46006.46012731481</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>45998</v>
+        <v>46006</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>11:02:35</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -2306,7 +2322,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1365612581637413', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNjU2MTI1ODE2Mzc0MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzY1NjEyNTgxNjM3NDEz', 'date': '2025-12-07T13:08:32.000Z', 'text': 'Bellezassss', 'profileUrl': 'https://www.facebook.com/amanda.alvarez.9210256', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t1.6435-1/97005185</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=25581637008139921', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzI1NTgxNjM3MDA4MTM5OTIx', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yNTU4MTYzNzAwODEzOTkyMQ==', 'date': '2025-12-15T11:02:35.000Z', 'text': 'Se embobo', 'profileUrl': 'https://www.facebook.com/rubiela.cardona.804330', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/518</t>
         </is>
       </c>
     </row>
@@ -2332,23 +2348,23 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>❤️</t>
+          <t>propaganda ridícula</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-12-06T20:56:09.000Z</t>
+          <t>2025-12-14T06:17:15.000Z</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45997.87232638889</v>
+        <v>46005.26197916667</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>45997</v>
+        <v>46005</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>20:56:09</t>
+          <t>06:17:15</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -2364,7 +2380,7 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=697870086460716', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzY5Nzg3MDA4NjQ2MDcxNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV82OTc4NzAwODY0NjA3MTY=', 'date': '2025-12-06T20:56:09.000Z', 'text': '❤️', 'profileUrl': 'https://www.facebook.com/luz.ordones.393731', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/438205569_1221402985</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=894678003078253', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg5NDY3ODAwMzA3ODI1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84OTQ2NzgwMDMwNzgyNTM=', 'date': '2025-12-14T06:17:15.000Z', 'text': 'propaganda ridícula', 'profileUrl': 'https://www.facebook.com/Dugalvis', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/218443267_146</t>
         </is>
       </c>
     </row>
@@ -2390,23 +2406,23 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Juanda es juanda mijo usted vale verga</t>
+          <t>A ti hay que regalarte una volqueta de sal mijo 😂</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-12-06T10:21:02.000Z</t>
+          <t>2025-12-13T02:15:21.000Z</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45997.43127314815</v>
+        <v>46004.09399305555</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>45997</v>
+        <v>46004</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>10:21:02</t>
+          <t>02:15:21</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -2422,7 +2438,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1153022776944307', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNTMwMjI3NzY5NDQzMDc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTUzMDIyNzc2OTQ0MzA3', 'date': '2025-12-06T10:21:02.000Z', 'text': 'Juanda es juanda mijo usted vale verga', 'profileUrl': 'https://www.facebook.com/sebastian.sanchez.860527', 'profilePicture': 'https://scontent.fpia1-1.fna</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=860909053063312', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg2MDkwOTA1MzA2MzMxMg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NjA5MDkwNTMwNjMzMTI=', 'date': '2025-12-13T02:15:21.000Z', 'text': 'A ti hay que regalarte una volqueta de sal mijo 😂', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.6435-1/149913918_3787793547982065_622463339</t>
         </is>
       </c>
     </row>
@@ -2448,23 +2464,23 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Y de paso un marica</t>
+          <t>Deles nalga</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-12-05T12:14:46.000Z</t>
+          <t>2025-12-12T04:57:00.000Z</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45996.51025462963</v>
+        <v>46003.20625</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45996</v>
+        <v>46003</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>12:14:46</t>
+          <t>04:57:00</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -2480,7 +2496,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1123941459814167', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExMjM5NDE0NTk4MTQxNjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTIzOTQxNDU5ODE0MTY3', 'date': '2025-12-05T12:14:46.000Z', 'text': 'Y de paso un marica', 'profileUrl': 'https://www.facebook.com/oswaldo.alvarez.9406', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/67</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2094858337925209', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIwOTQ4NTgzMzc5MjUyMDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMDk0ODU4MzM3OTI1MjA5', 'date': '2025-12-12T04:57:00.000Z', 'text': 'Deles nalga', 'profileUrl': 'https://www.facebook.com/people/C%C3%A9sar-Delgado/pfbid0vAaPnzKZ9jnTB8SgpvEWp9p1e9zeGzxPs76Bw67h6ci4aFqAwXPLBmS2DV315qC9l/', </t>
         </is>
       </c>
     </row>
@@ -2506,23 +2522,23 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Se van a volver maricas los perros</t>
+          <t>Tiene la voz de camilo cifu3ntes</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-12-05T06:52:51.000Z</t>
+          <t>2025-12-11T10:32:14.000Z</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>45996.28670138889</v>
+        <v>46002.43905092592</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>06:52:51</t>
+          <t>10:32:14</t>
         </is>
       </c>
       <c r="K36" t="n">
@@ -2538,7 +2554,7 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=859786813225535', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1OTc4NjgxMzIyNTUzNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTk3ODY4MTMyMjU1MzU=', 'date': '2025-12-05T06:52:51.000Z', 'text': 'Se van a volver maricas los perros', 'profileUrl': 'https://www.facebook.com/people/Gonzalo-Salazar/pfbid0K2pb8Hxt9Lu6ExHmdDRNnwwy8Fp8UMGUNHdyMUzq4HVDw9Mu7s</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=796038283473893', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzc5NjAzODI4MzQ3Mzg5Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83OTYwMzgyODM0NzM4OTM=', 'date': '2025-12-11T10:32:14.000Z', 'text': 'Tiene la voz de camilo cifu3ntes', 'profileUrl': 'https://www.facebook.com/luz.helena.ossa.castano', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net</t>
         </is>
       </c>
     </row>
@@ -2564,23 +2580,23 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Pero xq todos los q hacen comercial o propaganda son como amanerado</t>
+          <t>Ladrillera</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-12-04T18:04:51.000Z</t>
+          <t>2025-12-09T11:34:26.000Z</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45995.75336805556</v>
+        <v>46000.48224537037</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45995</v>
+        <v>46000</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>18:04:51</t>
+          <t>11:34:26</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -2596,7 +2612,7 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=4031832796961811', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzQwMzE4MzI3OTY5NjE4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV80MDMxODMyNzk2OTYxODEx', 'date': '2025-12-04T18:04:51.000Z', 'text': 'Pero xq todos los q hacen comercial o propaganda son como amanerado', 'profileUrl': 'https://www.facebook.com/sebastian.osorio.859155', 'profilePicture': '</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1504070450848946', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1MDQwNzA0NTA4NDg5NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTA0MDcwNDUwODQ4OTQ2', 'date': '2025-12-09T11:34:26.000Z', 'text': 'Ladrillera', 'profileUrl': 'https://www.facebook.com/people/Rosario-D%C3%ADaz-Avila/pfbid02jyk8zyuequtF4aMuSrKzTrdZsXrWqjA3qvfjHEd7CpZsZkvkhVSq7dyPPXh9D3Gr</t>
         </is>
       </c>
     </row>
@@ -2622,23 +2638,23 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Un armaño</t>
+          <t>Hablé bien bobo hijueputa parece un maricon</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-12-04T16:03:43.000Z</t>
+          <t>2025-12-08T04:36:06.000Z</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45995.66924768518</v>
+        <v>45999.19173611111</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45995</v>
+        <v>45999</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>16:03:43</t>
+          <t>04:36:06</t>
         </is>
       </c>
       <c r="K38" t="n">
@@ -2654,7 +2670,7 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2249706118774341', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNDk3MDYxMTg3NzQzNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjQ5NzA2MTE4Nzc0MzQx', 'date': '2025-12-04T16:03:43.000Z', 'text': 'Un armaño', 'profileUrl': 'https://www.facebook.com/people/Lucho-Pinve/pfbid0gtCo922L34tWhtmxnFtgetGkNcAmJWq5aqem2FRjVxWKXvf9nDqoEhtQFfYjbEMNl/', 'profileP</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1558506205484017', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NTg1MDYyMDU0ODQwMTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTU4NTA2MjA1NDg0MDE3', 'date': '2025-12-08T04:36:06.000Z', 'text': 'Hablé bien bobo hijueputa parece un maricon', 'profileUrl': 'https://www.facebook.com/people/Giovani-Casta%C3%B1eda/pfbid0288VbDd9dTCKqcwthRkKrTMN8NcKTrNFC</t>
         </is>
       </c>
     </row>
@@ -2680,23 +2696,23 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Regala el culo para q te lo partan pinche pendejo</t>
+          <t>Ya me imagino 😸 como olera la casa con esa manada de chuchos</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-12-04T15:56:46.000Z</t>
+          <t>2025-12-07T22:45:35.000Z</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>45995.66442129629</v>
+        <v>45998.94832175926</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45995</v>
+        <v>45998</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>15:56:46</t>
+          <t>22:45:35</t>
         </is>
       </c>
       <c r="K39" t="n">
@@ -2712,7 +2728,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1891805188887262', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE4OTE4MDUxODg4ODcyNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xODkxODA1MTg4ODg3MjYy', 'date': '2025-12-04T15:56:46.000Z', 'text': 'Regala el culo para q te lo partan pinche pendejo', 'profileUrl': 'https://www.facebook.com/people/Henrry-Mejia/pfbid024WNbGTQ9S6LrXUp3vwZkiKNACnZepVdWHAxh</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1557308165421326', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NTczMDgxNjU0MjEzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTU3MzA4MTY1NDIxMzI2', 'date': '2025-12-07T22:45:35.000Z', 'text': 'Ya me imagino 😸 como olera la casa con esa manada de chuchos', 'profileUrl': 'https://www.facebook.com/luiscarlos.chavarro.7', 'profilePicture': 'https://s</t>
         </is>
       </c>
     </row>
@@ -2738,23 +2754,23 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tremendo plumero....</t>
+          <t>Jeanpierre Vargas moni</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-12-04T08:17:48.000Z</t>
+          <t>2025-12-07T15:19:03.000Z</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>45995.34569444445</v>
+        <v>45998.63822916667</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45995</v>
+        <v>45998</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>08:17:48</t>
+          <t>15:19:03</t>
         </is>
       </c>
       <c r="K40" t="n">
@@ -2770,7 +2786,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2285154445282378', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyODUxNTQ0NDUyODIzNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjg1MTU0NDQ1MjgyMzc4', 'date': '2025-12-04T08:17:48.000Z', 'text': 'Tremendo plumero….', 'profileUrl': 'https://www.facebook.com/wilmar.montoya.566', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/457</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=876709925013424', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3NjcwOTkyNTAxMzQyNA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzY3MDk5MjUwMTM0MjQ=', 'date': '2025-12-07T15:19:03.000Z', 'text': 'Jeanpierre Vargas moni', 'profileUrl': 'https://www.facebook.com/harold.marrero.73', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/4</t>
         </is>
       </c>
     </row>
@@ -2796,23 +2812,23 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Porque hablas como nena?</t>
+          <t>Bellezassss</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-12-01T02:12:44.000Z</t>
+          <t>2025-12-07T13:08:32.000Z</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>45992.09217592593</v>
+        <v>45998.54759259259</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45992</v>
+        <v>45998</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>02:12:44</t>
+          <t>13:08:32</t>
         </is>
       </c>
       <c r="K41" t="n">
@@ -2828,7 +2844,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1370389547957663', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNzAzODk1NDc5NTc2NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzcwMzg5NTQ3OTU3NjYz', 'date': '2025-12-01T02:12:44.000Z', 'text': 'Porque hablas como nena?', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39.30808-1/522981199_2446293375744068_6324711599817041428_n.jpg?stp</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1365612581637413', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNjU2MTI1ODE2Mzc0MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzY1NjEyNTgxNjM3NDEz', 'date': '2025-12-07T13:08:32.000Z', 'text': 'Bellezassss', 'profileUrl': 'https://www.facebook.com/amanda.alvarez.9210256', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t1.6435-1/97005185</t>
         </is>
       </c>
     </row>
@@ -2854,23 +2870,23 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Mala</t>
+          <t>❤️</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-12-01T01:58:28.000Z</t>
+          <t>2025-12-06T20:56:09.000Z</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>45992.08226851852</v>
+        <v>45997.87232638889</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45992</v>
+        <v>45997</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>01:58:28</t>
+          <t>20:56:09</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -2886,7 +2902,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=871415775330430', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3MTQxNTc3NTMzMDQzMA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzE0MTU3NzUzMzA0MzA=', 'date': '2025-12-01T01:58:28.000Z', 'text': 'Mala', 'profileUrl': 'https://www.facebook.com/jlozano.espinoza', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/490704697_1221292654</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=697870086460716', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzY5Nzg3MDA4NjQ2MDcxNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV82OTc4NzAwODY0NjA3MTY=', 'date': '2025-12-06T20:56:09.000Z', 'text': '❤️', 'profileUrl': 'https://www.facebook.com/luz.ordones.393731', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/438205569_1221402985</t>
         </is>
       </c>
     </row>
@@ -2912,23 +2928,23 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Juanda es juanda mijo usted vale verga</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-12-01T01:58:27.000Z</t>
+          <t>2025-12-06T10:21:02.000Z</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>45992.08225694444</v>
+        <v>45997.43127314815</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>45992</v>
+        <v>45997</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>01:58:27</t>
+          <t>10:21:02</t>
         </is>
       </c>
       <c r="K43" t="n">
@@ -2944,7 +2960,7 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=870212298728039', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3MDIxMjI5ODcyODAzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzAyMTIyOTg3MjgwMzk=', 'date': '2025-12-01T01:58:27.000Z', 'text': 'Red', 'profileUrl': 'https://www.facebook.com/jlozano.espinoza', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/490704697_12212926544</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1153022776944307', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNTMwMjI3NzY5NDQzMDc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTUzMDIyNzc2OTQ0MzA3', 'date': '2025-12-06T10:21:02.000Z', 'text': 'Juanda es juanda mijo usted vale verga', 'profileUrl': 'https://www.facebook.com/sebastian.sanchez.860527', 'profilePicture': 'https://scontent.fpia1-1.fna</t>
         </is>
       </c>
     </row>
@@ -2970,23 +2986,23 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Maricon</t>
+          <t>Y de paso un marica</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-12-01T00:49:28.000Z</t>
+          <t>2025-12-05T12:14:46.000Z</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
-        <v>45992.03435185185</v>
+        <v>45996.51025462963</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45992</v>
+        <v>45996</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>00:49:28</t>
+          <t>12:14:46</t>
         </is>
       </c>
       <c r="K44" t="n">
@@ -3002,7 +3018,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2300829877102359', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIzMDA4Mjk4NzcxMDIzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMzAwODI5ODc3MTAyMzU5', 'date': '2025-12-01T00:49:28.000Z', 'text': 'Maricon', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/339265645_759976652445463_3136826086775733221_n.jpg?stp=cp0_dst-jpg_s32x32_</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1123941459814167', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExMjM5NDE0NTk4MTQxNjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTIzOTQxNDU5ODE0MTY3', 'date': '2025-12-05T12:14:46.000Z', 'text': 'Y de paso un marica', 'profileUrl': 'https://www.facebook.com/oswaldo.alvarez.9406', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/67</t>
         </is>
       </c>
     </row>
@@ -3028,23 +3044,23 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Trata serio con ese hablado.</t>
+          <t>Se van a volver maricas los perros</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-12-01T00:11:35.000Z</t>
+          <t>2025-12-05T06:52:51.000Z</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
-        <v>45992.00804398148</v>
+        <v>45996.28670138889</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45992</v>
+        <v>45996</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>00:11:35</t>
+          <t>06:52:51</t>
         </is>
       </c>
       <c r="K45" t="n">
@@ -3060,7 +3076,7 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=867737252473363', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg2NzczNzI1MjQ3MzM2Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84Njc3MzcyNTI0NzMzNjM=', 'date': '2025-12-01T00:11:35.000Z', 'text': 'Trata serio con ese hablado.', 'profileUrl': 'https://www.facebook.com/wilmer.manuel.diaz.munzon.2025', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=859786813225535', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1OTc4NjgxMzIyNTUzNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTk3ODY4MTMyMjU1MzU=', 'date': '2025-12-05T06:52:51.000Z', 'text': 'Se van a volver maricas los perros', 'profileUrl': 'https://www.facebook.com/people/Gonzalo-Salazar/pfbid0K2pb8Hxt9Lu6ExHmdDRNnwwy8Fp8UMGUNHdyMUzq4HVDw9Mu7s</t>
         </is>
       </c>
     </row>
@@ -3086,23 +3102,23 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ayyyy se le bajo la salen</t>
+          <t>Pero xq todos los q hacen comercial o propaganda son como amanerado</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-11-30T23:20:34.000Z</t>
+          <t>2025-12-04T18:04:51.000Z</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
-        <v>45991.97261574074</v>
+        <v>45995.75336805556</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>45991</v>
+        <v>45995</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>23:20:34</t>
+          <t>18:04:51</t>
         </is>
       </c>
       <c r="K46" t="n">
@@ -3118,7 +3134,7 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1190866013196104', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExOTA4NjYwMTMxOTYxMDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTkwODY2MDEzMTk2MTA0', 'date': '2025-11-30T23:20:34.000Z', 'text': 'Ayyyy se le bajo la salen', 'profileUrl': 'https://www.facebook.com/james.martinez.816871', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=4031832796961811', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzQwMzE4MzI3OTY5NjE4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV80MDMxODMyNzk2OTYxODEx', 'date': '2025-12-04T18:04:51.000Z', 'text': 'Pero xq todos los q hacen comercial o propaganda son como amanerado', 'profileUrl': 'https://www.facebook.com/sebastian.osorio.859155', 'profilePicture': '</t>
         </is>
       </c>
     </row>
@@ -3144,23 +3160,23 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Ese man es cagá</t>
+          <t>Un armaño</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-11-30T18:04:11.000Z</t>
+          <t>2025-12-04T16:03:43.000Z</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
-        <v>45991.7529050926</v>
+        <v>45995.66924768518</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>45991</v>
+        <v>45995</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>18:04:11</t>
+          <t>16:03:43</t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -3176,7 +3192,7 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=3427022897455169', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzM0MjcwMjI4OTc0NTUxNjk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8zNDI3MDIyODk3NDU1MTY5', 'date': '2025-11-30T18:04:11.000Z', 'text': 'Ese man es cagá', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/273486952_4933323346731770_5660651639014573511_n.jpg?stp=cp0_dst-jp</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2249706118774341', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNDk3MDYxMTg3NzQzNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjQ5NzA2MTE4Nzc0MzQx', 'date': '2025-12-04T16:03:43.000Z', 'text': 'Un armaño', 'profileUrl': 'https://www.facebook.com/people/Lucho-Pinve/pfbid0gtCo922L34tWhtmxnFtgetGkNcAmJWq5aqem2FRjVxWKXvf9nDqoEhtQFfYjbEMNl/', 'profileP</t>
         </is>
       </c>
     </row>
@@ -3202,23 +3218,23 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Ayyyy</t>
+          <t>Regala el culo para q te lo partan pinche pendejo</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-11-30T00:46:22.000Z</t>
+          <t>2025-12-04T15:56:46.000Z</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
-        <v>45991.03219907408</v>
+        <v>45995.66442129629</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>45991</v>
+        <v>45995</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>00:46:22</t>
+          <t>15:56:46</t>
         </is>
       </c>
       <c r="K48" t="n">
@@ -3234,7 +3250,7 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2255125478334365', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNTUxMjU0NzgzMzQzNjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjU1MTI1NDc4MzM0MzY1', 'date': '2025-11-30T00:46:22.000Z', 'text': 'Ayyyy', 'profileUrl': 'https://www.facebook.com/oswaldo.alvarez.9406', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t1.6435-1/67771402_1550138</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1891805188887262', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE4OTE4MDUxODg4ODcyNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xODkxODA1MTg4ODg3MjYy', 'date': '2025-12-04T15:56:46.000Z', 'text': 'Regala el culo para q te lo partan pinche pendejo', 'profileUrl': 'https://www.facebook.com/people/Henrry-Mejia/pfbid024WNbGTQ9S6LrXUp3vwZkiKNACnZepVdWHAxh</t>
         </is>
       </c>
     </row>
@@ -3260,23 +3276,23 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Este man habla igualitico que al amigo de marixa matayana Mahecha</t>
+          <t>Tremendo plumero....</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-11-29T22:20:39.000Z</t>
+          <t>2025-12-04T08:17:48.000Z</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
-        <v>45990.93100694445</v>
+        <v>45995.34569444445</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>45990</v>
+        <v>45995</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>22:20:39</t>
+          <t>08:17:48</t>
         </is>
       </c>
       <c r="K49" t="n">
@@ -3292,7 +3308,7 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=25246691814957667', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzI1MjQ2NjkxODE0OTU3NjY3', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yNTI0NjY5MTgxNDk1NzY2Nw==', 'date': '2025-11-29T22:20:39.000Z', 'text': 'Este man habla igualitico que al amigo de marixa matayana Mahecha', 'profileUrl': 'https://www.facebook.com/yeshua1985', 'profilePicture': 'https://sc</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2285154445282378', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyODUxNTQ0NDUyODIzNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjg1MTU0NDQ1MjgyMzc4', 'date': '2025-12-04T08:17:48.000Z', 'text': 'Tremendo plumero….', 'profileUrl': 'https://www.facebook.com/wilmar.montoya.566', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/457</t>
         </is>
       </c>
     </row>
@@ -3318,23 +3334,23 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ay esa es mucha locota se le se le ve que es un zoofílico degenerado come asterisco</t>
+          <t>Porque hablas como nena?</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-11-29T20:39:59.000Z</t>
+          <t>2025-12-01T02:12:44.000Z</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
-        <v>45990.86109953704</v>
+        <v>45992.09217592593</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>45990</v>
+        <v>45992</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>20:39:59</t>
+          <t>02:12:44</t>
         </is>
       </c>
       <c r="K50" t="n">
@@ -3350,7 +3366,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1619685035667060', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTk2ODUwMzU2NjcwNjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjE5Njg1MDM1NjY3MDYw', 'date': '2025-11-29T20:39:59.000Z', 'text': 'Ay esa es mucha locota se le se le ve que es un zoofílico degenerado come asterisco', 'profileUrl': 'https://www.facebook.com/julian.zuluaga.635722', 'prof</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1370389547957663', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNzAzODk1NDc5NTc2NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzcwMzg5NTQ3OTU3NjYz', 'date': '2025-12-01T02:12:44.000Z', 'text': 'Porque hablas como nena?', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39.30808-1/522981199_2446293375744068_6324711599817041428_n.jpg?stp</t>
         </is>
       </c>
     </row>
@@ -3376,23 +3392,23 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Toca que pague un médico mental con ese presupuesto</t>
+          <t>Mala</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-11-29T19:14:42.000Z</t>
+          <t>2025-12-01T01:58:28.000Z</t>
         </is>
       </c>
       <c r="H51" s="2" t="n">
-        <v>45990.801875</v>
+        <v>45992.08226851852</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>45990</v>
+        <v>45992</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>19:14:42</t>
+          <t>01:58:28</t>
         </is>
       </c>
       <c r="K51" t="n">
@@ -3408,7 +3424,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=905167035720354', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzkwNTE2NzAzNTcyMDM1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV85MDUxNjcwMzU3MjAzNTQ=', 'date': '2025-11-29T19:14:42.000Z', 'text': 'Toca que pague un médico mental con ese presupuesto', 'profileUrl': 'https://www.facebook.com/jose.miguel.garcia.archila', 'profilePicture': 'https://sconte</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=871415775330430', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3MTQxNTc3NTMzMDQzMA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzE0MTU3NzUzMzA0MzA=', 'date': '2025-12-01T01:58:28.000Z', 'text': 'Mala', 'profileUrl': 'https://www.facebook.com/jlozano.espinoza', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/490704697_1221292654</t>
         </is>
       </c>
     </row>
@@ -3434,23 +3450,23 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>😂 aiiiiii.  😂😂TA como raro el regalador</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-11-29T18:28:07.000Z</t>
+          <t>2025-12-01T01:58:27.000Z</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
-        <v>45990.76952546297</v>
+        <v>45992.08225694444</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>45990</v>
+        <v>45992</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>18:28:07</t>
+          <t>01:58:27</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -3466,7 +3482,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1164505132477363', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNjQ1MDUxMzI0NzczNjM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTY0NTA1MTMyNDc3MzYz', 'date': '2025-11-29T18:28:07.000Z', 'text': '😂 aiiiiii.  😂😂TA como raro el regalador', 'profileUrl': 'https://www.facebook.com/people/Pickupde-Barranquilla/61581212485626/', 'profilePicture': 'https:/</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=870212298728039', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3MDIxMjI5ODcyODAzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzAyMTIyOTg3MjgwMzk=', 'date': '2025-12-01T01:58:27.000Z', 'text': 'Red', 'profileUrl': 'https://www.facebook.com/jlozano.espinoza', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/490704697_12212926544</t>
         </is>
       </c>
     </row>
@@ -3492,27 +3508,27 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>EL HABLADITO ROLO ES COMO GAY</t>
+          <t>Maricon</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-11-29T16:54:18.000Z</t>
+          <t>2025-12-01T00:49:28.000Z</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
-        <v>45990.704375</v>
+        <v>45992.03435185185</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>45990</v>
+        <v>45992</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>16:54:18</t>
+          <t>00:49:28</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3524,7 +3540,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1218885416959008', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEyMTg4ODU0MTY5NTkwMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMjE4ODg1NDE2OTU5MDA4', 'date': '2025-11-29T16:54:18.000Z', 'text': 'EL HABLADITO ROLO ES COMO GAY', 'profileUrl': 'https://www.facebook.com/carlito.ortiz.9828', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2300829877102359', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIzMDA4Mjk4NzcxMDIzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMzAwODI5ODc3MTAyMzU5', 'date': '2025-12-01T00:49:28.000Z', 'text': 'Maricon', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/339265645_759976652445463_3136826086775733221_n.jpg?stp=cp0_dst-jpg_s32x32_</t>
         </is>
       </c>
     </row>
@@ -3550,23 +3566,23 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>No lo dudo</t>
+          <t>Trata serio con ese hablado.</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-11-29T16:25:00.000Z</t>
+          <t>2025-12-01T00:11:35.000Z</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
-        <v>45990.68402777778</v>
+        <v>45992.00804398148</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>45990</v>
+        <v>45992</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>16:25:00</t>
+          <t>00:11:35</t>
         </is>
       </c>
       <c r="K54" t="n">
@@ -3582,7 +3598,7 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1586105552835854', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1ODYxMDU1NTI4MzU4NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTg2MTA1NTUyODM1ODU0', 'date': '2025-11-29T16:25:00.000Z', 'text': 'No lo dudo', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/419578339_7065591426894759_4053593229592847946_n.jpg?stp=cp0_dst-jpg_s32</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=867737252473363', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg2NzczNzI1MjQ3MzM2Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84Njc3MzcyNTI0NzMzNjM=', 'date': '2025-12-01T00:11:35.000Z', 'text': 'Trata serio con ese hablado.', 'profileUrl': 'https://www.facebook.com/wilmer.manuel.diaz.munzon.2025', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.</t>
         </is>
       </c>
     </row>
@@ -3608,23 +3624,23 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Rosqueto hp</t>
+          <t>Ayyyy se le bajo la salen</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-11-29T14:45:47.000Z</t>
+          <t>2025-11-30T23:20:34.000Z</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
-        <v>45990.61512731481</v>
+        <v>45991.97261574074</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>45990</v>
+        <v>45991</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>14:45:47</t>
+          <t>23:20:34</t>
         </is>
       </c>
       <c r="K55" t="n">
@@ -3640,7 +3656,7 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1358189359094572', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNTgxODkzNTkwOTQ1NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzU4MTg5MzU5MDk0NTcy', 'date': '2025-11-29T14:45:47.000Z', 'text': 'Rosqueto hp', 'profileUrl': 'https://www.facebook.com/julian.ospina.745394', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/50482802</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1190866013196104', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExOTA4NjYwMTMxOTYxMDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTkwODY2MDEzMTk2MTA0', 'date': '2025-11-30T23:20:34.000Z', 'text': 'Ayyyy se le bajo la salen', 'profileUrl': 'https://www.facebook.com/james.martinez.816871', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39</t>
         </is>
       </c>
     </row>
@@ -3666,27 +3682,27 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lo primero hablar como un hombre maduro</t>
+          <t>Ese man es cagá</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-11-29T04:14:06.000Z</t>
+          <t>2025-11-30T18:04:11.000Z</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
-        <v>45990.17645833334</v>
+        <v>45991.7529050926</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>45990</v>
+        <v>45991</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>04:14:06</t>
+          <t>18:04:11</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -3698,7 +3714,7 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1642913450007446', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2NDI5MTM0NTAwMDc0NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjQyOTEzNDUwMDA3NDQ2', 'date': '2025-11-29T04:14:06.000Z', 'text': 'Lo primero hablar como un hombre maduro', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_278166695076053098</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=3427022897455169', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzM0MjcwMjI4OTc0NTUxNjk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8zNDI3MDIyODk3NDU1MTY5', 'date': '2025-11-30T18:04:11.000Z', 'text': 'Ese man es cagá', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/273486952_4933323346731770_5660651639014573511_n.jpg?stp=cp0_dst-jp</t>
         </is>
       </c>
     </row>
@@ -3724,23 +3740,23 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Ayyyy</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-11-29T03:57:46.000Z</t>
+          <t>2025-11-30T00:46:22.000Z</t>
         </is>
       </c>
       <c r="H57" s="2" t="n">
-        <v>45990.16511574074</v>
+        <v>45991.03219907408</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>45990</v>
+        <v>45991</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>03:57:46</t>
+          <t>00:46:22</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -3756,7 +3772,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1334648197857195', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzMzQ2NDgxOTc4NTcxOTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzM0NjQ4MTk3ODU3MTk1', 'date': '2025-11-29T03:57:46.000Z', 'text': '96', 'profileUrl': 'https://www.facebook.com/nestor.h.roa', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/468182816_102364465080414</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2255125478334365', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNTUxMjU0NzgzMzQzNjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjU1MTI1NDc4MzM0MzY1', 'date': '2025-11-30T00:46:22.000Z', 'text': 'Ayyyy', 'profileUrl': 'https://www.facebook.com/oswaldo.alvarez.9406', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t1.6435-1/67771402_1550138</t>
         </is>
       </c>
     </row>
@@ -3782,27 +3798,27 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Hay algo más marica que un puto rolo hablando?? No creo!. Esos hptas no son colombianos pena ajena cuando una gonorrea de estas llega con ese tono y hablando de tu y te.. que mierda que vergüenza!!.</t>
+          <t>Este man habla igualitico que al amigo de marixa matayana Mahecha</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-11-29T03:53:59.000Z</t>
+          <t>2025-11-29T22:20:39.000Z</t>
         </is>
       </c>
       <c r="H58" s="2" t="n">
-        <v>45990.16248842593</v>
+        <v>45990.93100694445</v>
       </c>
       <c r="I58" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>03:53:59</t>
+          <t>22:20:39</t>
         </is>
       </c>
       <c r="K58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -3814,7 +3830,7 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1405705607745874', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE0MDU3MDU2MDc3NDU4NzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNDA1NzA1NjA3NzQ1ODc0', 'date': '2025-11-29T03:53:59.000Z', 'text': 'Hay algo más marica que un puto rolo hablando?? No creo!. Esos hptas no son colombianos pena ajena cuando una gonorrea de estas llega con ese tono y hablan</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=25246691814957667', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzI1MjQ2NjkxODE0OTU3NjY3', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yNTI0NjY5MTgxNDk1NzY2Nw==', 'date': '2025-11-29T22:20:39.000Z', 'text': 'Este man habla igualitico que al amigo de marixa matayana Mahecha', 'profileUrl': 'https://www.facebook.com/yeshua1985', 'profilePicture': 'https://sc</t>
         </is>
       </c>
     </row>
@@ -3840,27 +3856,27 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Es</t>
+          <t>Ay esa es mucha locota se le se le ve que es un zoofílico degenerado come asterisco</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-11-29T03:46:23.000Z</t>
+          <t>2025-11-29T20:39:59.000Z</t>
         </is>
       </c>
       <c r="H59" s="2" t="n">
-        <v>45990.15721064815</v>
+        <v>45990.86109953704</v>
       </c>
       <c r="I59" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>03:46:23</t>
+          <t>20:39:59</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -3872,7 +3888,7 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1613261323181733', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTMyNjEzMjMxODE3MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjEzMjYxMzIzMTgxNzMz', 'date': '2025-11-29T03:46:23.000Z', 'text': 'Es', 'profileUrl': 'https://www.facebook.com/maria.gutierrez.564634', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/514401650_39794</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1619685035667060', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTk2ODUwMzU2NjcwNjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjE5Njg1MDM1NjY3MDYw', 'date': '2025-11-29T20:39:59.000Z', 'text': 'Ay esa es mucha locota se le se le ve que es un zoofílico degenerado come asterisco', 'profileUrl': 'https://www.facebook.com/julian.zuluaga.635722', 'prof</t>
         </is>
       </c>
     </row>
@@ -3898,23 +3914,23 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Estás simplón, osea bien BAJITO de sal 🤭</t>
+          <t>Toca que pague un médico mental con ese presupuesto</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-11-29T03:19:41.000Z</t>
+          <t>2025-11-29T19:14:42.000Z</t>
         </is>
       </c>
       <c r="H60" s="2" t="n">
-        <v>45990.13866898148</v>
+        <v>45990.801875</v>
       </c>
       <c r="I60" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>03:19:41</t>
+          <t>19:14:42</t>
         </is>
       </c>
       <c r="K60" t="n">
@@ -3930,7 +3946,7 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2272121956587605', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNzIxMjE5NTY1ODc2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjcyMTIxOTU2NTg3NjA1', 'date': '2025-11-29T03:19:41.000Z', 'text': 'Estás simplón, osea bien BAJITO de sal 🤭', 'profileUrl': 'https://www.facebook.com/delmides.viloria', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.n</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=905167035720354', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzkwNTE2NzAzNTcyMDM1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV85MDUxNjcwMzU3MjAzNTQ=', 'date': '2025-11-29T19:14:42.000Z', 'text': 'Toca que pague un médico mental con ese presupuesto', 'profileUrl': 'https://www.facebook.com/jose.miguel.garcia.archila', 'profilePicture': 'https://sconte</t>
         </is>
       </c>
     </row>
@@ -3956,27 +3972,27 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Ahora todo el mundo marica</t>
+          <t>😂 aiiiiii.  😂😂TA como raro el regalador</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-11-29T03:19:06.000Z</t>
+          <t>2025-11-29T18:28:07.000Z</t>
         </is>
       </c>
       <c r="H61" s="2" t="n">
-        <v>45990.13826388889</v>
+        <v>45990.76952546297</v>
       </c>
       <c r="I61" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>03:19:06</t>
+          <t>18:28:07</t>
         </is>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -3988,7 +4004,7 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1176087734032460', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNzYwODc3MzQwMzI0NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTc2MDg3NzM0MDMyNDYw', 'date': '2025-11-29T03:19:06.000Z', 'text': 'Ahora todo el mundo marica', 'profileUrl': 'https://www.facebook.com/german.gantiva', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1164505132477363', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNjQ1MDUxMzI0NzczNjM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTY0NTA1MTMyNDc3MzYz', 'date': '2025-11-29T18:28:07.000Z', 'text': '😂 aiiiiii.  😂😂TA como raro el regalador', 'profileUrl': 'https://www.facebook.com/people/Pickupde-Barranquilla/61581212485626/', 'profilePicture': 'https:/</t>
         </is>
       </c>
     </row>
@@ -4014,27 +4030,27 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Bobo</t>
+          <t>EL HABLADITO ROLO ES COMO GAY</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-11-29T03:18:06.000Z</t>
+          <t>2025-11-29T16:54:18.000Z</t>
         </is>
       </c>
       <c r="H62" s="2" t="n">
-        <v>45990.13756944444</v>
+        <v>45990.704375</v>
       </c>
       <c r="I62" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>03:18:06</t>
+          <t>16:54:18</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -4046,7 +4062,7 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1618995549520524', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTg5OTU1NDk1MjA1MjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjE4OTk1NTQ5NTIwNTI0', 'date': '2025-11-29T03:18:06.000Z', 'text': 'Bobo', 'profileUrl': 'https://www.facebook.com/people/Estrella-Sandoval-Pinz%C3%B2n/pfbid02S4wPCSWW2qLffdcxXv2u8GeFWnxFS8ZKfn8n6LWwYWbqCDyBqg5j2LAWFpX2of9j</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1218885416959008', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEyMTg4ODU0MTY5NTkwMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMjE4ODg1NDE2OTU5MDA4', 'date': '2025-11-29T16:54:18.000Z', 'text': 'EL HABLADITO ROLO ES COMO GAY', 'profileUrl': 'https://www.facebook.com/carlito.ortiz.9828', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6</t>
         </is>
       </c>
     </row>
@@ -4072,23 +4088,23 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Roscón</t>
+          <t>No lo dudo</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-11-29T03:17:54.000Z</t>
+          <t>2025-11-29T16:25:00.000Z</t>
         </is>
       </c>
       <c r="H63" s="2" t="n">
-        <v>45990.13743055556</v>
+        <v>45990.68402777778</v>
       </c>
       <c r="I63" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>03:17:54</t>
+          <t>16:25:00</t>
         </is>
       </c>
       <c r="K63" t="n">
@@ -4104,7 +4120,7 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1862285097710571', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE4NjIyODUwOTc3MTA1NzE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xODYyMjg1MDk3NzEwNTcx', 'date': '2025-11-29T03:17:54.000Z', 'text': 'Roscón', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/585335639_25613401654939402_572775291374841411_n.jpg?stp=cp0_dst-jpg_s32x32_</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1586105552835854', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1ODYxMDU1NTI4MzU4NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTg2MTA1NTUyODM1ODU0', 'date': '2025-11-29T16:25:00.000Z', 'text': 'No lo dudo', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/419578339_7065591426894759_4053593229592847946_n.jpg?stp=cp0_dst-jpg_s32</t>
         </is>
       </c>
     </row>
@@ -4129,532 +4145,552 @@
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
+        <is>
+          <t>Rosqueto hp</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2025-11-29T14:45:47.000Z</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>45990.61512731481</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>14:45:47</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1358189359094572', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNTgxODkzNTkwOTQ1NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzU4MTg5MzU5MDk0NTcy', 'date': '2025-11-29T14:45:47.000Z', 'text': 'Rosqueto hp', 'profileUrl': 'https://www.facebook.com/julian.ospina.745394', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/50482802</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Lo primero hablar como un hombre maduro</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2025-11-29T04:14:06.000Z</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>45990.17645833334</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>04:14:06</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>2</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1642913450007446', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2NDI5MTM0NTAwMDc0NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjQyOTEzNDUwMDA3NDQ2', 'date': '2025-11-29T04:14:06.000Z', 'text': 'Lo primero hablar como un hombre maduro', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_278166695076053098</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:57:46.000Z</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>45990.16511574074</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>03:57:46</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1334648197857195', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzMzQ2NDgxOTc4NTcxOTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzM0NjQ4MTk3ODU3MTk1', 'date': '2025-11-29T03:57:46.000Z', 'text': '96', 'profileUrl': 'https://www.facebook.com/nestor.h.roa', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/468182816_102364465080414</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Hay algo más marica que un puto rolo hablando?? No creo!. Esos hptas no son colombianos pena ajena cuando una gonorrea de estas llega con ese tono y hablando de tu y te.. que mierda que vergüenza!!.</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:53:59.000Z</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>45990.16248842593</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>03:53:59</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>3</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1405705607745874', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE0MDU3MDU2MDc3NDU4NzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNDA1NzA1NjA3NzQ1ODc0', 'date': '2025-11-29T03:53:59.000Z', 'text': 'Hay algo más marica que un puto rolo hablando?? No creo!. Esos hptas no son colombianos pena ajena cuando una gonorrea de estas llega con ese tono y hablan</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Es</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:46:23.000Z</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>45990.15721064815</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>03:46:23</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="b">
+        <v>0</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1613261323181733', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTMyNjEzMjMxODE3MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjEzMjYxMzIzMTgxNzMz', 'date': '2025-11-29T03:46:23.000Z', 'text': 'Es', 'profileUrl': 'https://www.facebook.com/maria.gutierrez.564634', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/514401650_39794</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>3</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Estás simplón, osea bien BAJITO de sal 🤭</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:19:41.000Z</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>45990.13866898148</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>03:19:41</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="b">
+        <v>0</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2272121956587605', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNzIxMjE5NTY1ODc2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjcyMTIxOTU2NTg3NjA1', 'date': '2025-11-29T03:19:41.000Z', 'text': 'Estás simplón, osea bien BAJITO de sal 🤭', 'profileUrl': 'https://www.facebook.com/delmides.viloria', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.n</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Ahora todo el mundo marica</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:19:06.000Z</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>45990.13826388889</v>
+      </c>
+      <c r="I70" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>03:19:06</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="b">
+        <v>0</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1176087734032460', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNzYwODc3MzQwMzI0NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTc2MDg3NzM0MDMyNDYw', 'date': '2025-11-29T03:19:06.000Z', 'text': 'Ahora todo el mundo marica', 'profileUrl': 'https://www.facebook.com/german.gantiva', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>3</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Bobo</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:18:06.000Z</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>45990.13756944444</v>
+      </c>
+      <c r="I71" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>03:18:06</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="b">
+        <v>0</v>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1618995549520524', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTg5OTU1NDk1MjA1MjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjE4OTk1NTQ5NTIwNTI0', 'date': '2025-11-29T03:18:06.000Z', 'text': 'Bobo', 'profileUrl': 'https://www.facebook.com/people/Estrella-Sandoval-Pinz%C3%B2n/pfbid02S4wPCSWW2qLffdcxXv2u8GeFWnxFS8ZKfn8n6LWwYWbqCDyBqg5j2LAWFpX2of9j</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Roscón</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:17:54.000Z</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>45990.13743055556</v>
+      </c>
+      <c r="I72" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>03:17:54</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1862285097710571', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE4NjIyODUwOTc3MTA1NzE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xODYyMjg1MDk3NzEwNTcx', 'date': '2025-11-29T03:17:54.000Z', 'text': 'Roscón', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/585335639_25613401654939402_572775291374841411_n.jpg?stp=cp0_dst-jpg_s32x32_</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>3</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
         <is>
           <t>AYYYYY  NOOOO ...
 QUÉ  PLUMERO !! 
 ALPI - LOKOTA !! JAJAJAJA JAJAJAJA</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>2025-11-29T03:17:36.000Z</t>
         </is>
       </c>
-      <c r="H64" s="2" t="n">
+      <c r="H73" s="2" t="n">
         <v>45990.13722222222</v>
-      </c>
-      <c r="I64" s="2" t="n">
-        <v>45990</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>03:17:36</t>
-        </is>
-      </c>
-      <c r="K64" t="n">
-        <v>1</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="b">
-        <v>0</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=857860266777560', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1Nzg2MDI2Njc3NzU2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTc4NjAyNjY3Nzc1NjA=', 'date': '2025-11-29T03:17:36.000Z', 'text': 'AYYYYY  NOOOO ...\nQUÉ  PLUMERO !! \nALPI - LOKOTA !! JAJAJAJA JAJAJAJA', 'profileUrl': 'https://www.facebook.com/luis.a.cruzgarcia.7', 'profilePicture': 'h</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>3</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Ola aml si me gusta un buen regalo</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>2025-11-29T03:14:42.000Z</t>
-        </is>
-      </c>
-      <c r="H65" s="2" t="n">
-        <v>45990.13520833333</v>
-      </c>
-      <c r="I65" s="2" t="n">
-        <v>45990</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>03:14:42</t>
-        </is>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="b">
-        <v>0</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=734734982974790', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzczNDczNDk4Mjk3NDc5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83MzQ3MzQ5ODI5NzQ3OTA=', 'date': '2025-11-29T03:14:42.000Z', 'text': 'Ola aml si me gusta un buen regalo', 'profileUrl': 'https://www.facebook.com/people/Margarita-Saenz/pfbid02BFZeUQrrrFFrn1xo2gsTxc8brbnqm4CDcHYA2FPbsevmUNqKA</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>3</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Lo siento alpina, te cagaste el único cliente fiel, no te voy a comprar ni mierda, que asco de comercial, que cringe tan bastardo.</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>2025-11-29T03:14:04.000Z</t>
-        </is>
-      </c>
-      <c r="H66" s="2" t="n">
-        <v>45990.13476851852</v>
-      </c>
-      <c r="I66" s="2" t="n">
-        <v>45990</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>03:14:04</t>
-        </is>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="b">
-        <v>0</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=807206678966890', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzgwNzIwNjY3ODk2Njg5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84MDcyMDY2Nzg5NjY4OTA=', 'date': '2025-11-29T03:14:04.000Z', 'text': 'Lo siento alpina, te cagaste el único cliente fiel, no te voy a comprar ni mierda, que asco de comercial, que cringe tan bastardo.', 'profileUrl': 'https://</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>3</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Un carrito</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>2025-11-26T20:43:27.000Z</t>
-        </is>
-      </c>
-      <c r="H67" s="2" t="n">
-        <v>45987.86350694444</v>
-      </c>
-      <c r="I67" s="2" t="n">
-        <v>45987</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>20:43:27</t>
-        </is>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="b">
-        <v>0</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=858851063279247', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1ODg1MTA2MzI3OTI0Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTg4NTEwNjMyNzkyNDc=', 'date': '2025-11-26T20:43:27.000Z', 'text': 'Un carrito', 'profileUrl': 'https://www.facebook.com/carlos.rubiano.902', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/480278336_92</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>3</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>💩💩💩</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>2025-11-26T20:14:59.000Z</t>
-        </is>
-      </c>
-      <c r="H68" s="2" t="n">
-        <v>45987.84373842592</v>
-      </c>
-      <c r="I68" s="2" t="n">
-        <v>45987</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>20:14:59</t>
-        </is>
-      </c>
-      <c r="K68" t="n">
-        <v>1</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="b">
-        <v>0</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2021330785291238', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIwMjEzMzA3ODUyOTEyMzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMDIxMzMwNzg1MjkxMjM4', 'date': '2025-11-26T20:14:59.000Z', 'text': '💩💩💩', 'profileUrl': 'https://www.facebook.com/people/Jey-Jey-Hernandez-Altamar-Hernandez/pfbid09nP3MZ4p9rUPffsNuCTqA2GBvfx1o2KAnyxCAJWZ5JVuBECAw8WVakzvvb7h</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>3</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>copion de juanda</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>2025-11-26T18:49:42.000Z</t>
-        </is>
-      </c>
-      <c r="H69" s="2" t="n">
-        <v>45987.78451388889</v>
-      </c>
-      <c r="I69" s="2" t="n">
-        <v>45987</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>18:49:42</t>
-        </is>
-      </c>
-      <c r="K69" t="n">
-        <v>2</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="b">
-        <v>0</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=769578852207896', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzc2OTU3ODg1MjIwNzg5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83Njk1Nzg4NTIyMDc4OTY=', 'date': '2025-11-26T18:49:42.000Z', 'text': 'copion de juanda', 'profileUrl': 'https://www.facebook.com/keyner.lopez.279235', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/59552</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>4</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DRhzGMQAHxW/</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DRhzGMQAHxW/</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="b">
-        <v>0</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>5</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DRhzGbbAL3a/</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DRhzGbbAL3a/</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="b">
-        <v>0</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>6</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>miller.alexander.14</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>💅😂</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>2025-11-29T03:20:33.000Z</t>
-        </is>
-      </c>
-      <c r="H72" s="2" t="n">
-        <v>45990.13927083334</v>
-      </c>
-      <c r="I72" s="2" t="n">
-        <v>45990</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>03:20:33</t>
-        </is>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="b">
-        <v>0</v>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>https://instagram.com/miller.alexander.14</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/', 'commentUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/c/18092140192919543', 'id': '18092140192919543', 'text': '💅😂', 'ownerUsername': 'miller.alexander.14', 'ownerProfilePicUrl': 'https://scontent-lga3-2.cdninstagram.com/v/t51.2885-19/462067248_1698949100924610_2137652019427527338_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ig_cache_key=GDCWihvC7qZpLwkGAKrKX5cvd6odbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InB</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>6</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>montoalvaro</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Jajaja bueno</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>2025-11-29T03:14:35.000Z</t>
-        </is>
-      </c>
-      <c r="H73" s="2" t="n">
-        <v>45990.13512731482</v>
       </c>
       <c r="I73" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>03:14:35</t>
+          <t>03:17:36</t>
         </is>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -4662,13 +4698,515 @@
       <c r="M73" t="b">
         <v>0</v>
       </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>https://instagram.com/montoalvaro</t>
-        </is>
-      </c>
+      <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=857860266777560', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1Nzg2MDI2Njc3NzU2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTc4NjAyNjY3Nzc1NjA=', 'date': '2025-11-29T03:17:36.000Z', 'text': 'AYYYYY  NOOOO ...\nQUÉ  PLUMERO !! \nALPI - LOKOTA !! JAJAJAJA JAJAJAJA', 'profileUrl': 'https://www.facebook.com/luis.a.cruzgarcia.7', 'profilePicture': 'h</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Ola aml si me gusta un buen regalo</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:14:42.000Z</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>45990.13520833333</v>
+      </c>
+      <c r="I74" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>03:14:42</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=734734982974790', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzczNDczNDk4Mjk3NDc5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83MzQ3MzQ5ODI5NzQ3OTA=', 'date': '2025-11-29T03:14:42.000Z', 'text': 'Ola aml si me gusta un buen regalo', 'profileUrl': 'https://www.facebook.com/people/Margarita-Saenz/pfbid02BFZeUQrrrFFrn1xo2gsTxc8brbnqm4CDcHYA2FPbsevmUNqKA</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Lo siento alpina, te cagaste el único cliente fiel, no te voy a comprar ni mierda, que asco de comercial, que cringe tan bastardo.</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:14:04.000Z</t>
+        </is>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>45990.13476851852</v>
+      </c>
+      <c r="I75" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>03:14:04</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="b">
+        <v>0</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=807206678966890', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzgwNzIwNjY3ODk2Njg5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84MDcyMDY2Nzg5NjY4OTA=', 'date': '2025-11-29T03:14:04.000Z', 'text': 'Lo siento alpina, te cagaste el único cliente fiel, no te voy a comprar ni mierda, que asco de comercial, que cringe tan bastardo.', 'profileUrl': 'https://</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Un carrito</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2025-11-26T20:43:27.000Z</t>
+        </is>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>45987.86350694444</v>
+      </c>
+      <c r="I76" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>20:43:27</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="b">
+        <v>0</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=858851063279247', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1ODg1MTA2MzI3OTI0Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTg4NTEwNjMyNzkyNDc=', 'date': '2025-11-26T20:43:27.000Z', 'text': 'Un carrito', 'profileUrl': 'https://www.facebook.com/carlos.rubiano.902', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/480278336_92</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>💩💩💩</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2025-11-26T20:14:59.000Z</t>
+        </is>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>45987.84373842592</v>
+      </c>
+      <c r="I77" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>20:14:59</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2021330785291238', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIwMjEzMzA3ODUyOTEyMzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMDIxMzMwNzg1MjkxMjM4', 'date': '2025-11-26T20:14:59.000Z', 'text': '💩💩💩', 'profileUrl': 'https://www.facebook.com/people/Jey-Jey-Hernandez-Altamar-Hernandez/pfbid09nP3MZ4p9rUPffsNuCTqA2GBvfx1o2KAnyxCAJWZ5JVuBECAw8WVakzvvb7h</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>3</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>copion de juanda</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2025-11-26T18:49:42.000Z</t>
+        </is>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>45987.78451388889</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>18:49:42</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>2</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=769578852207896', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzc2OTU3ODg1MjIwNzg5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83Njk1Nzg4NTIyMDc4OTY=', 'date': '2025-11-26T18:49:42.000Z', 'text': 'copion de juanda', 'profileUrl': 'https://www.facebook.com/keyner.lopez.279235', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/59552</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>4</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRhzGMQAHxW/</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRhzGMQAHxW/</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="b">
+        <v>0</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRhzGbbAL3a/</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRhzGbbAL3a/</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="b">
+        <v>0</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>6</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>miller.alexander.14</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>💅😂</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:20:33.000Z</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>45990.13927083334</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>03:20:33</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="b">
+        <v>0</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>https://instagram.com/miller.alexander.14</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/', 'commentUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/c/18092140192919543', 'id': '18092140192919543', 'text': '💅😂', 'ownerUsername': 'miller.alexander.14', 'ownerProfilePicUrl': 'https://scontent-lga3-2.cdninstagram.com/v/t51.2885-19/462067248_1698949100924610_2137652019427527338_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ig_cache_key=GDCWihvC7qZpLwkGAKrKX5cvd6odbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InB</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>6</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>montoalvaro</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Jajaja bueno</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:14:35.000Z</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>45990.13512731482</v>
+      </c>
+      <c r="I82" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>03:14:35</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="b">
+        <v>0</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>https://instagram.com/montoalvaro</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/', 'commentUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/c/17930638134113541', 'id': '17930638134113541', 'text': 'Jajaja bueno', 'ownerUsername': 'montoalvaro', 'ownerProfilePicUrl': 'https://scontent-lga3-2.cdninstagram.com/v/t51.2885-19/456680338_390372430461018_1122493075785399601_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ig_cache_key=GJJjOBtaOAyqCmMBADE9BlWB5ZMPbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6In</t>
         </is>
@@ -4745,7 +5283,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
@@ -4754,7 +5292,7 @@
         <v>45990.13659722222</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>46006.02078703704</v>
+        <v>46010.35548611111</v>
       </c>
     </row>
     <row r="3">
@@ -4795,7 +5333,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E4" t="n">
         <v>12</v>
@@ -4804,7 +5342,7 @@
         <v>45987.78451388889</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>46008.45347222222</v>
+        <v>46014.67934027778</v>
       </c>
     </row>
     <row r="5">
@@ -4936,10 +5474,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="E2" t="n">
         <v>18</v>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,7 +559,7 @@
       <c r="H2" s="2" t="n">
         <v>46010.35548611111</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="2" t="n">
         <v>46010</v>
       </c>
       <c r="J2" t="inlineStr">
@@ -567,10 +567,8 @@
           <t>08:31:54</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K2" t="n">
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -1694,23 +1692,23 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>A mi perro no le gustó🤣</t>
+          <t>Habla como una marica entapiñada</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-12-23T16:18:15.000Z</t>
+          <t>2025-12-24T18:16:15.000Z</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>46014.67934027778</v>
+        <v>46015.76128472222</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>16:18:15</t>
+          <t>18:16:15</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1728,7 +1726,7 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=4384384181890749', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzQzODQzODQxODE4OTA3NDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV80Mzg0Mzg0MTgxODkwNzQ5', 'date': '2025-12-23T16:18:15.000Z', 'text': 'A mi perro no le gustó🤣', 'profileUrl': 'https://www.facebook.com/dianacarolina.pinta', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=873466911829569', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3MzQ2NjkxMTgyOTU2OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzM0NjY5MTE4Mjk1Njk=', 'date': '2025-12-24T18:16:15.000Z', 'text': 'Habla como una marica entapiñada', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/461055036_7718315968268206_6880003944288712647_n.jp</t>
         </is>
       </c>
     </row>
@@ -1754,23 +1752,23 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ujuuu pangaaa</t>
+          <t>Bljñlolkñfe  ñ</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-12-22T16:46:18.000Z</t>
+          <t>2025-12-24T18:07:12.000Z</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>46013.69881944444</v>
+        <v>46015.755</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>46013</v>
+        <v>46015</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>16:46:18</t>
+          <t>18:07:12</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1788,7 +1786,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=794702060254489', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzc5NDcwMjA2MDI1NDQ4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83OTQ3MDIwNjAyNTQ0ODk=', 'date': '2025-12-22T16:46:18.000Z', 'text': 'Ujuuu pangaaa', 'profileUrl': 'https://www.facebook.com/brayan.ortiz.778676', 'profilePicture': 'https://scontent-lax7-1.xx.fbcdn.net/v/t39.30808-1/48123466</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=767240309274712', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzc2NzI0MDMwOTI3NDcxMg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83NjcyNDAzMDkyNzQ3MTI=', 'date': '2025-12-24T18:07:12.000Z', 'text': 'Bljñlolkñfe  ñ', 'profileUrl': 'https://www.facebook.com/alexisalberto.anayaarrieta', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/</t>
         </is>
       </c>
     </row>
@@ -1814,29 +1812,27 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Hay fuga retenedores y empaques</t>
+          <t>A mi perro no le gustó🤣</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-12-21T23:56:53.000Z</t>
+          <t>2025-12-23T16:18:15.000Z</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>46012.99783564815</v>
-      </c>
-      <c r="I24" s="3" t="n">
-        <v>46012</v>
+        <v>46014.67934027778</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>46014</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23:56:53</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>16:18:15</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -1848,7 +1844,7 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1174489044396774', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNzQ0ODkwNDQzOTY3NzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTc0NDg5MDQ0Mzk2Nzc0', 'date': '2025-12-21T23:56:53.000Z', 'text': 'Hay fuga retenedores y empaques', 'profileUrl': 'https://www.facebook.com/michael.moreno.153235', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=4384384181890749', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzQzODQzODQxODE4OTA3NDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV80Mzg0Mzg0MTgxODkwNzQ5', 'date': '2025-12-23T16:18:15.000Z', 'text': 'A mi perro no le gustó🤣', 'profileUrl': 'https://www.facebook.com/dianacarolina.pinta', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808</t>
         </is>
       </c>
     </row>
@@ -1874,29 +1870,27 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>La próxima que hagas otro vídeo te pones una falda y tacones</t>
+          <t>Ujuuu pangaaa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-12-21T22:40:46.000Z</t>
+          <t>2025-12-22T16:46:18.000Z</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>46012.94497685185</v>
-      </c>
-      <c r="I25" s="3" t="n">
-        <v>46012</v>
+        <v>46013.69881944444</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>46013</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>22:40:46</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>16:46:18</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1908,7 +1902,7 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=746481101815979', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzc0NjQ4MTEwMTgxNTk3OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83NDY0ODExMDE4MTU5Nzk=', 'date': '2025-12-21T22:40:46.000Z', 'text': 'La próxima que hagas otro vídeo te pones una falda y tacones', 'profileUrl': 'https://www.facebook.com/julian.d.ordonez.3', 'profilePicture': 'https://scont</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=794702060254489', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzc5NDcwMjA2MDI1NDQ4OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83OTQ3MDIwNjAyNTQ0ODk=', 'date': '2025-12-22T16:46:18.000Z', 'text': 'Ujuuu pangaaa', 'profileUrl': 'https://www.facebook.com/brayan.ortiz.778676', 'profilePicture': 'https://scontent-lax7-1.xx.fbcdn.net/v/t39.30808-1/48123466</t>
         </is>
       </c>
     </row>
@@ -1934,29 +1928,27 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Cule caga</t>
+          <t>Hay fuga retenedores y empaques</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-12-21T20:22:39.000Z</t>
+          <t>2025-12-21T23:56:53.000Z</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>46012.8490625</v>
-      </c>
-      <c r="I26" s="3" t="n">
+        <v>46012.99783564815</v>
+      </c>
+      <c r="I26" s="2" t="n">
         <v>46012</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>20:22:39</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>23:56:53</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1968,7 +1960,7 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1852339398741619', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE4NTIzMzkzOTg3NDE2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xODUyMzM5Mzk4NzQxNjE5', 'date': '2025-12-21T20:22:39.000Z', 'text': 'Cule caga', 'profileUrl': 'https://www.facebook.com/people/Danilo-Arrieta/pfbid02bzNdbJ5itCTfEK62YyVt3E2BMaNxaGSxuyQiuoNsNLbk5T35XHJJNh8XUs7LucFNl/', 'prof</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1174489044396774', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNzQ0ODkwNDQzOTY3NzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTc0NDg5MDQ0Mzk2Nzc0', 'date': '2025-12-21T23:56:53.000Z', 'text': 'Hay fuga retenedores y empaques', 'profileUrl': 'https://www.facebook.com/michael.moreno.153235', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v</t>
         </is>
       </c>
     </row>
@@ -1994,29 +1986,27 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Jhgssssaa</t>
+          <t>La próxima que hagas otro vídeo te pones una falda y tacones</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-12-20T18:04:42.000Z</t>
+          <t>2025-12-21T22:40:46.000Z</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>46011.75326388889</v>
-      </c>
-      <c r="I27" s="3" t="n">
-        <v>46011</v>
+        <v>46012.94497685185</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>46012</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>18:04:42</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>22:40:46</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2028,7 +2018,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1563566591440672', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NjM1NjY1OTE0NDA2NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTYzNTY2NTkxNDQwNjcy', 'date': '2025-12-20T18:04:42.000Z', 'text': 'Jhgssssaa', 'profileUrl': 'https://www.facebook.com/people/Luis-Garcia/pfbid0Ge2Fyha3Tmo4a9hpCDxpZJU6X3P1w6DXKX5nseFvYJFgE7zj2WgzM5cX2di2GHRPl/', 'profileP</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=746481101815979', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzc0NjQ4MTEwMTgxNTk3OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83NDY0ODExMDE4MTU5Nzk=', 'date': '2025-12-21T22:40:46.000Z', 'text': 'La próxima que hagas otro vídeo te pones una falda y tacones', 'profileUrl': 'https://www.facebook.com/julian.d.ordonez.3', 'profilePicture': 'https://scont</t>
         </is>
       </c>
     </row>
@@ -2054,29 +2044,27 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mi Pregunta Es Todavía celebran la navidad ????</t>
+          <t>Cule caga</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-12-18T04:02:59.000Z</t>
+          <t>2025-12-21T20:22:39.000Z</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>46009.16873842593</v>
-      </c>
-      <c r="I28" s="3" t="n">
-        <v>46009</v>
+        <v>46012.8490625</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>46012</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>04:02:59</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>20:22:39</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2088,7 +2076,7 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1417515729989362', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE0MTc1MTU3Mjk5ODkzNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNDE3NTE1NzI5OTg5MzYy', 'date': '2025-12-18T04:02:59.000Z', 'text': 'Mi Pregunta Es Todavía celebran la navidad ????', 'profileUrl': 'https://www.facebook.com/people/Richard-R%C3%ADos-Mateus/pfbid02yKwdXvjoAjFP4GXduDJQHLiS2n</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1852339398741619', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE4NTIzMzkzOTg3NDE2MTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xODUyMzM5Mzk4NzQxNjE5', 'date': '2025-12-21T20:22:39.000Z', 'text': 'Cule caga', 'profileUrl': 'https://www.facebook.com/people/Danilo-Arrieta/pfbid02bzNdbJ5itCTfEK62YyVt3E2BMaNxaGSxuyQiuoNsNLbk5T35XHJJNh8XUs7LucFNl/', 'prof</t>
         </is>
       </c>
     </row>
@@ -2114,29 +2102,27 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Jhgssssaa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-12-18T00:15:45.000Z</t>
+          <t>2025-12-20T18:04:42.000Z</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>46009.0109375</v>
-      </c>
-      <c r="I29" s="3" t="n">
-        <v>46009</v>
+        <v>46011.75326388889</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>46011</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>00:15:45</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>18:04:42</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2148,7 +2134,7 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2070081767139708', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIwNzAwODE3NjcxMzk3MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMDcwMDgxNzY3MTM5NzA4', 'date': '2025-12-18T00:15:45.000Z', 'text': 'F', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/485354171_3955182458034286_6846365074691149130_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1563566591440672', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NjM1NjY1OTE0NDA2NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTYzNTY2NTkxNDQwNjcy', 'date': '2025-12-20T18:04:42.000Z', 'text': 'Jhgssssaa', 'profileUrl': 'https://www.facebook.com/people/Luis-Garcia/pfbid0Ge2Fyha3Tmo4a9hpCDxpZJU6X3P1w6DXKX5nseFvYJFgE7zj2WgzM5cX2di2GHRPl/', 'profileP</t>
         </is>
       </c>
     </row>
@@ -2174,23 +2160,23 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Me encanta  precioso</t>
+          <t>Mi Pregunta Es Todavía celebran la navidad ????</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-12-17T10:53:00.000Z</t>
+          <t>2025-12-18T04:02:59.000Z</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>46008.45347222222</v>
+        <v>46009.16873842593</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>10:53:00</t>
+          <t>04:02:59</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -2206,7 +2192,7 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1540506240544854', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NDA1MDYyNDA1NDQ4NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTQwNTA2MjQwNTQ0ODU0', 'date': '2025-12-17T10:53:00.000Z', 'text': 'Me encanta  precioso', 'profileUrl': 'https://www.facebook.com/mariaeugenia.arangoholguin', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.3</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1417515729989362', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE0MTc1MTU3Mjk5ODkzNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNDE3NTE1NzI5OTg5MzYy', 'date': '2025-12-18T04:02:59.000Z', 'text': 'Mi Pregunta Es Todavía celebran la navidad ????', 'profileUrl': 'https://www.facebook.com/people/Richard-R%C3%ADos-Mateus/pfbid02yKwdXvjoAjFP4GXduDJQHLiS2n</t>
         </is>
       </c>
     </row>
@@ -2232,23 +2218,23 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-12-17T00:52:57.000Z</t>
+          <t>2025-12-18T00:15:45.000Z</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>46008.03677083334</v>
+        <v>46009.0109375</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>00:52:57</t>
+          <t>00:15:45</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -2264,7 +2250,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=817400901124258', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzgxNzQwMDkwMTEyNDI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84MTc0MDA5MDExMjQyNTg=', 'date': '2025-12-17T00:52:57.000Z', 'text': '⁹', 'profileUrl': 'https://www.facebook.com/isa.hoyos.35', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.6435-1/156539205_2972468196324183_46</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2070081767139708', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIwNzAwODE3NjcxMzk3MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMDcwMDgxNzY3MTM5NzA4', 'date': '2025-12-18T00:15:45.000Z', 'text': 'F', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/485354171_3955182458034286_6846365074691149130_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_</t>
         </is>
       </c>
     </row>
@@ -2290,23 +2276,23 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Se embobo</t>
+          <t>Me encanta  precioso</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-12-15T11:02:35.000Z</t>
+          <t>2025-12-17T10:53:00.000Z</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>46006.46012731481</v>
+        <v>46008.45347222222</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>46006</v>
+        <v>46008</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>11:02:35</t>
+          <t>10:53:00</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -2322,7 +2308,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=25581637008139921', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzI1NTgxNjM3MDA4MTM5OTIx', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yNTU4MTYzNzAwODEzOTkyMQ==', 'date': '2025-12-15T11:02:35.000Z', 'text': 'Se embobo', 'profileUrl': 'https://www.facebook.com/rubiela.cardona.804330', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/518</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1540506240544854', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NDA1MDYyNDA1NDQ4NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTQwNTA2MjQwNTQ0ODU0', 'date': '2025-12-17T10:53:00.000Z', 'text': 'Me encanta  precioso', 'profileUrl': 'https://www.facebook.com/mariaeugenia.arangoholguin', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.3</t>
         </is>
       </c>
     </row>
@@ -2348,23 +2334,23 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>propaganda ridícula</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-12-14T06:17:15.000Z</t>
+          <t>2025-12-17T00:52:57.000Z</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>46005.26197916667</v>
+        <v>46008.03677083334</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>46005</v>
+        <v>46008</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>06:17:15</t>
+          <t>00:52:57</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -2380,7 +2366,7 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=894678003078253', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg5NDY3ODAwMzA3ODI1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84OTQ2NzgwMDMwNzgyNTM=', 'date': '2025-12-14T06:17:15.000Z', 'text': 'propaganda ridícula', 'profileUrl': 'https://www.facebook.com/Dugalvis', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/218443267_146</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=817400901124258', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzgxNzQwMDkwMTEyNDI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84MTc0MDA5MDExMjQyNTg=', 'date': '2025-12-17T00:52:57.000Z', 'text': '⁹', 'profileUrl': 'https://www.facebook.com/isa.hoyos.35', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.6435-1/156539205_2972468196324183_46</t>
         </is>
       </c>
     </row>
@@ -2406,23 +2392,23 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>A ti hay que regalarte una volqueta de sal mijo 😂</t>
+          <t>Se embobo</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-12-13T02:15:21.000Z</t>
+          <t>2025-12-15T11:02:35.000Z</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>46004.09399305555</v>
+        <v>46006.46012731481</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>46004</v>
+        <v>46006</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>02:15:21</t>
+          <t>11:02:35</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -2438,7 +2424,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=860909053063312', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg2MDkwOTA1MzA2MzMxMg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NjA5MDkwNTMwNjMzMTI=', 'date': '2025-12-13T02:15:21.000Z', 'text': 'A ti hay que regalarte una volqueta de sal mijo 😂', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.6435-1/149913918_3787793547982065_622463339</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=25581637008139921', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzI1NTgxNjM3MDA4MTM5OTIx', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yNTU4MTYzNzAwODEzOTkyMQ==', 'date': '2025-12-15T11:02:35.000Z', 'text': 'Se embobo', 'profileUrl': 'https://www.facebook.com/rubiela.cardona.804330', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/518</t>
         </is>
       </c>
     </row>
@@ -2464,23 +2450,23 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Deles nalga</t>
+          <t>propaganda ridícula</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-12-12T04:57:00.000Z</t>
+          <t>2025-12-14T06:17:15.000Z</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>46003.20625</v>
+        <v>46005.26197916667</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>46003</v>
+        <v>46005</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>04:57:00</t>
+          <t>06:17:15</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -2496,7 +2482,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2094858337925209', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIwOTQ4NTgzMzc5MjUyMDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMDk0ODU4MzM3OTI1MjA5', 'date': '2025-12-12T04:57:00.000Z', 'text': 'Deles nalga', 'profileUrl': 'https://www.facebook.com/people/C%C3%A9sar-Delgado/pfbid0vAaPnzKZ9jnTB8SgpvEWp9p1e9zeGzxPs76Bw67h6ci4aFqAwXPLBmS2DV315qC9l/', </t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=894678003078253', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg5NDY3ODAwMzA3ODI1Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84OTQ2NzgwMDMwNzgyNTM=', 'date': '2025-12-14T06:17:15.000Z', 'text': 'propaganda ridícula', 'profileUrl': 'https://www.facebook.com/Dugalvis', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t39.30808-1/218443267_146</t>
         </is>
       </c>
     </row>
@@ -2522,23 +2508,23 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tiene la voz de camilo cifu3ntes</t>
+          <t>A ti hay que regalarte una volqueta de sal mijo 😂</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-12-11T10:32:14.000Z</t>
+          <t>2025-12-13T02:15:21.000Z</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>46002.43905092592</v>
+        <v>46004.09399305555</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>46002</v>
+        <v>46004</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>10:32:14</t>
+          <t>02:15:21</t>
         </is>
       </c>
       <c r="K36" t="n">
@@ -2554,7 +2540,7 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=796038283473893', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzc5NjAzODI4MzQ3Mzg5Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83OTYwMzgyODM0NzM4OTM=', 'date': '2025-12-11T10:32:14.000Z', 'text': 'Tiene la voz de camilo cifu3ntes', 'profileUrl': 'https://www.facebook.com/luz.helena.ossa.castano', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=860909053063312', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg2MDkwOTA1MzA2MzMxMg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NjA5MDkwNTMwNjMzMTI=', 'date': '2025-12-13T02:15:21.000Z', 'text': 'A ti hay que regalarte una volqueta de sal mijo 😂', 'profilePicture': 'https://scontent-det1-1.xx.fbcdn.net/v/t1.6435-1/149913918_3787793547982065_622463339</t>
         </is>
       </c>
     </row>
@@ -2580,23 +2566,23 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ladrillera</t>
+          <t>Deles nalga</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-12-09T11:34:26.000Z</t>
+          <t>2025-12-12T04:57:00.000Z</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>46000.48224537037</v>
+        <v>46003.20625</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>46000</v>
+        <v>46003</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>11:34:26</t>
+          <t>04:57:00</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -2612,7 +2598,7 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1504070450848946', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1MDQwNzA0NTA4NDg5NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTA0MDcwNDUwODQ4OTQ2', 'date': '2025-12-09T11:34:26.000Z', 'text': 'Ladrillera', 'profileUrl': 'https://www.facebook.com/people/Rosario-D%C3%ADaz-Avila/pfbid02jyk8zyuequtF4aMuSrKzTrdZsXrWqjA3qvfjHEd7CpZsZkvkhVSq7dyPPXh9D3Gr</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2094858337925209', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIwOTQ4NTgzMzc5MjUyMDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMDk0ODU4MzM3OTI1MjA5', 'date': '2025-12-12T04:57:00.000Z', 'text': 'Deles nalga', 'profileUrl': 'https://www.facebook.com/people/C%C3%A9sar-Delgado/pfbid0vAaPnzKZ9jnTB8SgpvEWp9p1e9zeGzxPs76Bw67h6ci4aFqAwXPLBmS2DV315qC9l/', </t>
         </is>
       </c>
     </row>
@@ -2638,23 +2624,23 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Hablé bien bobo hijueputa parece un maricon</t>
+          <t>Tiene la voz de camilo cifu3ntes</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-12-08T04:36:06.000Z</t>
+          <t>2025-12-11T10:32:14.000Z</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45999.19173611111</v>
+        <v>46002.43905092592</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45999</v>
+        <v>46002</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>04:36:06</t>
+          <t>10:32:14</t>
         </is>
       </c>
       <c r="K38" t="n">
@@ -2670,7 +2656,7 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1558506205484017', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NTg1MDYyMDU0ODQwMTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTU4NTA2MjA1NDg0MDE3', 'date': '2025-12-08T04:36:06.000Z', 'text': 'Hablé bien bobo hijueputa parece un maricon', 'profileUrl': 'https://www.facebook.com/people/Giovani-Casta%C3%B1eda/pfbid0288VbDd9dTCKqcwthRkKrTMN8NcKTrNFC</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=796038283473893', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzc5NjAzODI4MzQ3Mzg5Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83OTYwMzgyODM0NzM4OTM=', 'date': '2025-12-11T10:32:14.000Z', 'text': 'Tiene la voz de camilo cifu3ntes', 'profileUrl': 'https://www.facebook.com/luz.helena.ossa.castano', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net</t>
         </is>
       </c>
     </row>
@@ -2696,23 +2682,23 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ya me imagino 😸 como olera la casa con esa manada de chuchos</t>
+          <t>Ladrillera</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-12-07T22:45:35.000Z</t>
+          <t>2025-12-09T11:34:26.000Z</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>45998.94832175926</v>
+        <v>46000.48224537037</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>22:45:35</t>
+          <t>11:34:26</t>
         </is>
       </c>
       <c r="K39" t="n">
@@ -2728,7 +2714,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1557308165421326', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NTczMDgxNjU0MjEzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTU3MzA4MTY1NDIxMzI2', 'date': '2025-12-07T22:45:35.000Z', 'text': 'Ya me imagino 😸 como olera la casa con esa manada de chuchos', 'profileUrl': 'https://www.facebook.com/luiscarlos.chavarro.7', 'profilePicture': 'https://s</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1504070450848946', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1MDQwNzA0NTA4NDg5NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTA0MDcwNDUwODQ4OTQ2', 'date': '2025-12-09T11:34:26.000Z', 'text': 'Ladrillera', 'profileUrl': 'https://www.facebook.com/people/Rosario-D%C3%ADaz-Avila/pfbid02jyk8zyuequtF4aMuSrKzTrdZsXrWqjA3qvfjHEd7CpZsZkvkhVSq7dyPPXh9D3Gr</t>
         </is>
       </c>
     </row>
@@ -2754,23 +2740,23 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Jeanpierre Vargas moni</t>
+          <t>Hablé bien bobo hijueputa parece un maricon</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-12-07T15:19:03.000Z</t>
+          <t>2025-12-08T04:36:06.000Z</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>45998.63822916667</v>
+        <v>45999.19173611111</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45998</v>
+        <v>45999</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>15:19:03</t>
+          <t>04:36:06</t>
         </is>
       </c>
       <c r="K40" t="n">
@@ -2786,7 +2772,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=876709925013424', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3NjcwOTkyNTAxMzQyNA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzY3MDk5MjUwMTM0MjQ=', 'date': '2025-12-07T15:19:03.000Z', 'text': 'Jeanpierre Vargas moni', 'profileUrl': 'https://www.facebook.com/harold.marrero.73', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/4</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1558506205484017', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NTg1MDYyMDU0ODQwMTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTU4NTA2MjA1NDg0MDE3', 'date': '2025-12-08T04:36:06.000Z', 'text': 'Hablé bien bobo hijueputa parece un maricon', 'profileUrl': 'https://www.facebook.com/people/Giovani-Casta%C3%B1eda/pfbid0288VbDd9dTCKqcwthRkKrTMN8NcKTrNFC</t>
         </is>
       </c>
     </row>
@@ -2812,23 +2798,23 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bellezassss</t>
+          <t>Ya me imagino 😸 como olera la casa con esa manada de chuchos</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-12-07T13:08:32.000Z</t>
+          <t>2025-12-07T22:45:35.000Z</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>45998.54759259259</v>
+        <v>45998.94832175926</v>
       </c>
       <c r="I41" s="2" t="n">
         <v>45998</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>13:08:32</t>
+          <t>22:45:35</t>
         </is>
       </c>
       <c r="K41" t="n">
@@ -2844,7 +2830,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1365612581637413', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNjU2MTI1ODE2Mzc0MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzY1NjEyNTgxNjM3NDEz', 'date': '2025-12-07T13:08:32.000Z', 'text': 'Bellezassss', 'profileUrl': 'https://www.facebook.com/amanda.alvarez.9210256', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t1.6435-1/97005185</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1557308165421326', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1NTczMDgxNjU0MjEzMjY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTU3MzA4MTY1NDIxMzI2', 'date': '2025-12-07T22:45:35.000Z', 'text': 'Ya me imagino 😸 como olera la casa con esa manada de chuchos', 'profileUrl': 'https://www.facebook.com/luiscarlos.chavarro.7', 'profilePicture': 'https://s</t>
         </is>
       </c>
     </row>
@@ -2870,23 +2856,23 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>❤️</t>
+          <t>Jeanpierre Vargas moni</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-12-06T20:56:09.000Z</t>
+          <t>2025-12-07T15:19:03.000Z</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>45997.87232638889</v>
+        <v>45998.63822916667</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45997</v>
+        <v>45998</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>20:56:09</t>
+          <t>15:19:03</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -2902,7 +2888,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=697870086460716', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzY5Nzg3MDA4NjQ2MDcxNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV82OTc4NzAwODY0NjA3MTY=', 'date': '2025-12-06T20:56:09.000Z', 'text': '❤️', 'profileUrl': 'https://www.facebook.com/luz.ordones.393731', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/438205569_1221402985</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=876709925013424', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3NjcwOTkyNTAxMzQyNA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzY3MDk5MjUwMTM0MjQ=', 'date': '2025-12-07T15:19:03.000Z', 'text': 'Jeanpierre Vargas moni', 'profileUrl': 'https://www.facebook.com/harold.marrero.73', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/4</t>
         </is>
       </c>
     </row>
@@ -2928,23 +2914,23 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Juanda es juanda mijo usted vale verga</t>
+          <t>Bellezassss</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-12-06T10:21:02.000Z</t>
+          <t>2025-12-07T13:08:32.000Z</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>45997.43127314815</v>
+        <v>45998.54759259259</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>45997</v>
+        <v>45998</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>10:21:02</t>
+          <t>13:08:32</t>
         </is>
       </c>
       <c r="K43" t="n">
@@ -2960,7 +2946,7 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1153022776944307', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNTMwMjI3NzY5NDQzMDc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTUzMDIyNzc2OTQ0MzA3', 'date': '2025-12-06T10:21:02.000Z', 'text': 'Juanda es juanda mijo usted vale verga', 'profileUrl': 'https://www.facebook.com/sebastian.sanchez.860527', 'profilePicture': 'https://scontent.fpia1-1.fna</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1365612581637413', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNjU2MTI1ODE2Mzc0MTM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzY1NjEyNTgxNjM3NDEz', 'date': '2025-12-07T13:08:32.000Z', 'text': 'Bellezassss', 'profileUrl': 'https://www.facebook.com/amanda.alvarez.9210256', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t1.6435-1/97005185</t>
         </is>
       </c>
     </row>
@@ -2986,23 +2972,23 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Y de paso un marica</t>
+          <t>❤️</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-12-05T12:14:46.000Z</t>
+          <t>2025-12-06T20:56:09.000Z</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
-        <v>45996.51025462963</v>
+        <v>45997.87232638889</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>12:14:46</t>
+          <t>20:56:09</t>
         </is>
       </c>
       <c r="K44" t="n">
@@ -3018,7 +3004,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1123941459814167', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExMjM5NDE0NTk4MTQxNjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTIzOTQxNDU5ODE0MTY3', 'date': '2025-12-05T12:14:46.000Z', 'text': 'Y de paso un marica', 'profileUrl': 'https://www.facebook.com/oswaldo.alvarez.9406', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/67</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=697870086460716', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzY5Nzg3MDA4NjQ2MDcxNg==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV82OTc4NzAwODY0NjA3MTY=', 'date': '2025-12-06T20:56:09.000Z', 'text': '❤️', 'profileUrl': 'https://www.facebook.com/luz.ordones.393731', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/438205569_1221402985</t>
         </is>
       </c>
     </row>
@@ -3044,23 +3030,23 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Se van a volver maricas los perros</t>
+          <t>Juanda es juanda mijo usted vale verga</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-12-05T06:52:51.000Z</t>
+          <t>2025-12-06T10:21:02.000Z</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
-        <v>45996.28670138889</v>
+        <v>45997.43127314815</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>06:52:51</t>
+          <t>10:21:02</t>
         </is>
       </c>
       <c r="K45" t="n">
@@ -3076,7 +3062,7 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=859786813225535', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1OTc4NjgxMzIyNTUzNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTk3ODY4MTMyMjU1MzU=', 'date': '2025-12-05T06:52:51.000Z', 'text': 'Se van a volver maricas los perros', 'profileUrl': 'https://www.facebook.com/people/Gonzalo-Salazar/pfbid0K2pb8Hxt9Lu6ExHmdDRNnwwy8Fp8UMGUNHdyMUzq4HVDw9Mu7s</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1153022776944307', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNTMwMjI3NzY5NDQzMDc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTUzMDIyNzc2OTQ0MzA3', 'date': '2025-12-06T10:21:02.000Z', 'text': 'Juanda es juanda mijo usted vale verga', 'profileUrl': 'https://www.facebook.com/sebastian.sanchez.860527', 'profilePicture': 'https://scontent.fpia1-1.fna</t>
         </is>
       </c>
     </row>
@@ -3102,23 +3088,23 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Pero xq todos los q hacen comercial o propaganda son como amanerado</t>
+          <t>Y de paso un marica</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-12-04T18:04:51.000Z</t>
+          <t>2025-12-05T12:14:46.000Z</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
-        <v>45995.75336805556</v>
+        <v>45996.51025462963</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>45995</v>
+        <v>45996</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>18:04:51</t>
+          <t>12:14:46</t>
         </is>
       </c>
       <c r="K46" t="n">
@@ -3134,7 +3120,7 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=4031832796961811', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzQwMzE4MzI3OTY5NjE4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV80MDMxODMyNzk2OTYxODEx', 'date': '2025-12-04T18:04:51.000Z', 'text': 'Pero xq todos los q hacen comercial o propaganda son como amanerado', 'profileUrl': 'https://www.facebook.com/sebastian.osorio.859155', 'profilePicture': '</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1123941459814167', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExMjM5NDE0NTk4MTQxNjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTIzOTQxNDU5ODE0MTY3', 'date': '2025-12-05T12:14:46.000Z', 'text': 'Y de paso un marica', 'profileUrl': 'https://www.facebook.com/oswaldo.alvarez.9406', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6435-1/67</t>
         </is>
       </c>
     </row>
@@ -3160,23 +3146,23 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Un armaño</t>
+          <t>Se van a volver maricas los perros</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-12-04T16:03:43.000Z</t>
+          <t>2025-12-05T06:52:51.000Z</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
-        <v>45995.66924768518</v>
+        <v>45996.28670138889</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>45995</v>
+        <v>45996</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>16:03:43</t>
+          <t>06:52:51</t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -3192,7 +3178,7 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2249706118774341', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNDk3MDYxMTg3NzQzNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjQ5NzA2MTE4Nzc0MzQx', 'date': '2025-12-04T16:03:43.000Z', 'text': 'Un armaño', 'profileUrl': 'https://www.facebook.com/people/Lucho-Pinve/pfbid0gtCo922L34tWhtmxnFtgetGkNcAmJWq5aqem2FRjVxWKXvf9nDqoEhtQFfYjbEMNl/', 'profileP</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=859786813225535', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1OTc4NjgxMzIyNTUzNQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTk3ODY4MTMyMjU1MzU=', 'date': '2025-12-05T06:52:51.000Z', 'text': 'Se van a volver maricas los perros', 'profileUrl': 'https://www.facebook.com/people/Gonzalo-Salazar/pfbid0K2pb8Hxt9Lu6ExHmdDRNnwwy8Fp8UMGUNHdyMUzq4HVDw9Mu7s</t>
         </is>
       </c>
     </row>
@@ -3218,23 +3204,23 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Regala el culo para q te lo partan pinche pendejo</t>
+          <t>Pero xq todos los q hacen comercial o propaganda son como amanerado</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-12-04T15:56:46.000Z</t>
+          <t>2025-12-04T18:04:51.000Z</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
-        <v>45995.66442129629</v>
+        <v>45995.75336805556</v>
       </c>
       <c r="I48" s="2" t="n">
         <v>45995</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>15:56:46</t>
+          <t>18:04:51</t>
         </is>
       </c>
       <c r="K48" t="n">
@@ -3250,7 +3236,7 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1891805188887262', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE4OTE4MDUxODg4ODcyNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xODkxODA1MTg4ODg3MjYy', 'date': '2025-12-04T15:56:46.000Z', 'text': 'Regala el culo para q te lo partan pinche pendejo', 'profileUrl': 'https://www.facebook.com/people/Henrry-Mejia/pfbid024WNbGTQ9S6LrXUp3vwZkiKNACnZepVdWHAxh</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=4031832796961811', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzQwMzE4MzI3OTY5NjE4MTE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV80MDMxODMyNzk2OTYxODEx', 'date': '2025-12-04T18:04:51.000Z', 'text': 'Pero xq todos los q hacen comercial o propaganda son como amanerado', 'profileUrl': 'https://www.facebook.com/sebastian.osorio.859155', 'profilePicture': '</t>
         </is>
       </c>
     </row>
@@ -3276,23 +3262,23 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tremendo plumero....</t>
+          <t>Un armaño</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-12-04T08:17:48.000Z</t>
+          <t>2025-12-04T16:03:43.000Z</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
-        <v>45995.34569444445</v>
+        <v>45995.66924768518</v>
       </c>
       <c r="I49" s="2" t="n">
         <v>45995</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>08:17:48</t>
+          <t>16:03:43</t>
         </is>
       </c>
       <c r="K49" t="n">
@@ -3308,7 +3294,7 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2285154445282378', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyODUxNTQ0NDUyODIzNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjg1MTU0NDQ1MjgyMzc4', 'date': '2025-12-04T08:17:48.000Z', 'text': 'Tremendo plumero….', 'profileUrl': 'https://www.facebook.com/wilmar.montoya.566', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/457</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2249706118774341', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNDk3MDYxMTg3NzQzNDE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjQ5NzA2MTE4Nzc0MzQx', 'date': '2025-12-04T16:03:43.000Z', 'text': 'Un armaño', 'profileUrl': 'https://www.facebook.com/people/Lucho-Pinve/pfbid0gtCo922L34tWhtmxnFtgetGkNcAmJWq5aqem2FRjVxWKXvf9nDqoEhtQFfYjbEMNl/', 'profileP</t>
         </is>
       </c>
     </row>
@@ -3334,23 +3320,23 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Porque hablas como nena?</t>
+          <t>Regala el culo para q te lo partan pinche pendejo</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-12-01T02:12:44.000Z</t>
+          <t>2025-12-04T15:56:46.000Z</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
-        <v>45992.09217592593</v>
+        <v>45995.66442129629</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>02:12:44</t>
+          <t>15:56:46</t>
         </is>
       </c>
       <c r="K50" t="n">
@@ -3366,7 +3352,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1370389547957663', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNzAzODk1NDc5NTc2NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzcwMzg5NTQ3OTU3NjYz', 'date': '2025-12-01T02:12:44.000Z', 'text': 'Porque hablas como nena?', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39.30808-1/522981199_2446293375744068_6324711599817041428_n.jpg?stp</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1891805188887262', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE4OTE4MDUxODg4ODcyNjI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xODkxODA1MTg4ODg3MjYy', 'date': '2025-12-04T15:56:46.000Z', 'text': 'Regala el culo para q te lo partan pinche pendejo', 'profileUrl': 'https://www.facebook.com/people/Henrry-Mejia/pfbid024WNbGTQ9S6LrXUp3vwZkiKNACnZepVdWHAxh</t>
         </is>
       </c>
     </row>
@@ -3392,23 +3378,23 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Mala</t>
+          <t>Tremendo plumero....</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-12-01T01:58:28.000Z</t>
+          <t>2025-12-04T08:17:48.000Z</t>
         </is>
       </c>
       <c r="H51" s="2" t="n">
-        <v>45992.08226851852</v>
+        <v>45995.34569444445</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>01:58:28</t>
+          <t>08:17:48</t>
         </is>
       </c>
       <c r="K51" t="n">
@@ -3424,7 +3410,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=871415775330430', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3MTQxNTc3NTMzMDQzMA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzE0MTU3NzUzMzA0MzA=', 'date': '2025-12-01T01:58:28.000Z', 'text': 'Mala', 'profileUrl': 'https://www.facebook.com/jlozano.espinoza', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/490704697_1221292654</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2285154445282378', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyODUxNTQ0NDUyODIzNzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjg1MTU0NDQ1MjgyMzc4', 'date': '2025-12-04T08:17:48.000Z', 'text': 'Tremendo plumero….', 'profileUrl': 'https://www.facebook.com/wilmar.montoya.566', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/457</t>
         </is>
       </c>
     </row>
@@ -3450,23 +3436,23 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Porque hablas como nena?</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-12-01T01:58:27.000Z</t>
+          <t>2025-12-01T02:12:44.000Z</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
-        <v>45992.08225694444</v>
+        <v>45992.09217592593</v>
       </c>
       <c r="I52" s="2" t="n">
         <v>45992</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>01:58:27</t>
+          <t>02:12:44</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -3482,7 +3468,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=870212298728039', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3MDIxMjI5ODcyODAzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzAyMTIyOTg3MjgwMzk=', 'date': '2025-12-01T01:58:27.000Z', 'text': 'Red', 'profileUrl': 'https://www.facebook.com/jlozano.espinoza', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/490704697_12212926544</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1370389547957663', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNzAzODk1NDc5NTc2NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzcwMzg5NTQ3OTU3NjYz', 'date': '2025-12-01T02:12:44.000Z', 'text': 'Porque hablas como nena?', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39.30808-1/522981199_2446293375744068_6324711599817041428_n.jpg?stp</t>
         </is>
       </c>
     </row>
@@ -3508,23 +3494,23 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Maricon</t>
+          <t>Mala</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-12-01T00:49:28.000Z</t>
+          <t>2025-12-01T01:58:28.000Z</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
-        <v>45992.03435185185</v>
+        <v>45992.08226851852</v>
       </c>
       <c r="I53" s="2" t="n">
         <v>45992</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>00:49:28</t>
+          <t>01:58:28</t>
         </is>
       </c>
       <c r="K53" t="n">
@@ -3540,7 +3526,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2300829877102359', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIzMDA4Mjk4NzcxMDIzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMzAwODI5ODc3MTAyMzU5', 'date': '2025-12-01T00:49:28.000Z', 'text': 'Maricon', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/339265645_759976652445463_3136826086775733221_n.jpg?stp=cp0_dst-jpg_s32x32_</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=871415775330430', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3MTQxNTc3NTMzMDQzMA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzE0MTU3NzUzMzA0MzA=', 'date': '2025-12-01T01:58:28.000Z', 'text': 'Mala', 'profileUrl': 'https://www.facebook.com/jlozano.espinoza', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/490704697_1221292654</t>
         </is>
       </c>
     </row>
@@ -3566,23 +3552,23 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Trata serio con ese hablado.</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-12-01T00:11:35.000Z</t>
+          <t>2025-12-01T01:58:27.000Z</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
-        <v>45992.00804398148</v>
+        <v>45992.08225694444</v>
       </c>
       <c r="I54" s="2" t="n">
         <v>45992</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>00:11:35</t>
+          <t>01:58:27</t>
         </is>
       </c>
       <c r="K54" t="n">
@@ -3598,7 +3584,7 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=867737252473363', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg2NzczNzI1MjQ3MzM2Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84Njc3MzcyNTI0NzMzNjM=', 'date': '2025-12-01T00:11:35.000Z', 'text': 'Trata serio con ese hablado.', 'profileUrl': 'https://www.facebook.com/wilmer.manuel.diaz.munzon.2025', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=870212298728039', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg3MDIxMjI5ODcyODAzOQ==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NzAyMTIyOTg3MjgwMzk=', 'date': '2025-12-01T01:58:27.000Z', 'text': 'Red', 'profileUrl': 'https://www.facebook.com/jlozano.espinoza', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/490704697_12212926544</t>
         </is>
       </c>
     </row>
@@ -3624,23 +3610,23 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Ayyyy se le bajo la salen</t>
+          <t>Maricon</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-11-30T23:20:34.000Z</t>
+          <t>2025-12-01T00:49:28.000Z</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
-        <v>45991.97261574074</v>
+        <v>45992.03435185185</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>23:20:34</t>
+          <t>00:49:28</t>
         </is>
       </c>
       <c r="K55" t="n">
@@ -3656,7 +3642,7 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1190866013196104', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExOTA4NjYwMTMxOTYxMDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTkwODY2MDEzMTk2MTA0', 'date': '2025-11-30T23:20:34.000Z', 'text': 'Ayyyy se le bajo la salen', 'profileUrl': 'https://www.facebook.com/james.martinez.816871', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2300829877102359', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIzMDA4Mjk4NzcxMDIzNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMzAwODI5ODc3MTAyMzU5', 'date': '2025-12-01T00:49:28.000Z', 'text': 'Maricon', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/339265645_759976652445463_3136826086775733221_n.jpg?stp=cp0_dst-jpg_s32x32_</t>
         </is>
       </c>
     </row>
@@ -3682,23 +3668,23 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ese man es cagá</t>
+          <t>Trata serio con ese hablado.</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-11-30T18:04:11.000Z</t>
+          <t>2025-12-01T00:11:35.000Z</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
-        <v>45991.7529050926</v>
+        <v>45992.00804398148</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>18:04:11</t>
+          <t>00:11:35</t>
         </is>
       </c>
       <c r="K56" t="n">
@@ -3714,7 +3700,7 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=3427022897455169', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzM0MjcwMjI4OTc0NTUxNjk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8zNDI3MDIyODk3NDU1MTY5', 'date': '2025-11-30T18:04:11.000Z', 'text': 'Ese man es cagá', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/273486952_4933323346731770_5660651639014573511_n.jpg?stp=cp0_dst-jp</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=867737252473363', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg2NzczNzI1MjQ3MzM2Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84Njc3MzcyNTI0NzMzNjM=', 'date': '2025-12-01T00:11:35.000Z', 'text': 'Trata serio con ese hablado.', 'profileUrl': 'https://www.facebook.com/wilmer.manuel.diaz.munzon.2025', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.</t>
         </is>
       </c>
     </row>
@@ -3740,23 +3726,23 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ayyyy</t>
+          <t>Ayyyy se le bajo la salen</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-11-30T00:46:22.000Z</t>
+          <t>2025-11-30T23:20:34.000Z</t>
         </is>
       </c>
       <c r="H57" s="2" t="n">
-        <v>45991.03219907408</v>
+        <v>45991.97261574074</v>
       </c>
       <c r="I57" s="2" t="n">
         <v>45991</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>00:46:22</t>
+          <t>23:20:34</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -3772,7 +3758,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2255125478334365', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNTUxMjU0NzgzMzQzNjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjU1MTI1NDc4MzM0MzY1', 'date': '2025-11-30T00:46:22.000Z', 'text': 'Ayyyy', 'profileUrl': 'https://www.facebook.com/oswaldo.alvarez.9406', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t1.6435-1/67771402_1550138</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1190866013196104', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExOTA4NjYwMTMxOTYxMDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTkwODY2MDEzMTk2MTA0', 'date': '2025-11-30T23:20:34.000Z', 'text': 'Ayyyy se le bajo la salen', 'profileUrl': 'https://www.facebook.com/james.martinez.816871', 'profilePicture': 'https://scontent.fpia1-1.fna.fbcdn.net/v/t39</t>
         </is>
       </c>
     </row>
@@ -3798,23 +3784,23 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Este man habla igualitico que al amigo de marixa matayana Mahecha</t>
+          <t>Ese man es cagá</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-11-29T22:20:39.000Z</t>
+          <t>2025-11-30T18:04:11.000Z</t>
         </is>
       </c>
       <c r="H58" s="2" t="n">
-        <v>45990.93100694445</v>
+        <v>45991.7529050926</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>45990</v>
+        <v>45991</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>22:20:39</t>
+          <t>18:04:11</t>
         </is>
       </c>
       <c r="K58" t="n">
@@ -3830,7 +3816,7 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=25246691814957667', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzI1MjQ2NjkxODE0OTU3NjY3', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yNTI0NjY5MTgxNDk1NzY2Nw==', 'date': '2025-11-29T22:20:39.000Z', 'text': 'Este man habla igualitico que al amigo de marixa matayana Mahecha', 'profileUrl': 'https://www.facebook.com/yeshua1985', 'profilePicture': 'https://sc</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=3427022897455169', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzM0MjcwMjI4OTc0NTUxNjk=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8zNDI3MDIyODk3NDU1MTY5', 'date': '2025-11-30T18:04:11.000Z', 'text': 'Ese man es cagá', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/273486952_4933323346731770_5660651639014573511_n.jpg?stp=cp0_dst-jp</t>
         </is>
       </c>
     </row>
@@ -3856,23 +3842,23 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ay esa es mucha locota se le se le ve que es un zoofílico degenerado come asterisco</t>
+          <t>Ayyyy</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-11-29T20:39:59.000Z</t>
+          <t>2025-11-30T00:46:22.000Z</t>
         </is>
       </c>
       <c r="H59" s="2" t="n">
-        <v>45990.86109953704</v>
+        <v>45991.03219907408</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>45990</v>
+        <v>45991</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>20:39:59</t>
+          <t>00:46:22</t>
         </is>
       </c>
       <c r="K59" t="n">
@@ -3888,7 +3874,7 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1619685035667060', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTk2ODUwMzU2NjcwNjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjE5Njg1MDM1NjY3MDYw', 'date': '2025-11-29T20:39:59.000Z', 'text': 'Ay esa es mucha locota se le se le ve que es un zoofílico degenerado come asterisco', 'profileUrl': 'https://www.facebook.com/julian.zuluaga.635722', 'prof</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2255125478334365', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNTUxMjU0NzgzMzQzNjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjU1MTI1NDc4MzM0MzY1', 'date': '2025-11-30T00:46:22.000Z', 'text': 'Ayyyy', 'profileUrl': 'https://www.facebook.com/oswaldo.alvarez.9406', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t1.6435-1/67771402_1550138</t>
         </is>
       </c>
     </row>
@@ -3914,23 +3900,23 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Toca que pague un médico mental con ese presupuesto</t>
+          <t>Este man habla igualitico que al amigo de marixa matayana Mahecha</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-11-29T19:14:42.000Z</t>
+          <t>2025-11-29T22:20:39.000Z</t>
         </is>
       </c>
       <c r="H60" s="2" t="n">
-        <v>45990.801875</v>
+        <v>45990.93100694445</v>
       </c>
       <c r="I60" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>19:14:42</t>
+          <t>22:20:39</t>
         </is>
       </c>
       <c r="K60" t="n">
@@ -3946,7 +3932,7 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=905167035720354', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzkwNTE2NzAzNTcyMDM1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV85MDUxNjcwMzU3MjAzNTQ=', 'date': '2025-11-29T19:14:42.000Z', 'text': 'Toca que pague un médico mental con ese presupuesto', 'profileUrl': 'https://www.facebook.com/jose.miguel.garcia.archila', 'profilePicture': 'https://sconte</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=25246691814957667', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzI1MjQ2NjkxODE0OTU3NjY3', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yNTI0NjY5MTgxNDk1NzY2Nw==', 'date': '2025-11-29T22:20:39.000Z', 'text': 'Este man habla igualitico que al amigo de marixa matayana Mahecha', 'profileUrl': 'https://www.facebook.com/yeshua1985', 'profilePicture': 'https://sc</t>
         </is>
       </c>
     </row>
@@ -3972,23 +3958,23 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>😂 aiiiiii.  😂😂TA como raro el regalador</t>
+          <t>Ay esa es mucha locota se le se le ve que es un zoofílico degenerado come asterisco</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-11-29T18:28:07.000Z</t>
+          <t>2025-11-29T20:39:59.000Z</t>
         </is>
       </c>
       <c r="H61" s="2" t="n">
-        <v>45990.76952546297</v>
+        <v>45990.86109953704</v>
       </c>
       <c r="I61" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>18:28:07</t>
+          <t>20:39:59</t>
         </is>
       </c>
       <c r="K61" t="n">
@@ -4004,7 +3990,7 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1164505132477363', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNjQ1MDUxMzI0NzczNjM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTY0NTA1MTMyNDc3MzYz', 'date': '2025-11-29T18:28:07.000Z', 'text': '😂 aiiiiii.  😂😂TA como raro el regalador', 'profileUrl': 'https://www.facebook.com/people/Pickupde-Barranquilla/61581212485626/', 'profilePicture': 'https:/</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1619685035667060', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTk2ODUwMzU2NjcwNjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjE5Njg1MDM1NjY3MDYw', 'date': '2025-11-29T20:39:59.000Z', 'text': 'Ay esa es mucha locota se le se le ve que es un zoofílico degenerado come asterisco', 'profileUrl': 'https://www.facebook.com/julian.zuluaga.635722', 'prof</t>
         </is>
       </c>
     </row>
@@ -4030,27 +4016,27 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>EL HABLADITO ROLO ES COMO GAY</t>
+          <t>Toca que pague un médico mental con ese presupuesto</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-11-29T16:54:18.000Z</t>
+          <t>2025-11-29T19:14:42.000Z</t>
         </is>
       </c>
       <c r="H62" s="2" t="n">
-        <v>45990.704375</v>
+        <v>45990.801875</v>
       </c>
       <c r="I62" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>16:54:18</t>
+          <t>19:14:42</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -4062,7 +4048,7 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1218885416959008', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEyMTg4ODU0MTY5NTkwMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMjE4ODg1NDE2OTU5MDA4', 'date': '2025-11-29T16:54:18.000Z', 'text': 'EL HABLADITO ROLO ES COMO GAY', 'profileUrl': 'https://www.facebook.com/carlito.ortiz.9828', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=905167035720354', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzkwNTE2NzAzNTcyMDM1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV85MDUxNjcwMzU3MjAzNTQ=', 'date': '2025-11-29T19:14:42.000Z', 'text': 'Toca que pague un médico mental con ese presupuesto', 'profileUrl': 'https://www.facebook.com/jose.miguel.garcia.archila', 'profilePicture': 'https://sconte</t>
         </is>
       </c>
     </row>
@@ -4088,23 +4074,23 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>No lo dudo</t>
+          <t>😂 aiiiiii.  😂😂TA como raro el regalador</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-11-29T16:25:00.000Z</t>
+          <t>2025-11-29T18:28:07.000Z</t>
         </is>
       </c>
       <c r="H63" s="2" t="n">
-        <v>45990.68402777778</v>
+        <v>45990.76952546297</v>
       </c>
       <c r="I63" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>16:25:00</t>
+          <t>18:28:07</t>
         </is>
       </c>
       <c r="K63" t="n">
@@ -4120,7 +4106,7 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1586105552835854', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1ODYxMDU1NTI4MzU4NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTg2MTA1NTUyODM1ODU0', 'date': '2025-11-29T16:25:00.000Z', 'text': 'No lo dudo', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/419578339_7065591426894759_4053593229592847946_n.jpg?stp=cp0_dst-jpg_s32</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1164505132477363', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNjQ1MDUxMzI0NzczNjM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTY0NTA1MTMyNDc3MzYz', 'date': '2025-11-29T18:28:07.000Z', 'text': '😂 aiiiiii.  😂😂TA como raro el regalador', 'profileUrl': 'https://www.facebook.com/people/Pickupde-Barranquilla/61581212485626/', 'profilePicture': 'https:/</t>
         </is>
       </c>
     </row>
@@ -4146,27 +4132,27 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Rosqueto hp</t>
+          <t>EL HABLADITO ROLO ES COMO GAY</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-11-29T14:45:47.000Z</t>
+          <t>2025-11-29T16:54:18.000Z</t>
         </is>
       </c>
       <c r="H64" s="2" t="n">
-        <v>45990.61512731481</v>
+        <v>45990.704375</v>
       </c>
       <c r="I64" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>14:45:47</t>
+          <t>16:54:18</t>
         </is>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -4178,7 +4164,7 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1358189359094572', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNTgxODkzNTkwOTQ1NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzU4MTg5MzU5MDk0NTcy', 'date': '2025-11-29T14:45:47.000Z', 'text': 'Rosqueto hp', 'profileUrl': 'https://www.facebook.com/julian.ospina.745394', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/50482802</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1218885416959008', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEyMTg4ODU0MTY5NTkwMDg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMjE4ODg1NDE2OTU5MDA4', 'date': '2025-11-29T16:54:18.000Z', 'text': 'EL HABLADITO ROLO ES COMO GAY', 'profileUrl': 'https://www.facebook.com/carlito.ortiz.9828', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.6</t>
         </is>
       </c>
     </row>
@@ -4204,27 +4190,27 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lo primero hablar como un hombre maduro</t>
+          <t>No lo dudo</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-11-29T04:14:06.000Z</t>
+          <t>2025-11-29T16:25:00.000Z</t>
         </is>
       </c>
       <c r="H65" s="2" t="n">
-        <v>45990.17645833334</v>
+        <v>45990.68402777778</v>
       </c>
       <c r="I65" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>04:14:06</t>
+          <t>16:25:00</t>
         </is>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -4236,7 +4222,7 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1642913450007446', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2NDI5MTM0NTAwMDc0NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjQyOTEzNDUwMDA3NDQ2', 'date': '2025-11-29T04:14:06.000Z', 'text': 'Lo primero hablar como un hombre maduro', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_278166695076053098</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1586105552835854', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE1ODYxMDU1NTI4MzU4NTQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNTg2MTA1NTUyODM1ODU0', 'date': '2025-11-29T16:25:00.000Z', 'text': 'No lo dudo', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/419578339_7065591426894759_4053593229592847946_n.jpg?stp=cp0_dst-jpg_s32</t>
         </is>
       </c>
     </row>
@@ -4262,23 +4248,23 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Rosqueto hp</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-11-29T03:57:46.000Z</t>
+          <t>2025-11-29T14:45:47.000Z</t>
         </is>
       </c>
       <c r="H66" s="2" t="n">
-        <v>45990.16511574074</v>
+        <v>45990.61512731481</v>
       </c>
       <c r="I66" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>03:57:46</t>
+          <t>14:45:47</t>
         </is>
       </c>
       <c r="K66" t="n">
@@ -4294,7 +4280,7 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1334648197857195', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzMzQ2NDgxOTc4NTcxOTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzM0NjQ4MTk3ODU3MTk1', 'date': '2025-11-29T03:57:46.000Z', 'text': '96', 'profileUrl': 'https://www.facebook.com/nestor.h.roa', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/468182816_102364465080414</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1358189359094572', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzNTgxODkzNTkwOTQ1NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzU4MTg5MzU5MDk0NTcy', 'date': '2025-11-29T14:45:47.000Z', 'text': 'Rosqueto hp', 'profileUrl': 'https://www.facebook.com/julian.ospina.745394', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/50482802</t>
         </is>
       </c>
     </row>
@@ -4320,27 +4306,27 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Hay algo más marica que un puto rolo hablando?? No creo!. Esos hptas no son colombianos pena ajena cuando una gonorrea de estas llega con ese tono y hablando de tu y te.. que mierda que vergüenza!!.</t>
+          <t>Lo primero hablar como un hombre maduro</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-11-29T03:53:59.000Z</t>
+          <t>2025-11-29T04:14:06.000Z</t>
         </is>
       </c>
       <c r="H67" s="2" t="n">
-        <v>45990.16248842593</v>
+        <v>45990.17645833334</v>
       </c>
       <c r="I67" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>03:53:59</t>
+          <t>04:14:06</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -4352,7 +4338,7 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1405705607745874', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE0MDU3MDU2MDc3NDU4NzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNDA1NzA1NjA3NzQ1ODc0', 'date': '2025-11-29T03:53:59.000Z', 'text': 'Hay algo más marica que un puto rolo hablando?? No creo!. Esos hptas no son colombianos pena ajena cuando una gonorrea de estas llega con ese tono y hablan</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1642913450007446', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2NDI5MTM0NTAwMDc0NDY=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjQyOTEzNDUwMDA3NDQ2', 'date': '2025-11-29T04:14:06.000Z', 'text': 'Lo primero hablar como un hombre maduro', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_278166695076053098</t>
         </is>
       </c>
     </row>
@@ -4378,27 +4364,27 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Es</t>
+          <t>96</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-11-29T03:46:23.000Z</t>
+          <t>2025-11-29T03:57:46.000Z</t>
         </is>
       </c>
       <c r="H68" s="2" t="n">
-        <v>45990.15721064815</v>
+        <v>45990.16511574074</v>
       </c>
       <c r="I68" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>03:46:23</t>
+          <t>03:57:46</t>
         </is>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -4410,7 +4396,7 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1613261323181733', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTMyNjEzMjMxODE3MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjEzMjYxMzIzMTgxNzMz', 'date': '2025-11-29T03:46:23.000Z', 'text': 'Es', 'profileUrl': 'https://www.facebook.com/maria.gutierrez.564634', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/514401650_39794</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1334648197857195', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzEzMzQ2NDgxOTc4NTcxOTU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMzM0NjQ4MTk3ODU3MTk1', 'date': '2025-11-29T03:57:46.000Z', 'text': '96', 'profileUrl': 'https://www.facebook.com/nestor.h.roa', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/468182816_102364465080414</t>
         </is>
       </c>
     </row>
@@ -4436,27 +4422,27 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Estás simplón, osea bien BAJITO de sal 🤭</t>
+          <t>Hay algo más marica que un puto rolo hablando?? No creo!. Esos hptas no son colombianos pena ajena cuando una gonorrea de estas llega con ese tono y hablando de tu y te.. que mierda que vergüenza!!.</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-11-29T03:19:41.000Z</t>
+          <t>2025-11-29T03:53:59.000Z</t>
         </is>
       </c>
       <c r="H69" s="2" t="n">
-        <v>45990.13866898148</v>
+        <v>45990.16248842593</v>
       </c>
       <c r="I69" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>03:19:41</t>
+          <t>03:53:59</t>
         </is>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -4468,7 +4454,7 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2272121956587605', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNzIxMjE5NTY1ODc2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjcyMTIxOTU2NTg3NjA1', 'date': '2025-11-29T03:19:41.000Z', 'text': 'Estás simplón, osea bien BAJITO de sal 🤭', 'profileUrl': 'https://www.facebook.com/delmides.viloria', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.n</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1405705607745874', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE0MDU3MDU2MDc3NDU4NzQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNDA1NzA1NjA3NzQ1ODc0', 'date': '2025-11-29T03:53:59.000Z', 'text': 'Hay algo más marica que un puto rolo hablando?? No creo!. Esos hptas no son colombianos pena ajena cuando una gonorrea de estas llega con ese tono y hablan</t>
         </is>
       </c>
     </row>
@@ -4494,23 +4480,23 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Ahora todo el mundo marica</t>
+          <t>Es</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-11-29T03:19:06.000Z</t>
+          <t>2025-11-29T03:46:23.000Z</t>
         </is>
       </c>
       <c r="H70" s="2" t="n">
-        <v>45990.13826388889</v>
+        <v>45990.15721064815</v>
       </c>
       <c r="I70" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>03:19:06</t>
+          <t>03:46:23</t>
         </is>
       </c>
       <c r="K70" t="n">
@@ -4526,7 +4512,7 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1176087734032460', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNzYwODc3MzQwMzI0NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTc2MDg3NzM0MDMyNDYw', 'date': '2025-11-29T03:19:06.000Z', 'text': 'Ahora todo el mundo marica', 'profileUrl': 'https://www.facebook.com/german.gantiva', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1613261323181733', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTMyNjEzMjMxODE3MzM=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjEzMjYxMzIzMTgxNzMz', 'date': '2025-11-29T03:46:23.000Z', 'text': 'Es', 'profileUrl': 'https://www.facebook.com/maria.gutierrez.564634', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/514401650_39794</t>
         </is>
       </c>
     </row>
@@ -4552,23 +4538,23 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bobo</t>
+          <t>Estás simplón, osea bien BAJITO de sal 🤭</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-11-29T03:18:06.000Z</t>
+          <t>2025-11-29T03:19:41.000Z</t>
         </is>
       </c>
       <c r="H71" s="2" t="n">
-        <v>45990.13756944444</v>
+        <v>45990.13866898148</v>
       </c>
       <c r="I71" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>03:18:06</t>
+          <t>03:19:41</t>
         </is>
       </c>
       <c r="K71" t="n">
@@ -4584,7 +4570,7 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1618995549520524', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTg5OTU1NDk1MjA1MjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjE4OTk1NTQ5NTIwNTI0', 'date': '2025-11-29T03:18:06.000Z', 'text': 'Bobo', 'profileUrl': 'https://www.facebook.com/people/Estrella-Sandoval-Pinz%C3%B2n/pfbid02S4wPCSWW2qLffdcxXv2u8GeFWnxFS8ZKfn8n6LWwYWbqCDyBqg5j2LAWFpX2of9j</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2272121956587605', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIyNzIxMjE5NTY1ODc2MDU=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMjcyMTIxOTU2NTg3NjA1', 'date': '2025-11-29T03:19:41.000Z', 'text': 'Estás simplón, osea bien BAJITO de sal 🤭', 'profileUrl': 'https://www.facebook.com/delmides.viloria', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.n</t>
         </is>
       </c>
     </row>
@@ -4610,27 +4596,27 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Roscón</t>
+          <t>Ahora todo el mundo marica</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-11-29T03:17:54.000Z</t>
+          <t>2025-11-29T03:19:06.000Z</t>
         </is>
       </c>
       <c r="H72" s="2" t="n">
-        <v>45990.13743055556</v>
+        <v>45990.13826388889</v>
       </c>
       <c r="I72" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>03:17:54</t>
+          <t>03:19:06</t>
         </is>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -4642,7 +4628,7 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1862285097710571', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE4NjIyODUwOTc3MTA1NzE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xODYyMjg1MDk3NzEwNTcx', 'date': '2025-11-29T03:17:54.000Z', 'text': 'Roscón', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/585335639_25613401654939402_572775291374841411_n.jpg?stp=cp0_dst-jpg_s32x32_</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1176087734032460', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzExNzYwODc3MzQwMzI0NjA=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xMTc2MDg3NzM0MDMyNDYw', 'date': '2025-11-29T03:19:06.000Z', 'text': 'Ahora todo el mundo marica', 'profileUrl': 'https://www.facebook.com/german.gantiva', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1</t>
         </is>
       </c>
     </row>
@@ -4667,146 +4653,146 @@
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
+        <is>
+          <t>Bobo</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:18:06.000Z</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>45990.13756944444</v>
+      </c>
+      <c r="I73" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>03:18:06</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1618995549520524', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE2MTg5OTU1NDk1MjA1MjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xNjE4OTk1NTQ5NTIwNTI0', 'date': '2025-11-29T03:18:06.000Z', 'text': 'Bobo', 'profileUrl': 'https://www.facebook.com/people/Estrella-Sandoval-Pinz%C3%B2n/pfbid02S4wPCSWW2qLffdcxXv2u8GeFWnxFS8ZKfn8n6LWwYWbqCDyBqg5j2LAWFpX2of9j</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Roscón</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:17:54.000Z</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>45990.13743055556</v>
+      </c>
+      <c r="I74" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>03:17:54</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=1862285097710571', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzE4NjIyODUwOTc3MTA1NzE=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8xODYyMjg1MDk3NzEwNTcx', 'date': '2025-11-29T03:17:54.000Z', 'text': 'Roscón', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/585335639_25613401654939402_572775291374841411_n.jpg?stp=cp0_dst-jpg_s32x32_</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
         <is>
           <t>AYYYYY  NOOOO ...
 QUÉ  PLUMERO !! 
 ALPI - LOKOTA !! JAJAJAJA JAJAJAJA</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>2025-11-29T03:17:36.000Z</t>
         </is>
       </c>
-      <c r="H73" s="2" t="n">
+      <c r="H75" s="2" t="n">
         <v>45990.13722222222</v>
-      </c>
-      <c r="I73" s="2" t="n">
-        <v>45990</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>03:17:36</t>
-        </is>
-      </c>
-      <c r="K73" t="n">
-        <v>1</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" t="b">
-        <v>0</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=857860266777560', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1Nzg2MDI2Njc3NzU2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTc4NjAyNjY3Nzc1NjA=', 'date': '2025-11-29T03:17:36.000Z', 'text': 'AYYYYY  NOOOO ...\nQUÉ  PLUMERO !! \nALPI - LOKOTA !! JAJAJAJA JAJAJAJA', 'profileUrl': 'https://www.facebook.com/luis.a.cruzgarcia.7', 'profilePicture': 'h</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>3</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Ola aml si me gusta un buen regalo</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>2025-11-29T03:14:42.000Z</t>
-        </is>
-      </c>
-      <c r="H74" s="2" t="n">
-        <v>45990.13520833333</v>
-      </c>
-      <c r="I74" s="2" t="n">
-        <v>45990</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>03:14:42</t>
-        </is>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="b">
-        <v>0</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=734734982974790', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzczNDczNDk4Mjk3NDc5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83MzQ3MzQ5ODI5NzQ3OTA=', 'date': '2025-11-29T03:14:42.000Z', 'text': 'Ola aml si me gusta un buen regalo', 'profileUrl': 'https://www.facebook.com/people/Margarita-Saenz/pfbid02BFZeUQrrrFFrn1xo2gsTxc8brbnqm4CDcHYA2FPbsevmUNqKA</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>3</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1548316409544133/</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Lo siento alpina, te cagaste el único cliente fiel, no te voy a comprar ni mierda, que asco de comercial, que cringe tan bastardo.</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>2025-11-29T03:14:04.000Z</t>
-        </is>
-      </c>
-      <c r="H75" s="2" t="n">
-        <v>45990.13476851852</v>
       </c>
       <c r="I75" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>03:14:04</t>
+          <t>03:17:36</t>
         </is>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -4818,7 +4804,7 @@
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=807206678966890', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzgwNzIwNjY3ODk2Njg5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84MDcyMDY2Nzg5NjY4OTA=', 'date': '2025-11-29T03:14:04.000Z', 'text': 'Lo siento alpina, te cagaste el único cliente fiel, no te voy a comprar ni mierda, que asco de comercial, que cringe tan bastardo.', 'profileUrl': 'https://</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=857860266777560', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1Nzg2MDI2Njc3NzU2MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTc4NjAyNjY3Nzc1NjA=', 'date': '2025-11-29T03:17:36.000Z', 'text': 'AYYYYY  NOOOO ...\nQUÉ  PLUMERO !! \nALPI - LOKOTA !! JAJAJAJA JAJAJAJA', 'profileUrl': 'https://www.facebook.com/luis.a.cruzgarcia.7', 'profilePicture': 'h</t>
         </is>
       </c>
     </row>
@@ -4844,23 +4830,23 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Un carrito</t>
+          <t>Ola aml si me gusta un buen regalo</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-11-26T20:43:27.000Z</t>
+          <t>2025-11-29T03:14:42.000Z</t>
         </is>
       </c>
       <c r="H76" s="2" t="n">
-        <v>45987.86350694444</v>
+        <v>45990.13520833333</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>45987</v>
+        <v>45990</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>20:43:27</t>
+          <t>03:14:42</t>
         </is>
       </c>
       <c r="K76" t="n">
@@ -4876,7 +4862,7 @@
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=858851063279247', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1ODg1MTA2MzI3OTI0Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTg4NTEwNjMyNzkyNDc=', 'date': '2025-11-26T20:43:27.000Z', 'text': 'Un carrito', 'profileUrl': 'https://www.facebook.com/carlos.rubiano.902', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/480278336_92</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=734734982974790', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzczNDczNDk4Mjk3NDc5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83MzQ3MzQ5ODI5NzQ3OTA=', 'date': '2025-11-29T03:14:42.000Z', 'text': 'Ola aml si me gusta un buen regalo', 'profileUrl': 'https://www.facebook.com/people/Margarita-Saenz/pfbid02BFZeUQrrrFFrn1xo2gsTxc8brbnqm4CDcHYA2FPbsevmUNqKA</t>
         </is>
       </c>
     </row>
@@ -4902,27 +4888,27 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>💩💩💩</t>
+          <t>Lo siento alpina, te cagaste el único cliente fiel, no te voy a comprar ni mierda, que asco de comercial, que cringe tan bastardo.</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-11-26T20:14:59.000Z</t>
+          <t>2025-11-29T03:14:04.000Z</t>
         </is>
       </c>
       <c r="H77" s="2" t="n">
-        <v>45987.84373842592</v>
+        <v>45990.13476851852</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>45987</v>
+        <v>45990</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>20:14:59</t>
+          <t>03:14:04</t>
         </is>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -4934,7 +4920,7 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2021330785291238', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIwMjEzMzA3ODUyOTEyMzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMDIxMzMwNzg1MjkxMjM4', 'date': '2025-11-26T20:14:59.000Z', 'text': '💩💩💩', 'profileUrl': 'https://www.facebook.com/people/Jey-Jey-Hernandez-Altamar-Hernandez/pfbid09nP3MZ4p9rUPffsNuCTqA2GBvfx1o2KAnyxCAJWZ5JVuBECAw8WVakzvvb7h</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=807206678966890', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzgwNzIwNjY3ODk2Njg5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84MDcyMDY2Nzg5NjY4OTA=', 'date': '2025-11-29T03:14:04.000Z', 'text': 'Lo siento alpina, te cagaste el único cliente fiel, no te voy a comprar ni mierda, que asco de comercial, que cringe tan bastardo.', 'profileUrl': 'https://</t>
         </is>
       </c>
     </row>
@@ -4960,27 +4946,27 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>copion de juanda</t>
+          <t>Un carrito</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-11-26T18:49:42.000Z</t>
+          <t>2025-11-26T20:43:27.000Z</t>
         </is>
       </c>
       <c r="H78" s="2" t="n">
-        <v>45987.78451388889</v>
+        <v>45987.86350694444</v>
       </c>
       <c r="I78" s="2" t="n">
         <v>45987</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>18:49:42</t>
+          <t>20:43:27</t>
         </is>
       </c>
       <c r="K78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -4992,37 +4978,53 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=769578852207896', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzc2OTU3ODg1MjIwNzg5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83Njk1Nzg4NTIyMDc4OTY=', 'date': '2025-11-26T18:49:42.000Z', 'text': 'copion de juanda', 'profileUrl': 'https://www.facebook.com/keyner.lopez.279235', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/59552</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=858851063279247', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzg1ODg1MTA2MzI3OTI0Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV84NTg4NTEwNjMyNzkyNDc=', 'date': '2025-11-26T20:43:27.000Z', 'text': 'Un carrito', 'profileUrl': 'https://www.facebook.com/carlos.rubiano.902', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-1/480278336_92</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRhzGMQAHxW/</t>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRhzGMQAHxW/</t>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>💩💩💩</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2025-11-26T20:14:59.000Z</t>
+        </is>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>45987.84373842592</v>
+      </c>
+      <c r="I79" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>20:14:59</t>
+        </is>
+      </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -5031,40 +5033,56 @@
         <v>0</v>
       </c>
       <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=2021330785291238', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5XzIwMjEzMzA3ODUyOTEyMzg=', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV8yMDIxMzMwNzg1MjkxMjM4', 'date': '2025-11-26T20:14:59.000Z', 'text': '💩💩💩', 'profileUrl': 'https://www.facebook.com/people/Jey-Jey-Hernandez-Altamar-Hernandez/pfbid09nP3MZ4p9rUPffsNuCTqA2GBvfx1o2KAnyxCAJWZ5JVuBECAw8WVakzvvb7h</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRhzGbbAL3a/</t>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRhzGbbAL3a/</t>
+          <t>https://www.facebook.com/reel/1548316409544133/</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>copion de juanda</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2025-11-26T18:49:42.000Z</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>45987.78451388889</v>
+      </c>
+      <c r="I80" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>18:49:42</t>
+        </is>
+      </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -5073,16 +5091,16 @@
         <v>0</v>
       </c>
       <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/reel/1548316409544133/', 'commentUrl': 'https://www.facebook.com/reel/1548316409544133/?comment_id=769578852207896', 'id': 'Y29tbWVudDoxMjg1NjM2MDczNjA4NjI5Xzc2OTU3ODg1MjIwNzg5Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTI4NTYzNjA3MzYwODYyOV83Njk1Nzg4NTIyMDc4OTY=', 'date': '2025-11-26T18:49:42.000Z', 'text': 'copion de juanda', 'profileUrl': 'https://www.facebook.com/keyner.lopez.279235', 'profilePicture': 'https://scontent-sea5-1.xx.fbcdn.net/v/t39.30808-1/59552</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -5091,40 +5109,20 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
+          <t>https://www.instagram.com/p/DRhzGMQAHxW/</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>miller.alexander.14</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>💅😂</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>2025-11-29T03:20:33.000Z</t>
-        </is>
-      </c>
-      <c r="H81" s="2" t="n">
-        <v>45990.13927083334</v>
-      </c>
-      <c r="I81" s="2" t="n">
-        <v>45990</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>03:20:33</t>
-        </is>
-      </c>
+          <t>https://www.instagram.com/p/DRhzGMQAHxW/</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
         <v>0</v>
       </c>
@@ -5134,79 +5132,183 @@
       <c r="M81" t="b">
         <v>0</v>
       </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>https://instagram.com/miller.alexander.14</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/', 'commentUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/c/18092140192919543', 'id': '18092140192919543', 'text': '💅😂', 'ownerUsername': 'miller.alexander.14', 'ownerProfilePicUrl': 'https://scontent-lga3-2.cdninstagram.com/v/t51.2885-19/462067248_1698949100924610_2137652019427527338_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ig_cache_key=GDCWihvC7qZpLwkGAKrKX5cvd6odbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InB</t>
-        </is>
-      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
+        <v>5</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRhzGbbAL3a/</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRhzGbbAL3a/</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="b">
+        <v>0</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
         <v>6</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>miller.alexander.14</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>💅😂</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2025-11-29T03:20:33.000Z</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>45990.13927083334</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>03:20:33</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="b">
+        <v>0</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>https://instagram.com/miller.alexander.14</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>{'postUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/', 'commentUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/c/18092140192919543', 'id': '18092140192919543', 'text': '💅😂', 'ownerUsername': 'miller.alexander.14', 'ownerProfilePicUrl': 'https://scontent-lga3-2.cdninstagram.com/v/t51.2885-19/462067248_1698949100924610_2137652019427527338_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ig_cache_key=GDCWihvC7qZpLwkGAKrKX5cvd6odbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InB</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>6</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRhzGOdgAxC/</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
         <is>
           <t>montoalvaro</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>Jajaja bueno</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>2025-11-29T03:14:35.000Z</t>
         </is>
       </c>
-      <c r="H82" s="2" t="n">
+      <c r="H84" s="2" t="n">
         <v>45990.13512731482</v>
       </c>
-      <c r="I82" s="2" t="n">
+      <c r="I84" s="2" t="n">
         <v>45990</v>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>03:14:35</t>
         </is>
       </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="b">
-        <v>0</v>
-      </c>
-      <c r="N82" t="inlineStr">
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="b">
+        <v>0</v>
+      </c>
+      <c r="N84" t="inlineStr">
         <is>
           <t>https://instagram.com/montoalvaro</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr">
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
         <is>
           <t>{'postUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/', 'commentUrl': 'https://www.instagram.com/p/DRhzGOdgAxC/c/17930638134113541', 'id': '17930638134113541', 'text': 'Jajaja bueno', 'ownerUsername': 'montoalvaro', 'ownerProfilePicUrl': 'https://scontent-lga3-2.cdninstagram.com/v/t51.2885-19/456680338_390372430461018_1122493075785399601_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=101&amp;ig_cache_key=GJJjOBtaOAyqCmMBADE9BlWB5ZMPbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6In</t>
         </is>
@@ -5333,7 +5435,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4" t="n">
         <v>12</v>
@@ -5342,7 +5444,7 @@
         <v>45987.78451388889</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>46014.67934027778</v>
+        <v>46015.76128472222</v>
       </c>
     </row>
     <row r="5">
@@ -5474,10 +5576,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="E2" t="n">
         <v>18</v>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -20,11 +20,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -64,13 +62,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1703,7 +1700,7 @@
       <c r="H22" s="2" t="n">
         <v>46015.76128472222</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="2" t="n">
         <v>46015</v>
       </c>
       <c r="J22" t="inlineStr">
@@ -1711,10 +1708,8 @@
           <t>18:16:15</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1763,7 +1758,7 @@
       <c r="H23" s="2" t="n">
         <v>46015.755</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="I23" s="2" t="n">
         <v>46015</v>
       </c>
       <c r="J23" t="inlineStr">
@@ -1771,10 +1766,8 @@
           <t>18:07:12</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K23" t="n">
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
